--- a/11_27_19_Zinc_Combo.xlsx
+++ b/11_27_19_Zinc_Combo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="104">
   <si>
     <t>Block Type</t>
   </si>
@@ -656,7 +656,7 @@
   <dimension ref="A1:AE84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -763,14 +763,14 @@
       <c r="F8" t="s">
         <v>27</v>
       </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" t="s">
-        <v>11</v>
+      <c r="G8">
+        <v>0.36827918887138367</v>
+      </c>
+      <c r="H8">
+        <v>0.1902916431427002</v>
+      </c>
+      <c r="I8">
+        <v>0.71274572610855103</v>
       </c>
       <c r="J8">
         <v>34.227500915527344</v>
@@ -796,8 +796,8 @@
       <c r="Q8" t="s">
         <v>11</v>
       </c>
-      <c r="R8" t="s">
-        <v>11</v>
+      <c r="R8">
+        <v>1.4411282539367676</v>
       </c>
       <c r="S8" t="b">
         <v>1</v>
@@ -855,14 +855,14 @@
       <c r="F9" t="s">
         <v>27</v>
       </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" t="s">
-        <v>11</v>
+      <c r="G9">
+        <v>0.36827918887138367</v>
+      </c>
+      <c r="H9">
+        <v>0.1902916431427002</v>
+      </c>
+      <c r="I9">
+        <v>0.71274572610855103</v>
       </c>
       <c r="J9">
         <v>33.883407592773438</v>
@@ -888,8 +888,8 @@
       <c r="Q9" t="s">
         <v>11</v>
       </c>
-      <c r="R9" t="s">
-        <v>11</v>
+      <c r="R9">
+        <v>1.4411282539367676</v>
       </c>
       <c r="S9" t="b">
         <v>1</v>
@@ -947,14 +947,14 @@
       <c r="F10" t="s">
         <v>27</v>
       </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" t="s">
-        <v>11</v>
+      <c r="G10">
+        <v>7.6136164367198944E-2</v>
+      </c>
+      <c r="H10">
+        <v>5.7622816413640976E-2</v>
+      </c>
+      <c r="I10">
+        <v>0.1005975678563118</v>
       </c>
       <c r="J10">
         <v>32.541336059570312</v>
@@ -980,8 +980,8 @@
       <c r="Q10" t="s">
         <v>11</v>
       </c>
-      <c r="R10" t="s">
-        <v>11</v>
+      <c r="R10">
+        <v>3.7152743339538574</v>
       </c>
       <c r="S10" t="b">
         <v>1</v>
@@ -1039,14 +1039,14 @@
       <c r="F11" t="s">
         <v>27</v>
       </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" t="s">
-        <v>11</v>
+      <c r="G11">
+        <v>7.6136164367198944E-2</v>
+      </c>
+      <c r="H11">
+        <v>5.7622816413640976E-2</v>
+      </c>
+      <c r="I11">
+        <v>0.1005975678563118</v>
       </c>
       <c r="J11">
         <v>33.093513488769531</v>
@@ -1072,8 +1072,8 @@
       <c r="Q11" t="s">
         <v>11</v>
       </c>
-      <c r="R11" t="s">
-        <v>11</v>
+      <c r="R11">
+        <v>3.7152743339538574</v>
       </c>
       <c r="S11" t="b">
         <v>1</v>
@@ -1131,14 +1131,14 @@
       <c r="F12" t="s">
         <v>27</v>
       </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" t="s">
-        <v>11</v>
+      <c r="G12">
+        <v>0.10206418484449387</v>
+      </c>
+      <c r="H12">
+        <v>4.8028163611888885E-2</v>
+      </c>
+      <c r="I12">
+        <v>0.21689561009407043</v>
       </c>
       <c r="J12">
         <v>33.726295471191406</v>
@@ -1164,8 +1164,8 @@
       <c r="Q12" t="s">
         <v>11</v>
       </c>
-      <c r="R12" t="s">
-        <v>11</v>
+      <c r="R12">
+        <v>3.2924513816833496</v>
       </c>
       <c r="S12" t="b">
         <v>1</v>
@@ -1223,14 +1223,14 @@
       <c r="F13" t="s">
         <v>27</v>
       </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" t="s">
-        <v>11</v>
+      <c r="G13">
+        <v>0.10206418484449387</v>
+      </c>
+      <c r="H13">
+        <v>4.8028163611888885E-2</v>
+      </c>
+      <c r="I13">
+        <v>0.21689561009407043</v>
       </c>
       <c r="J13">
         <v>34.126094818115234</v>
@@ -1256,8 +1256,8 @@
       <c r="Q13" t="s">
         <v>11</v>
       </c>
-      <c r="R13" t="s">
-        <v>11</v>
+      <c r="R13">
+        <v>3.2924513816833496</v>
       </c>
       <c r="S13" t="b">
         <v>1</v>
@@ -1315,14 +1315,14 @@
       <c r="F14" t="s">
         <v>27</v>
       </c>
-      <c r="G14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" t="s">
-        <v>11</v>
+      <c r="G14">
+        <v>0.20539630949497223</v>
+      </c>
+      <c r="H14">
+        <v>0.1983136385679245</v>
+      </c>
+      <c r="I14">
+        <v>0.21273194253444672</v>
       </c>
       <c r="J14">
         <v>28.900951385498047</v>
@@ -1348,8 +1348,8 @@
       <c r="Q14" t="s">
         <v>11</v>
       </c>
-      <c r="R14" t="s">
-        <v>11</v>
+      <c r="R14">
+        <v>2.2835178375244141</v>
       </c>
       <c r="S14" t="b">
         <v>1</v>
@@ -1407,14 +1407,14 @@
       <c r="F15" t="s">
         <v>27</v>
       </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" t="s">
-        <v>11</v>
+      <c r="G15">
+        <v>0.20539630949497223</v>
+      </c>
+      <c r="H15">
+        <v>0.1983136385679245</v>
+      </c>
+      <c r="I15">
+        <v>0.21273194253444672</v>
       </c>
       <c r="J15">
         <v>28.913345336914062</v>
@@ -1440,8 +1440,8 @@
       <c r="Q15" t="s">
         <v>11</v>
       </c>
-      <c r="R15" t="s">
-        <v>11</v>
+      <c r="R15">
+        <v>2.2835178375244141</v>
       </c>
       <c r="S15" t="b">
         <v>1</v>
@@ -2235,14 +2235,14 @@
       <c r="F24" t="s">
         <v>27</v>
       </c>
-      <c r="G24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" t="s">
-        <v>11</v>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0.43535465002059937</v>
+      </c>
+      <c r="I24">
+        <v>2.2969779968261719</v>
       </c>
       <c r="J24">
         <v>29.251821517944336</v>
@@ -2268,8 +2268,8 @@
       <c r="Q24" t="s">
         <v>11</v>
       </c>
-      <c r="R24" t="s">
-        <v>11</v>
+      <c r="R24">
+        <v>0</v>
       </c>
       <c r="S24" t="b">
         <v>1</v>
@@ -2327,14 +2327,14 @@
       <c r="F25" t="s">
         <v>27</v>
       </c>
-      <c r="G25" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" t="s">
-        <v>11</v>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0.43535465002059937</v>
+      </c>
+      <c r="I25">
+        <v>2.2969779968261719</v>
       </c>
       <c r="J25">
         <v>28.486080169677734</v>
@@ -2360,8 +2360,8 @@
       <c r="Q25" t="s">
         <v>11</v>
       </c>
-      <c r="R25" t="s">
-        <v>11</v>
+      <c r="R25">
+        <v>0</v>
       </c>
       <c r="S25" t="b">
         <v>1</v>

--- a/11_27_19_Zinc_Combo.xlsx
+++ b/11_27_19_Zinc_Combo.xlsx
@@ -655,7 +655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>

--- a/11_27_19_Zinc_Combo.xlsx
+++ b/11_27_19_Zinc_Combo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1680" windowWidth="27760" windowHeight="16380" tabRatio="500"/>
+    <workbookView xWindow="220" yWindow="2040" windowWidth="27760" windowHeight="16380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="104">
   <si>
     <t>Block Type</t>
   </si>
@@ -655,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4409,7 +4409,7 @@
         <v>27</v>
       </c>
       <c r="G47">
-        <v>0.61731636524200439</v>
+        <v>1</v>
       </c>
       <c r="H47">
         <v>0.49148088693618774</v>
@@ -4504,7 +4504,7 @@
         <v>27</v>
       </c>
       <c r="G48">
-        <v>0.61731636524200439</v>
+        <v>1</v>
       </c>
       <c r="H48">
         <v>0.49148088693618774</v>
@@ -4599,7 +4599,7 @@
         <v>27</v>
       </c>
       <c r="G49">
-        <v>0.61731636524200439</v>
+        <v>1</v>
       </c>
       <c r="H49">
         <v>0.49148088693618774</v>
@@ -5168,14 +5168,14 @@
       <c r="F55" t="s">
         <v>27</v>
       </c>
-      <c r="G55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H55" t="s">
-        <v>11</v>
-      </c>
-      <c r="I55" t="s">
-        <v>11</v>
+      <c r="G55">
+        <v>0.14045263826847076</v>
+      </c>
+      <c r="H55">
+        <v>9.8728612065315247E-2</v>
+      </c>
+      <c r="I55">
+        <v>0.19980980455875397</v>
       </c>
       <c r="J55">
         <v>27.089807510375977</v>
@@ -5201,8 +5201,8 @@
       <c r="Q55" t="s">
         <v>11</v>
       </c>
-      <c r="R55" t="s">
-        <v>11</v>
+      <c r="R55">
+        <v>2.8318443298339844</v>
       </c>
       <c r="S55" t="b">
         <v>1</v>
@@ -5263,14 +5263,14 @@
       <c r="F56" t="s">
         <v>27</v>
       </c>
-      <c r="G56" t="s">
-        <v>11</v>
-      </c>
-      <c r="H56" t="s">
-        <v>11</v>
-      </c>
-      <c r="I56" t="s">
-        <v>11</v>
+      <c r="G56">
+        <v>0.14045263826847076</v>
+      </c>
+      <c r="H56">
+        <v>9.8728612065315247E-2</v>
+      </c>
+      <c r="I56">
+        <v>0.19980980455875397</v>
       </c>
       <c r="J56">
         <v>26.958484649658203</v>
@@ -5296,8 +5296,8 @@
       <c r="Q56" t="s">
         <v>11</v>
       </c>
-      <c r="R56" t="s">
-        <v>11</v>
+      <c r="R56">
+        <v>2.8318443298339844</v>
       </c>
       <c r="S56" t="b">
         <v>1</v>
@@ -5358,14 +5358,14 @@
       <c r="F57" t="s">
         <v>27</v>
       </c>
-      <c r="G57" t="s">
-        <v>11</v>
-      </c>
-      <c r="H57" t="s">
-        <v>11</v>
-      </c>
-      <c r="I57" t="s">
-        <v>11</v>
+      <c r="G57">
+        <v>0.79039973020553589</v>
+      </c>
+      <c r="H57">
+        <v>0.51272964477539062</v>
+      </c>
+      <c r="I57">
+        <v>1.2184427976608276</v>
       </c>
       <c r="J57">
         <v>23.793241500854492</v>
@@ -5391,8 +5391,8 @@
       <c r="Q57" t="s">
         <v>11</v>
       </c>
-      <c r="R57" t="s">
-        <v>11</v>
+      <c r="R57">
+        <v>0.33934560418128967</v>
       </c>
       <c r="S57" t="b">
         <v>1</v>
@@ -5453,14 +5453,14 @@
       <c r="F58" t="s">
         <v>27</v>
       </c>
-      <c r="G58" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58" t="s">
-        <v>11</v>
-      </c>
-      <c r="I58" t="s">
-        <v>11</v>
+      <c r="G58">
+        <v>0.79039973020553589</v>
+      </c>
+      <c r="H58">
+        <v>0.51272964477539062</v>
+      </c>
+      <c r="I58">
+        <v>1.2184427976608276</v>
       </c>
       <c r="J58">
         <v>24.632671356201172</v>
@@ -5486,8 +5486,8 @@
       <c r="Q58" t="s">
         <v>11</v>
       </c>
-      <c r="R58" t="s">
-        <v>11</v>
+      <c r="R58">
+        <v>0.33934560418128967</v>
       </c>
       <c r="S58" t="b">
         <v>1</v>
@@ -5548,14 +5548,14 @@
       <c r="F59" t="s">
         <v>27</v>
       </c>
-      <c r="G59" t="s">
-        <v>11</v>
-      </c>
-      <c r="H59" t="s">
-        <v>11</v>
-      </c>
-      <c r="I59" t="s">
-        <v>11</v>
+      <c r="G59">
+        <v>1.170854926109314</v>
+      </c>
+      <c r="H59">
+        <v>1.0463771820068359</v>
+      </c>
+      <c r="I59">
+        <v>1.3101404905319214</v>
       </c>
       <c r="J59">
         <v>24.891708374023438</v>
@@ -5581,8 +5581,8 @@
       <c r="Q59" t="s">
         <v>11</v>
       </c>
-      <c r="R59" t="s">
-        <v>11</v>
+      <c r="R59">
+        <v>-0.22756226360797882</v>
       </c>
       <c r="S59" t="b">
         <v>1</v>
@@ -5643,14 +5643,14 @@
       <c r="F60" t="s">
         <v>27</v>
       </c>
-      <c r="G60" t="s">
-        <v>11</v>
-      </c>
-      <c r="H60" t="s">
-        <v>11</v>
-      </c>
-      <c r="I60" t="s">
-        <v>11</v>
+      <c r="G60">
+        <v>1.170854926109314</v>
+      </c>
+      <c r="H60">
+        <v>1.0463771820068359</v>
+      </c>
+      <c r="I60">
+        <v>1.3101404905319214</v>
       </c>
       <c r="J60">
         <v>24.997852325439453</v>
@@ -5676,8 +5676,8 @@
       <c r="Q60" t="s">
         <v>11</v>
       </c>
-      <c r="R60" t="s">
-        <v>11</v>
+      <c r="R60">
+        <v>-0.22756226360797882</v>
       </c>
       <c r="S60" t="b">
         <v>1</v>
@@ -5738,14 +5738,14 @@
       <c r="F61" t="s">
         <v>27</v>
       </c>
-      <c r="G61" t="s">
-        <v>11</v>
-      </c>
-      <c r="H61" t="s">
-        <v>11</v>
-      </c>
-      <c r="I61" t="s">
-        <v>11</v>
+      <c r="G61">
+        <v>1.170854926109314</v>
+      </c>
+      <c r="H61">
+        <v>1.0463771820068359</v>
+      </c>
+      <c r="I61">
+        <v>1.3101404905319214</v>
       </c>
       <c r="J61">
         <v>25.082685470581055</v>
@@ -5771,8 +5771,8 @@
       <c r="Q61" t="s">
         <v>11</v>
       </c>
-      <c r="R61" t="s">
-        <v>11</v>
+      <c r="R61">
+        <v>-0.22756226360797882</v>
       </c>
       <c r="S61" t="b">
         <v>1</v>
@@ -5833,14 +5833,14 @@
       <c r="F62" t="s">
         <v>27</v>
       </c>
-      <c r="G62" t="s">
-        <v>11</v>
-      </c>
-      <c r="H62" t="s">
-        <v>11</v>
-      </c>
-      <c r="I62" t="s">
-        <v>11</v>
+      <c r="G62">
+        <v>0.52225416898727417</v>
+      </c>
+      <c r="H62">
+        <v>0.38283470273017883</v>
+      </c>
+      <c r="I62">
+        <v>0.71244686841964722</v>
       </c>
       <c r="J62">
         <v>25.76441764831543</v>
@@ -5866,8 +5866,8 @@
       <c r="Q62" t="s">
         <v>11</v>
       </c>
-      <c r="R62" t="s">
-        <v>11</v>
+      <c r="R62">
+        <v>0.93717604875564575</v>
       </c>
       <c r="S62" t="b">
         <v>1</v>
@@ -5928,14 +5928,14 @@
       <c r="F63" t="s">
         <v>27</v>
       </c>
-      <c r="G63" t="s">
-        <v>11</v>
-      </c>
-      <c r="H63" t="s">
-        <v>11</v>
-      </c>
-      <c r="I63" t="s">
-        <v>11</v>
+      <c r="G63">
+        <v>0.52225416898727417</v>
+      </c>
+      <c r="H63">
+        <v>0.38283470273017883</v>
+      </c>
+      <c r="I63">
+        <v>0.71244686841964722</v>
       </c>
       <c r="J63">
         <v>25.911056518554688</v>
@@ -5961,8 +5961,8 @@
       <c r="Q63" t="s">
         <v>11</v>
       </c>
-      <c r="R63" t="s">
-        <v>11</v>
+      <c r="R63">
+        <v>0.93717604875564575</v>
       </c>
       <c r="S63" t="b">
         <v>1</v>
@@ -6023,14 +6023,14 @@
       <c r="F64" t="s">
         <v>27</v>
       </c>
-      <c r="G64" t="s">
-        <v>11</v>
-      </c>
-      <c r="H64" t="s">
-        <v>11</v>
-      </c>
-      <c r="I64" t="s">
-        <v>11</v>
+      <c r="G64">
+        <v>0.52225416898727417</v>
+      </c>
+      <c r="H64">
+        <v>0.38283470273017883</v>
+      </c>
+      <c r="I64">
+        <v>0.71244686841964722</v>
       </c>
       <c r="J64">
         <v>25.82135009765625</v>
@@ -6056,8 +6056,8 @@
       <c r="Q64" t="s">
         <v>11</v>
       </c>
-      <c r="R64" t="s">
-        <v>11</v>
+      <c r="R64">
+        <v>0.93717604875564575</v>
       </c>
       <c r="S64" t="b">
         <v>1</v>
@@ -7068,14 +7068,14 @@
       <c r="F75" t="s">
         <v>27</v>
       </c>
-      <c r="G75" t="s">
-        <v>11</v>
-      </c>
-      <c r="H75" t="s">
-        <v>11</v>
-      </c>
-      <c r="I75" t="s">
-        <v>11</v>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>0.81032931804656982</v>
+      </c>
+      <c r="I75">
+        <v>1.2340661287307739</v>
       </c>
       <c r="J75">
         <v>25.790241241455078</v>
@@ -7101,8 +7101,8 @@
       <c r="Q75" t="s">
         <v>11</v>
       </c>
-      <c r="R75" t="s">
-        <v>11</v>
+      <c r="R75">
+        <v>0</v>
       </c>
       <c r="S75" t="b">
         <v>1</v>
@@ -7163,14 +7163,14 @@
       <c r="F76" t="s">
         <v>27</v>
       </c>
-      <c r="G76" t="s">
-        <v>11</v>
-      </c>
-      <c r="H76" t="s">
-        <v>11</v>
-      </c>
-      <c r="I76" t="s">
-        <v>11</v>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>0.81032931804656982</v>
+      </c>
+      <c r="I76">
+        <v>1.2340661287307739</v>
       </c>
       <c r="J76">
         <v>25.217138290405273</v>
@@ -7196,8 +7196,8 @@
       <c r="Q76" t="s">
         <v>11</v>
       </c>
-      <c r="R76" t="s">
-        <v>11</v>
+      <c r="R76">
+        <v>0</v>
       </c>
       <c r="S76" t="b">
         <v>1</v>
@@ -7258,14 +7258,14 @@
       <c r="F77" t="s">
         <v>27</v>
       </c>
-      <c r="G77" t="s">
-        <v>11</v>
-      </c>
-      <c r="H77" t="s">
-        <v>11</v>
-      </c>
-      <c r="I77" t="s">
-        <v>11</v>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>0.81032931804656982</v>
+      </c>
+      <c r="I77">
+        <v>1.2340661287307739</v>
       </c>
       <c r="J77">
         <v>25.384721755981445</v>
@@ -7291,8 +7291,8 @@
       <c r="Q77" t="s">
         <v>11</v>
       </c>
-      <c r="R77" t="s">
-        <v>11</v>
+      <c r="R77">
+        <v>0</v>
       </c>
       <c r="S77" t="b">
         <v>1</v>
@@ -7521,6 +7521,101 @@
         <v>58</v>
       </c>
       <c r="AE79" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>65</v>
+      </c>
+      <c r="B80" t="s">
+        <v>96</v>
+      </c>
+      <c r="C80" t="s">
+        <v>45</v>
+      </c>
+      <c r="D80" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" t="s">
+        <v>26</v>
+      </c>
+      <c r="F80" t="s">
+        <v>27</v>
+      </c>
+      <c r="G80" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80" t="s">
+        <v>11</v>
+      </c>
+      <c r="I80" t="s">
+        <v>11</v>
+      </c>
+      <c r="J80">
+        <v>15.826440811157227</v>
+      </c>
+      <c r="K80">
+        <v>15.867739677429199</v>
+      </c>
+      <c r="L80">
+        <v>7.2346225380897522E-2</v>
+      </c>
+      <c r="M80" t="s">
+        <v>11</v>
+      </c>
+      <c r="N80" t="s">
+        <v>11</v>
+      </c>
+      <c r="O80" t="s">
+        <v>11</v>
+      </c>
+      <c r="P80" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>11</v>
+      </c>
+      <c r="R80" t="s">
+        <v>11</v>
+      </c>
+      <c r="S80" t="b">
+        <v>1</v>
+      </c>
+      <c r="T80">
+        <v>7233.1722656250004</v>
+      </c>
+      <c r="U80" t="b">
+        <v>1</v>
+      </c>
+      <c r="V80">
+        <v>3</v>
+      </c>
+      <c r="W80">
+        <v>8</v>
+      </c>
+      <c r="X80">
+        <v>1</v>
+      </c>
+      <c r="Y80">
+        <v>85.885971069335938</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD80" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE80" t="s">
         <v>58</v>
       </c>
     </row>

--- a/11_27_19_Zinc_Combo.xlsx
+++ b/11_27_19_Zinc_Combo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="102">
   <si>
     <t>Block Type</t>
   </si>
@@ -231,12 +231,6 @@
   </si>
   <si>
     <t>BCC SS  0 uM Zinc</t>
-  </si>
-  <si>
-    <t>BCC SS 0 uM Zinc</t>
-  </si>
-  <si>
-    <t>Undetermined</t>
   </si>
   <si>
     <t>D2</t>
@@ -653,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE84"/>
+  <dimension ref="A1:AE79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47:G49"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2402,13 +2396,13 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
         <v>25</v>
@@ -2419,32 +2413,32 @@
       <c r="F26" t="s">
         <v>27</v>
       </c>
-      <c r="G26" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" t="s">
-        <v>11</v>
+      <c r="G26">
+        <v>0.86026400327682495</v>
+      </c>
+      <c r="H26">
+        <v>0.48525074124336243</v>
+      </c>
+      <c r="I26">
+        <v>1.5250964164733887</v>
       </c>
       <c r="J26">
-        <v>16.942008972167969</v>
+        <v>22.925813674926758</v>
       </c>
       <c r="K26">
-        <v>16.184978485107422</v>
+        <v>23.484457015991211</v>
       </c>
       <c r="L26">
-        <v>1.0706020593643188</v>
+        <v>0.62287837266921997</v>
       </c>
       <c r="M26" t="s">
         <v>11</v>
       </c>
-      <c r="N26" t="s">
-        <v>11</v>
-      </c>
-      <c r="O26" t="s">
-        <v>11</v>
+      <c r="N26">
+        <v>7.9173192977905273</v>
+      </c>
+      <c r="O26">
+        <v>0.82604902982711792</v>
       </c>
       <c r="P26" t="s">
         <v>11</v>
@@ -2452,14 +2446,14 @@
       <c r="Q26" t="s">
         <v>11</v>
       </c>
-      <c r="R26" t="s">
-        <v>11</v>
+      <c r="R26">
+        <v>0.21714861690998077</v>
       </c>
       <c r="S26" t="b">
         <v>1</v>
       </c>
       <c r="T26">
-        <v>12383.672293526786</v>
+        <v>1531.834488105435</v>
       </c>
       <c r="U26" t="b">
         <v>1</v>
@@ -2468,13 +2462,13 @@
         <v>3</v>
       </c>
       <c r="W26">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="X26">
         <v>1</v>
       </c>
       <c r="Y26">
-        <v>84.102935791015625</v>
+        <v>87.364326477050781</v>
       </c>
       <c r="Z26" t="s">
         <v>11</v>
@@ -2491,16 +2485,19 @@
       <c r="AD26" t="s">
         <v>58</v>
       </c>
+      <c r="AE26" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D27" t="s">
         <v>25</v>
@@ -2511,32 +2508,32 @@
       <c r="F27" t="s">
         <v>27</v>
       </c>
-      <c r="G27" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" t="s">
-        <v>11</v>
+      <c r="G27">
+        <v>0.86026400327682495</v>
+      </c>
+      <c r="H27">
+        <v>0.48525074124336243</v>
+      </c>
+      <c r="I27">
+        <v>1.5250964164733887</v>
       </c>
       <c r="J27">
-        <v>15.427948951721191</v>
+        <v>24.156099319458008</v>
       </c>
       <c r="K27">
-        <v>16.184978485107422</v>
+        <v>23.484457015991211</v>
       </c>
       <c r="L27">
-        <v>1.0706020593643188</v>
+        <v>0.62287837266921997</v>
       </c>
       <c r="M27" t="s">
         <v>11</v>
       </c>
-      <c r="N27" t="s">
-        <v>11</v>
-      </c>
-      <c r="O27" t="s">
-        <v>11</v>
+      <c r="N27">
+        <v>7.9173192977905273</v>
+      </c>
+      <c r="O27">
+        <v>0.82604902982711792</v>
       </c>
       <c r="P27" t="s">
         <v>11</v>
@@ -2544,14 +2541,14 @@
       <c r="Q27" t="s">
         <v>11</v>
       </c>
-      <c r="R27" t="s">
-        <v>11</v>
+      <c r="R27">
+        <v>0.21714861690998077</v>
       </c>
       <c r="S27" t="b">
         <v>1</v>
       </c>
       <c r="T27">
-        <v>12383.672293526786</v>
+        <v>1531.834488105435</v>
       </c>
       <c r="U27" t="b">
         <v>1</v>
@@ -2560,16 +2557,16 @@
         <v>3</v>
       </c>
       <c r="W27">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="X27">
         <v>1</v>
       </c>
       <c r="Y27">
-        <v>83.20880126953125</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>11</v>
+        <v>87.377494812011719</v>
+      </c>
+      <c r="Z27">
+        <v>64.397651672363281</v>
       </c>
       <c r="AA27" t="s">
         <v>11</v>
@@ -2583,10 +2580,13 @@
       <c r="AD27" t="s">
         <v>58</v>
       </c>
+      <c r="AE27" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
@@ -2613,7 +2613,7 @@
         <v>1.5250964164733887</v>
       </c>
       <c r="J28">
-        <v>22.925813674926758</v>
+        <v>23.371456146240234</v>
       </c>
       <c r="K28">
         <v>23.484457015991211</v>
@@ -2658,7 +2658,7 @@
         <v>1</v>
       </c>
       <c r="Y28">
-        <v>87.364326477050781</v>
+        <v>87.526710510253906</v>
       </c>
       <c r="Z28" t="s">
         <v>11</v>
@@ -2681,10 +2681,10 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
         <v>24</v>
@@ -2699,31 +2699,31 @@
         <v>27</v>
       </c>
       <c r="G29">
-        <v>0.86026400327682495</v>
+        <v>0.97138786315917969</v>
       </c>
       <c r="H29">
-        <v>0.48525074124336243</v>
+        <v>0.93725001811981201</v>
       </c>
       <c r="I29">
-        <v>1.5250964164733887</v>
+        <v>1.0067691802978516</v>
       </c>
       <c r="J29">
-        <v>24.156099319458008</v>
+        <v>24.252803802490234</v>
       </c>
       <c r="K29">
-        <v>23.484457015991211</v>
+        <v>24.260753631591797</v>
       </c>
       <c r="L29">
-        <v>0.62287837266921997</v>
+        <v>1.124410517513752E-2</v>
       </c>
       <c r="M29" t="s">
         <v>11</v>
       </c>
       <c r="N29">
-        <v>7.9173192977905273</v>
+        <v>7.7420511245727539</v>
       </c>
       <c r="O29">
-        <v>0.82604902982711792</v>
+        <v>5.1613572984933853E-2</v>
       </c>
       <c r="P29" t="s">
         <v>11</v>
@@ -2732,7 +2732,7 @@
         <v>11</v>
       </c>
       <c r="R29">
-        <v>0.21714861690998077</v>
+        <v>4.1880607604980469E-2</v>
       </c>
       <c r="S29" t="b">
         <v>1</v>
@@ -2747,16 +2747,16 @@
         <v>3</v>
       </c>
       <c r="W29">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X29">
         <v>1</v>
       </c>
       <c r="Y29">
-        <v>87.377494812011719</v>
+        <v>87.519096374511719</v>
       </c>
       <c r="Z29">
-        <v>64.397651672363281</v>
+        <v>63.797256469726562</v>
       </c>
       <c r="AA29" t="s">
         <v>11</v>
@@ -2765,7 +2765,7 @@
         <v>11</v>
       </c>
       <c r="AC29" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="AD29" t="s">
         <v>58</v>
@@ -2776,10 +2776,10 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
         <v>24</v>
@@ -2794,31 +2794,31 @@
         <v>27</v>
       </c>
       <c r="G30">
-        <v>0.86026400327682495</v>
+        <v>0.97138786315917969</v>
       </c>
       <c r="H30">
-        <v>0.48525074124336243</v>
+        <v>0.93725001811981201</v>
       </c>
       <c r="I30">
-        <v>1.5250964164733887</v>
+        <v>1.0067691802978516</v>
       </c>
       <c r="J30">
-        <v>23.371456146240234</v>
+        <v>24.268705368041992</v>
       </c>
       <c r="K30">
-        <v>23.484457015991211</v>
+        <v>24.260753631591797</v>
       </c>
       <c r="L30">
-        <v>0.62287837266921997</v>
+        <v>1.124410517513752E-2</v>
       </c>
       <c r="M30" t="s">
         <v>11</v>
       </c>
       <c r="N30">
-        <v>7.9173192977905273</v>
+        <v>7.7420511245727539</v>
       </c>
       <c r="O30">
-        <v>0.82604902982711792</v>
+        <v>5.1613572984933853E-2</v>
       </c>
       <c r="P30" t="s">
         <v>11</v>
@@ -2827,7 +2827,7 @@
         <v>11</v>
       </c>
       <c r="R30">
-        <v>0.21714861690998077</v>
+        <v>4.1880607604980469E-2</v>
       </c>
       <c r="S30" t="b">
         <v>1</v>
@@ -2842,39 +2842,39 @@
         <v>3</v>
       </c>
       <c r="W30">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="X30">
         <v>1</v>
       </c>
       <c r="Y30">
-        <v>87.526710510253906</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>11</v>
+        <v>87.369903564453125</v>
+      </c>
+      <c r="Z30">
+        <v>84.087638854980469</v>
+      </c>
+      <c r="AA30">
+        <v>72.898086547851562</v>
       </c>
       <c r="AB30" t="s">
         <v>11</v>
       </c>
       <c r="AC30" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE30" t="s">
         <v>64</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
         <v>24</v>
@@ -2889,31 +2889,31 @@
         <v>27</v>
       </c>
       <c r="G31">
-        <v>0.97138786315917969</v>
+        <v>0.81551855802536011</v>
       </c>
       <c r="H31">
-        <v>0.93725001811981201</v>
+        <v>0.70195364952087402</v>
       </c>
       <c r="I31">
-        <v>1.0067691802978516</v>
+        <v>0.94745635986328125</v>
       </c>
       <c r="J31">
-        <v>24.252803802490234</v>
+        <v>24.3365478515625</v>
       </c>
       <c r="K31">
-        <v>24.260753631591797</v>
+        <v>24.270534515380859</v>
       </c>
       <c r="L31">
-        <v>1.124410517513752E-2</v>
+        <v>9.335695207118988E-2</v>
       </c>
       <c r="M31" t="s">
         <v>11</v>
       </c>
       <c r="N31">
-        <v>7.7420511245727539</v>
+        <v>7.9943809509277344</v>
       </c>
       <c r="O31">
-        <v>5.1613572984933853E-2</v>
+        <v>0.21634183824062347</v>
       </c>
       <c r="P31" t="s">
         <v>11</v>
@@ -2922,7 +2922,7 @@
         <v>11</v>
       </c>
       <c r="R31">
-        <v>4.1880607604980469E-2</v>
+        <v>0.29421043395996094</v>
       </c>
       <c r="S31" t="b">
         <v>1</v>
@@ -2937,16 +2937,16 @@
         <v>3</v>
       </c>
       <c r="W31">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X31">
         <v>1</v>
       </c>
       <c r="Y31">
-        <v>87.519096374511719</v>
+        <v>87.37188720703125</v>
       </c>
       <c r="Z31">
-        <v>63.797256469726562</v>
+        <v>74.539657592773438</v>
       </c>
       <c r="AA31" t="s">
         <v>11</v>
@@ -2966,10 +2966,10 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
         <v>24</v>
@@ -2984,31 +2984,31 @@
         <v>27</v>
       </c>
       <c r="G32">
-        <v>0.97138786315917969</v>
+        <v>0.81551855802536011</v>
       </c>
       <c r="H32">
-        <v>0.93725001811981201</v>
+        <v>0.70195364952087402</v>
       </c>
       <c r="I32">
-        <v>1.0067691802978516</v>
+        <v>0.94745635986328125</v>
       </c>
       <c r="J32">
-        <v>24.268705368041992</v>
+        <v>24.204521179199219</v>
       </c>
       <c r="K32">
-        <v>24.260753631591797</v>
+        <v>24.270534515380859</v>
       </c>
       <c r="L32">
-        <v>1.124410517513752E-2</v>
+        <v>9.335695207118988E-2</v>
       </c>
       <c r="M32" t="s">
         <v>11</v>
       </c>
       <c r="N32">
-        <v>7.7420511245727539</v>
+        <v>7.9943809509277344</v>
       </c>
       <c r="O32">
-        <v>5.1613572984933853E-2</v>
+        <v>0.21634183824062347</v>
       </c>
       <c r="P32" t="s">
         <v>11</v>
@@ -3017,7 +3017,7 @@
         <v>11</v>
       </c>
       <c r="R32">
-        <v>4.1880607604980469E-2</v>
+        <v>0.29421043395996094</v>
       </c>
       <c r="S32" t="b">
         <v>1</v>
@@ -3038,13 +3038,13 @@
         <v>1</v>
       </c>
       <c r="Y32">
-        <v>87.369903564453125</v>
+        <v>87.073745727539062</v>
       </c>
       <c r="Z32">
-        <v>84.087638854980469</v>
-      </c>
-      <c r="AA32">
-        <v>72.898086547851562</v>
+        <v>75.588020324707031</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>11</v>
       </c>
       <c r="AB32" t="s">
         <v>11</v>
@@ -3061,13 +3061,13 @@
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D33" t="s">
         <v>25</v>
@@ -3078,32 +3078,32 @@
       <c r="F33" t="s">
         <v>27</v>
       </c>
-      <c r="G33">
-        <v>0.81551855802536011</v>
-      </c>
-      <c r="H33">
-        <v>0.70195364952087402</v>
-      </c>
-      <c r="I33">
-        <v>0.94745635986328125</v>
+      <c r="G33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" t="s">
+        <v>11</v>
       </c>
       <c r="J33">
-        <v>24.3365478515625</v>
+        <v>15.950790405273438</v>
       </c>
       <c r="K33">
-        <v>24.270534515380859</v>
+        <v>15.567136764526367</v>
       </c>
       <c r="L33">
-        <v>9.335695207118988E-2</v>
+        <v>0.54256749153137207</v>
       </c>
       <c r="M33" t="s">
         <v>11</v>
       </c>
-      <c r="N33">
-        <v>7.9943809509277344</v>
-      </c>
-      <c r="O33">
-        <v>0.21634183824062347</v>
+      <c r="N33" t="s">
+        <v>11</v>
+      </c>
+      <c r="O33" t="s">
+        <v>11</v>
       </c>
       <c r="P33" t="s">
         <v>11</v>
@@ -3111,14 +3111,14 @@
       <c r="Q33" t="s">
         <v>11</v>
       </c>
-      <c r="R33">
-        <v>0.29421043395996094</v>
+      <c r="R33" t="s">
+        <v>11</v>
       </c>
       <c r="S33" t="b">
         <v>1</v>
       </c>
       <c r="T33">
-        <v>1531.834488105435</v>
+        <v>7376.4347242254271</v>
       </c>
       <c r="U33" t="b">
         <v>1</v>
@@ -3127,16 +3127,16 @@
         <v>3</v>
       </c>
       <c r="W33">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="X33">
         <v>1</v>
       </c>
       <c r="Y33">
-        <v>87.37188720703125</v>
-      </c>
-      <c r="Z33">
-        <v>74.539657592773438</v>
+        <v>83.932327270507812</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>11</v>
       </c>
       <c r="AA33" t="s">
         <v>11</v>
@@ -3145,24 +3145,24 @@
         <v>11</v>
       </c>
       <c r="AC33" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="AD33" t="s">
         <v>58</v>
       </c>
       <c r="AE33" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D34" t="s">
         <v>25</v>
@@ -3173,32 +3173,32 @@
       <c r="F34" t="s">
         <v>27</v>
       </c>
-      <c r="G34">
-        <v>0.81551855802536011</v>
-      </c>
-      <c r="H34">
-        <v>0.70195364952087402</v>
-      </c>
-      <c r="I34">
-        <v>0.94745635986328125</v>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" t="s">
+        <v>11</v>
       </c>
       <c r="J34">
-        <v>24.204521179199219</v>
+        <v>15.183484077453613</v>
       </c>
       <c r="K34">
-        <v>24.270534515380859</v>
+        <v>15.567136764526367</v>
       </c>
       <c r="L34">
-        <v>9.335695207118988E-2</v>
+        <v>0.54256749153137207</v>
       </c>
       <c r="M34" t="s">
         <v>11</v>
       </c>
-      <c r="N34">
-        <v>7.9943809509277344</v>
-      </c>
-      <c r="O34">
-        <v>0.21634183824062347</v>
+      <c r="N34" t="s">
+        <v>11</v>
+      </c>
+      <c r="O34" t="s">
+        <v>11</v>
       </c>
       <c r="P34" t="s">
         <v>11</v>
@@ -3206,14 +3206,14 @@
       <c r="Q34" t="s">
         <v>11</v>
       </c>
-      <c r="R34">
-        <v>0.29421043395996094</v>
+      <c r="R34" t="s">
+        <v>11</v>
       </c>
       <c r="S34" t="b">
         <v>1</v>
       </c>
       <c r="T34">
-        <v>1531.834488105435</v>
+        <v>7376.4347242254271</v>
       </c>
       <c r="U34" t="b">
         <v>1</v>
@@ -3222,16 +3222,16 @@
         <v>3</v>
       </c>
       <c r="W34">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="X34">
         <v>1</v>
       </c>
       <c r="Y34">
-        <v>87.073745727539062</v>
-      </c>
-      <c r="Z34">
-        <v>75.588020324707031</v>
+        <v>84.094657897949219</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>11</v>
       </c>
       <c r="AA34" t="s">
         <v>11</v>
@@ -3240,21 +3240,21 @@
         <v>11</v>
       </c>
       <c r="AC34" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="AD34" t="s">
         <v>58</v>
       </c>
       <c r="AE34" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
         <v>45</v>
@@ -3277,14 +3277,14 @@
       <c r="I35" t="s">
         <v>11</v>
       </c>
-      <c r="J35" t="s">
-        <v>69</v>
-      </c>
-      <c r="K35" t="s">
-        <v>11</v>
-      </c>
-      <c r="L35" t="s">
-        <v>11</v>
+      <c r="J35">
+        <v>16.483083724975586</v>
+      </c>
+      <c r="K35">
+        <v>16.518703460693359</v>
+      </c>
+      <c r="L35">
+        <v>5.037391185760498E-2</v>
       </c>
       <c r="M35" t="s">
         <v>11</v>
@@ -3317,13 +3317,13 @@
         <v>3</v>
       </c>
       <c r="W35">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="X35">
         <v>1</v>
       </c>
       <c r="Y35">
-        <v>77.078086853027344</v>
+        <v>83.938446044921875</v>
       </c>
       <c r="Z35" t="s">
         <v>11</v>
@@ -3338,7 +3338,7 @@
         <v>58</v>
       </c>
       <c r="AD35" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="AE35" t="s">
         <v>58</v>
@@ -3346,10 +3346,10 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
         <v>45</v>
@@ -3372,14 +3372,14 @@
       <c r="I36" t="s">
         <v>11</v>
       </c>
-      <c r="J36" t="s">
-        <v>69</v>
-      </c>
-      <c r="K36" t="s">
-        <v>11</v>
-      </c>
-      <c r="L36" t="s">
-        <v>11</v>
+      <c r="J36">
+        <v>16.554323196411133</v>
+      </c>
+      <c r="K36">
+        <v>16.518703460693359</v>
+      </c>
+      <c r="L36">
+        <v>5.037391185760498E-2</v>
       </c>
       <c r="M36" t="s">
         <v>11</v>
@@ -3412,13 +3412,13 @@
         <v>3</v>
       </c>
       <c r="W36">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="X36">
         <v>1</v>
       </c>
       <c r="Y36">
-        <v>75.586334228515625</v>
+        <v>83.938446044921875</v>
       </c>
       <c r="Z36" t="s">
         <v>11</v>
@@ -3433,7 +3433,7 @@
         <v>58</v>
       </c>
       <c r="AD36" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="AE36" t="s">
         <v>58</v>
@@ -3441,10 +3441,10 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
         <v>45</v>
@@ -3467,14 +3467,14 @@
       <c r="I37" t="s">
         <v>11</v>
       </c>
-      <c r="J37" t="s">
-        <v>69</v>
-      </c>
-      <c r="K37" t="s">
-        <v>11</v>
-      </c>
-      <c r="L37" t="s">
-        <v>11</v>
+      <c r="J37">
+        <v>16.138153076171875</v>
+      </c>
+      <c r="K37">
+        <v>16.276153564453125</v>
+      </c>
+      <c r="L37">
+        <v>0.19516216218471527</v>
       </c>
       <c r="M37" t="s">
         <v>11</v>
@@ -3507,13 +3507,13 @@
         <v>3</v>
       </c>
       <c r="W37">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="X37">
         <v>1</v>
       </c>
       <c r="Y37">
-        <v>73.039474487304688</v>
+        <v>84.089218139648438</v>
       </c>
       <c r="Z37" t="s">
         <v>11</v>
@@ -3528,7 +3528,7 @@
         <v>58</v>
       </c>
       <c r="AD37" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="AE37" t="s">
         <v>58</v>
@@ -3536,10 +3536,10 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -3563,13 +3563,13 @@
         <v>11</v>
       </c>
       <c r="J38">
-        <v>15.950790405273438</v>
+        <v>16.414154052734375</v>
       </c>
       <c r="K38">
-        <v>15.567136764526367</v>
+        <v>16.276153564453125</v>
       </c>
       <c r="L38">
-        <v>0.54256749153137207</v>
+        <v>0.19516216218471527</v>
       </c>
       <c r="M38" t="s">
         <v>11</v>
@@ -3602,13 +3602,13 @@
         <v>3</v>
       </c>
       <c r="W38">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X38">
         <v>1</v>
       </c>
       <c r="Y38">
-        <v>83.932327270507812</v>
+        <v>83.6429443359375</v>
       </c>
       <c r="Z38" t="s">
         <v>11</v>
@@ -3620,7 +3620,7 @@
         <v>11</v>
       </c>
       <c r="AC38" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="AD38" t="s">
         <v>58</v>
@@ -3631,13 +3631,13 @@
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D39" t="s">
         <v>25</v>
@@ -3648,32 +3648,32 @@
       <c r="F39" t="s">
         <v>27</v>
       </c>
-      <c r="G39" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39" t="s">
-        <v>11</v>
-      </c>
-      <c r="I39" t="s">
-        <v>11</v>
+      <c r="G39">
+        <v>1.6286087036132812</v>
+      </c>
+      <c r="H39">
+        <v>1.3335607051849365</v>
+      </c>
+      <c r="I39">
+        <v>1.9889354705810547</v>
       </c>
       <c r="J39">
-        <v>15.183484077453613</v>
+        <v>23.402332305908203</v>
       </c>
       <c r="K39">
-        <v>15.567136764526367</v>
+        <v>23.397832870483398</v>
       </c>
       <c r="L39">
-        <v>0.54256749153137207</v>
+        <v>0.27812731266021729</v>
       </c>
       <c r="M39" t="s">
         <v>11</v>
       </c>
-      <c r="N39" t="s">
-        <v>11</v>
-      </c>
-      <c r="O39" t="s">
-        <v>11</v>
+      <c r="N39">
+        <v>6.9965305328369141</v>
+      </c>
+      <c r="O39">
+        <v>0.2883564829826355</v>
       </c>
       <c r="P39" t="s">
         <v>11</v>
@@ -3681,14 +3681,14 @@
       <c r="Q39" t="s">
         <v>11</v>
       </c>
-      <c r="R39" t="s">
-        <v>11</v>
+      <c r="R39">
+        <v>-0.70363998413085938</v>
       </c>
       <c r="S39" t="b">
         <v>1</v>
       </c>
       <c r="T39">
-        <v>7376.4347242254271</v>
+        <v>1531.834488105435</v>
       </c>
       <c r="U39" t="b">
         <v>1</v>
@@ -3697,16 +3697,16 @@
         <v>3</v>
       </c>
       <c r="W39">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="X39">
         <v>1</v>
       </c>
       <c r="Y39">
-        <v>84.094657897949219</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>11</v>
+        <v>87.371170043945312</v>
+      </c>
+      <c r="Z39">
+        <v>64.696548461914062</v>
       </c>
       <c r="AA39" t="s">
         <v>11</v>
@@ -3715,24 +3715,24 @@
         <v>11</v>
       </c>
       <c r="AC39" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE39" t="s">
         <v>64</v>
-      </c>
-      <c r="AD39" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D40" t="s">
         <v>25</v>
@@ -3743,32 +3743,32 @@
       <c r="F40" t="s">
         <v>27</v>
       </c>
-      <c r="G40" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40" t="s">
-        <v>11</v>
-      </c>
-      <c r="I40" t="s">
-        <v>11</v>
+      <c r="G40">
+        <v>1.6286087036132812</v>
+      </c>
+      <c r="H40">
+        <v>1.3335607051849365</v>
+      </c>
+      <c r="I40">
+        <v>1.9889354705810547</v>
       </c>
       <c r="J40">
-        <v>16.483083724975586</v>
+        <v>23.673683166503906</v>
       </c>
       <c r="K40">
-        <v>16.518703460693359</v>
+        <v>23.397832870483398</v>
       </c>
       <c r="L40">
-        <v>5.037391185760498E-2</v>
+        <v>0.27812731266021729</v>
       </c>
       <c r="M40" t="s">
         <v>11</v>
       </c>
-      <c r="N40" t="s">
-        <v>11</v>
-      </c>
-      <c r="O40" t="s">
-        <v>11</v>
+      <c r="N40">
+        <v>6.9965305328369141</v>
+      </c>
+      <c r="O40">
+        <v>0.2883564829826355</v>
       </c>
       <c r="P40" t="s">
         <v>11</v>
@@ -3776,14 +3776,14 @@
       <c r="Q40" t="s">
         <v>11</v>
       </c>
-      <c r="R40" t="s">
-        <v>11</v>
+      <c r="R40">
+        <v>-0.70363998413085938</v>
       </c>
       <c r="S40" t="b">
         <v>1</v>
       </c>
       <c r="T40">
-        <v>7376.4347242254271</v>
+        <v>1531.834488105435</v>
       </c>
       <c r="U40" t="b">
         <v>1</v>
@@ -3792,16 +3792,16 @@
         <v>3</v>
       </c>
       <c r="W40">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="X40">
         <v>1</v>
       </c>
       <c r="Y40">
-        <v>83.938446044921875</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>11</v>
+        <v>87.221992492675781</v>
+      </c>
+      <c r="Z40">
+        <v>64.398200988769531</v>
       </c>
       <c r="AA40" t="s">
         <v>11</v>
@@ -3816,18 +3816,18 @@
         <v>58</v>
       </c>
       <c r="AE40" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D41" t="s">
         <v>25</v>
@@ -3838,32 +3838,32 @@
       <c r="F41" t="s">
         <v>27</v>
       </c>
-      <c r="G41" t="s">
-        <v>11</v>
-      </c>
-      <c r="H41" t="s">
-        <v>11</v>
-      </c>
-      <c r="I41" t="s">
-        <v>11</v>
+      <c r="G41">
+        <v>1.6286087036132812</v>
+      </c>
+      <c r="H41">
+        <v>1.3335607051849365</v>
+      </c>
+      <c r="I41">
+        <v>1.9889354705810547</v>
       </c>
       <c r="J41">
-        <v>16.554323196411133</v>
+        <v>23.117483139038086</v>
       </c>
       <c r="K41">
-        <v>16.518703460693359</v>
+        <v>23.397832870483398</v>
       </c>
       <c r="L41">
-        <v>5.037391185760498E-2</v>
+        <v>0.27812731266021729</v>
       </c>
       <c r="M41" t="s">
         <v>11</v>
       </c>
-      <c r="N41" t="s">
-        <v>11</v>
-      </c>
-      <c r="O41" t="s">
-        <v>11</v>
+      <c r="N41">
+        <v>6.9965305328369141</v>
+      </c>
+      <c r="O41">
+        <v>0.2883564829826355</v>
       </c>
       <c r="P41" t="s">
         <v>11</v>
@@ -3871,14 +3871,14 @@
       <c r="Q41" t="s">
         <v>11</v>
       </c>
-      <c r="R41" t="s">
-        <v>11</v>
+      <c r="R41">
+        <v>-0.70363998413085938</v>
       </c>
       <c r="S41" t="b">
         <v>1</v>
       </c>
       <c r="T41">
-        <v>7376.4347242254271</v>
+        <v>1531.834488105435</v>
       </c>
       <c r="U41" t="b">
         <v>1</v>
@@ -3887,16 +3887,16 @@
         <v>3</v>
       </c>
       <c r="W41">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="X41">
         <v>1</v>
       </c>
       <c r="Y41">
-        <v>83.938446044921875</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>11</v>
+        <v>87.215110778808594</v>
+      </c>
+      <c r="Z41">
+        <v>74.23321533203125</v>
       </c>
       <c r="AA41" t="s">
         <v>11</v>
@@ -3911,18 +3911,18 @@
         <v>58</v>
       </c>
       <c r="AE41" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D42" t="s">
         <v>25</v>
@@ -3933,32 +3933,32 @@
       <c r="F42" t="s">
         <v>27</v>
       </c>
-      <c r="G42" t="s">
-        <v>11</v>
-      </c>
-      <c r="H42" t="s">
-        <v>11</v>
-      </c>
-      <c r="I42" t="s">
-        <v>11</v>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>0.49148088693618774</v>
+      </c>
+      <c r="I42">
+        <v>0.77536988258361816</v>
       </c>
       <c r="J42">
-        <v>16.138153076171875</v>
+        <v>24.747175216674805</v>
       </c>
       <c r="K42">
-        <v>16.276153564453125</v>
+        <v>24.69261360168457</v>
       </c>
       <c r="L42">
-        <v>0.19516216218471527</v>
+        <v>0.17209555208683014</v>
       </c>
       <c r="M42" t="s">
         <v>11</v>
       </c>
-      <c r="N42" t="s">
-        <v>11</v>
-      </c>
-      <c r="O42" t="s">
-        <v>11</v>
+      <c r="N42">
+        <v>8.3960886001586914</v>
+      </c>
+      <c r="O42">
+        <v>0.32887473702430725</v>
       </c>
       <c r="P42" t="s">
         <v>11</v>
@@ -3966,14 +3966,14 @@
       <c r="Q42" t="s">
         <v>11</v>
       </c>
-      <c r="R42" t="s">
-        <v>11</v>
+      <c r="R42">
+        <v>0.69591808319091797</v>
       </c>
       <c r="S42" t="b">
         <v>1</v>
       </c>
       <c r="T42">
-        <v>7376.4347242254271</v>
+        <v>1531.834488105435</v>
       </c>
       <c r="U42" t="b">
         <v>1</v>
@@ -3982,13 +3982,13 @@
         <v>3</v>
       </c>
       <c r="W42">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="X42">
         <v>1</v>
       </c>
       <c r="Y42">
-        <v>84.089218139648438</v>
+        <v>87.364326477050781</v>
       </c>
       <c r="Z42" t="s">
         <v>11</v>
@@ -4011,13 +4011,13 @@
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D43" t="s">
         <v>25</v>
@@ -4028,32 +4028,32 @@
       <c r="F43" t="s">
         <v>27</v>
       </c>
-      <c r="G43" t="s">
-        <v>11</v>
-      </c>
-      <c r="H43" t="s">
-        <v>11</v>
-      </c>
-      <c r="I43" t="s">
-        <v>11</v>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>0.49148088693618774</v>
+      </c>
+      <c r="I43">
+        <v>0.77536988258361816</v>
       </c>
       <c r="J43">
-        <v>16.414154052734375</v>
+        <v>24.830814361572266</v>
       </c>
       <c r="K43">
-        <v>16.276153564453125</v>
+        <v>24.69261360168457</v>
       </c>
       <c r="L43">
-        <v>0.19516216218471527</v>
+        <v>0.17209555208683014</v>
       </c>
       <c r="M43" t="s">
         <v>11</v>
       </c>
-      <c r="N43" t="s">
-        <v>11</v>
-      </c>
-      <c r="O43" t="s">
-        <v>11</v>
+      <c r="N43">
+        <v>8.3960886001586914</v>
+      </c>
+      <c r="O43">
+        <v>0.32887473702430725</v>
       </c>
       <c r="P43" t="s">
         <v>11</v>
@@ -4061,14 +4061,14 @@
       <c r="Q43" t="s">
         <v>11</v>
       </c>
-      <c r="R43" t="s">
-        <v>11</v>
+      <c r="R43">
+        <v>0.69591808319091797</v>
       </c>
       <c r="S43" t="b">
         <v>1</v>
       </c>
       <c r="T43">
-        <v>7376.4347242254271</v>
+        <v>1531.834488105435</v>
       </c>
       <c r="U43" t="b">
         <v>1</v>
@@ -4077,16 +4077,16 @@
         <v>3</v>
       </c>
       <c r="W43">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="X43">
         <v>1</v>
       </c>
       <c r="Y43">
-        <v>83.6429443359375</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>11</v>
+        <v>87.526710510253906</v>
+      </c>
+      <c r="Z43">
+        <v>84.243881225585938</v>
       </c>
       <c r="AA43" t="s">
         <v>11</v>
@@ -4101,15 +4101,15 @@
         <v>58</v>
       </c>
       <c r="AE43" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C44" t="s">
         <v>24</v>
@@ -4124,31 +4124,31 @@
         <v>27</v>
       </c>
       <c r="G44">
-        <v>1.6286087036132812</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>1.3335607051849365</v>
+        <v>0.49148088693618774</v>
       </c>
       <c r="I44">
-        <v>1.9889354705810547</v>
+        <v>0.77536988258361816</v>
       </c>
       <c r="J44">
-        <v>23.402332305908203</v>
+        <v>24.499851226806641</v>
       </c>
       <c r="K44">
-        <v>23.397832870483398</v>
+        <v>24.69261360168457</v>
       </c>
       <c r="L44">
-        <v>0.27812731266021729</v>
+        <v>0.17209555208683014</v>
       </c>
       <c r="M44" t="s">
         <v>11</v>
       </c>
       <c r="N44">
-        <v>6.9965305328369141</v>
+        <v>8.3960886001586914</v>
       </c>
       <c r="O44">
-        <v>0.2883564829826355</v>
+        <v>0.32887473702430725</v>
       </c>
       <c r="P44" t="s">
         <v>11</v>
@@ -4157,7 +4157,7 @@
         <v>11</v>
       </c>
       <c r="R44">
-        <v>-0.70363998413085938</v>
+        <v>0.69591808319091797</v>
       </c>
       <c r="S44" t="b">
         <v>1</v>
@@ -4178,10 +4178,10 @@
         <v>1</v>
       </c>
       <c r="Y44">
-        <v>87.371170043945312</v>
+        <v>87.377494812011719</v>
       </c>
       <c r="Z44">
-        <v>64.696548461914062</v>
+        <v>72.604736328125</v>
       </c>
       <c r="AA44" t="s">
         <v>11</v>
@@ -4201,13 +4201,13 @@
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
         <v>37</v>
       </c>
       <c r="C45" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D45" t="s">
         <v>25</v>
@@ -4218,32 +4218,32 @@
       <c r="F45" t="s">
         <v>27</v>
       </c>
-      <c r="G45">
-        <v>1.6286087036132812</v>
-      </c>
-      <c r="H45">
-        <v>1.3335607051849365</v>
-      </c>
-      <c r="I45">
-        <v>1.9889354705810547</v>
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" t="s">
+        <v>11</v>
       </c>
       <c r="J45">
-        <v>23.673683166503906</v>
+        <v>16.431179046630859</v>
       </c>
       <c r="K45">
-        <v>23.397832870483398</v>
+        <v>16.401302337646484</v>
       </c>
       <c r="L45">
-        <v>0.27812731266021729</v>
+        <v>7.612261176109314E-2</v>
       </c>
       <c r="M45" t="s">
         <v>11</v>
       </c>
-      <c r="N45">
-        <v>6.9965305328369141</v>
-      </c>
-      <c r="O45">
-        <v>0.2883564829826355</v>
+      <c r="N45" t="s">
+        <v>11</v>
+      </c>
+      <c r="O45" t="s">
+        <v>11</v>
       </c>
       <c r="P45" t="s">
         <v>11</v>
@@ -4251,14 +4251,14 @@
       <c r="Q45" t="s">
         <v>11</v>
       </c>
-      <c r="R45">
-        <v>-0.70363998413085938</v>
+      <c r="R45" t="s">
+        <v>11</v>
       </c>
       <c r="S45" t="b">
         <v>1</v>
       </c>
       <c r="T45">
-        <v>1531.834488105435</v>
+        <v>7376.4347242254271</v>
       </c>
       <c r="U45" t="b">
         <v>1</v>
@@ -4267,16 +4267,16 @@
         <v>3</v>
       </c>
       <c r="W45">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="X45">
         <v>1</v>
       </c>
       <c r="Y45">
-        <v>87.221992492675781</v>
-      </c>
-      <c r="Z45">
-        <v>64.398200988769531</v>
+        <v>83.790969848632812</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>11</v>
       </c>
       <c r="AA45" t="s">
         <v>11</v>
@@ -4291,18 +4291,18 @@
         <v>58</v>
       </c>
       <c r="AE45" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
         <v>37</v>
       </c>
       <c r="C46" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D46" t="s">
         <v>25</v>
@@ -4313,32 +4313,32 @@
       <c r="F46" t="s">
         <v>27</v>
       </c>
-      <c r="G46">
-        <v>1.6286087036132812</v>
-      </c>
-      <c r="H46">
-        <v>1.3335607051849365</v>
-      </c>
-      <c r="I46">
-        <v>1.9889354705810547</v>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" t="s">
+        <v>11</v>
+      </c>
+      <c r="I46" t="s">
+        <v>11</v>
       </c>
       <c r="J46">
-        <v>23.117483139038086</v>
+        <v>16.457954406738281</v>
       </c>
       <c r="K46">
-        <v>23.397832870483398</v>
+        <v>16.401302337646484</v>
       </c>
       <c r="L46">
-        <v>0.27812731266021729</v>
+        <v>7.612261176109314E-2</v>
       </c>
       <c r="M46" t="s">
         <v>11</v>
       </c>
-      <c r="N46">
-        <v>6.9965305328369141</v>
-      </c>
-      <c r="O46">
-        <v>0.2883564829826355</v>
+      <c r="N46" t="s">
+        <v>11</v>
+      </c>
+      <c r="O46" t="s">
+        <v>11</v>
       </c>
       <c r="P46" t="s">
         <v>11</v>
@@ -4346,14 +4346,14 @@
       <c r="Q46" t="s">
         <v>11</v>
       </c>
-      <c r="R46">
-        <v>-0.70363998413085938</v>
+      <c r="R46" t="s">
+        <v>11</v>
       </c>
       <c r="S46" t="b">
         <v>1</v>
       </c>
       <c r="T46">
-        <v>1531.834488105435</v>
+        <v>7376.4347242254271</v>
       </c>
       <c r="U46" t="b">
         <v>1</v>
@@ -4362,16 +4362,16 @@
         <v>3</v>
       </c>
       <c r="W46">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="X46">
         <v>1</v>
       </c>
       <c r="Y46">
-        <v>87.215110778808594</v>
-      </c>
-      <c r="Z46">
-        <v>74.23321533203125</v>
+        <v>83.49261474609375</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>11</v>
       </c>
       <c r="AA46" t="s">
         <v>11</v>
@@ -4386,18 +4386,18 @@
         <v>58</v>
       </c>
       <c r="AE46" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C47" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D47" t="s">
         <v>25</v>
@@ -4408,32 +4408,32 @@
       <c r="F47" t="s">
         <v>27</v>
       </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>0.49148088693618774</v>
-      </c>
-      <c r="I47">
-        <v>0.77536988258361816</v>
+      <c r="G47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" t="s">
+        <v>11</v>
       </c>
       <c r="J47">
-        <v>24.747175216674805</v>
+        <v>16.314773559570312</v>
       </c>
       <c r="K47">
-        <v>24.69261360168457</v>
+        <v>16.401302337646484</v>
       </c>
       <c r="L47">
-        <v>0.17209555208683014</v>
+        <v>7.612261176109314E-2</v>
       </c>
       <c r="M47" t="s">
         <v>11</v>
       </c>
-      <c r="N47">
-        <v>8.3960886001586914</v>
-      </c>
-      <c r="O47">
-        <v>0.32887473702430725</v>
+      <c r="N47" t="s">
+        <v>11</v>
+      </c>
+      <c r="O47" t="s">
+        <v>11</v>
       </c>
       <c r="P47" t="s">
         <v>11</v>
@@ -4441,14 +4441,14 @@
       <c r="Q47" t="s">
         <v>11</v>
       </c>
-      <c r="R47">
-        <v>0.69591808319091797</v>
+      <c r="R47" t="s">
+        <v>11</v>
       </c>
       <c r="S47" t="b">
         <v>1</v>
       </c>
       <c r="T47">
-        <v>1531.834488105435</v>
+        <v>7376.4347242254271</v>
       </c>
       <c r="U47" t="b">
         <v>1</v>
@@ -4457,13 +4457,13 @@
         <v>3</v>
       </c>
       <c r="W47">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="X47">
         <v>1</v>
       </c>
       <c r="Y47">
-        <v>87.364326477050781</v>
+        <v>83.633895874023438</v>
       </c>
       <c r="Z47" t="s">
         <v>11</v>
@@ -4486,13 +4486,13 @@
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
         <v>41</v>
       </c>
       <c r="C48" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D48" t="s">
         <v>25</v>
@@ -4503,32 +4503,32 @@
       <c r="F48" t="s">
         <v>27</v>
       </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>0.49148088693618774</v>
-      </c>
-      <c r="I48">
-        <v>0.77536988258361816</v>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" t="s">
+        <v>11</v>
       </c>
       <c r="J48">
-        <v>24.830814361572266</v>
+        <v>16.494693756103516</v>
       </c>
       <c r="K48">
-        <v>24.69261360168457</v>
+        <v>16.296524047851562</v>
       </c>
       <c r="L48">
-        <v>0.17209555208683014</v>
+        <v>0.28025293350219727</v>
       </c>
       <c r="M48" t="s">
         <v>11</v>
       </c>
-      <c r="N48">
-        <v>8.3960886001586914</v>
-      </c>
-      <c r="O48">
-        <v>0.32887473702430725</v>
+      <c r="N48" t="s">
+        <v>11</v>
+      </c>
+      <c r="O48" t="s">
+        <v>11</v>
       </c>
       <c r="P48" t="s">
         <v>11</v>
@@ -4536,14 +4536,14 @@
       <c r="Q48" t="s">
         <v>11</v>
       </c>
-      <c r="R48">
-        <v>0.69591808319091797</v>
+      <c r="R48" t="s">
+        <v>11</v>
       </c>
       <c r="S48" t="b">
         <v>1</v>
       </c>
       <c r="T48">
-        <v>1531.834488105435</v>
+        <v>7376.4347242254271</v>
       </c>
       <c r="U48" t="b">
         <v>1</v>
@@ -4552,16 +4552,16 @@
         <v>3</v>
       </c>
       <c r="W48">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="X48">
         <v>1</v>
       </c>
       <c r="Y48">
-        <v>87.526710510253906</v>
-      </c>
-      <c r="Z48">
-        <v>84.243881225585938</v>
+        <v>83.932327270507812</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>11</v>
       </c>
       <c r="AA48" t="s">
         <v>11</v>
@@ -4576,18 +4576,18 @@
         <v>58</v>
       </c>
       <c r="AE48" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B49" t="s">
         <v>41</v>
       </c>
       <c r="C49" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D49" t="s">
         <v>25</v>
@@ -4598,32 +4598,32 @@
       <c r="F49" t="s">
         <v>27</v>
       </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <v>0.49148088693618774</v>
-      </c>
-      <c r="I49">
-        <v>0.77536988258361816</v>
+      <c r="G49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" t="s">
+        <v>11</v>
       </c>
       <c r="J49">
-        <v>24.499851226806641</v>
+        <v>16.098356246948242</v>
       </c>
       <c r="K49">
-        <v>24.69261360168457</v>
+        <v>16.296524047851562</v>
       </c>
       <c r="L49">
-        <v>0.17209555208683014</v>
+        <v>0.28025293350219727</v>
       </c>
       <c r="M49" t="s">
         <v>11</v>
       </c>
-      <c r="N49">
-        <v>8.3960886001586914</v>
-      </c>
-      <c r="O49">
-        <v>0.32887473702430725</v>
+      <c r="N49" t="s">
+        <v>11</v>
+      </c>
+      <c r="O49" t="s">
+        <v>11</v>
       </c>
       <c r="P49" t="s">
         <v>11</v>
@@ -4631,14 +4631,14 @@
       <c r="Q49" t="s">
         <v>11</v>
       </c>
-      <c r="R49">
-        <v>0.69591808319091797</v>
+      <c r="R49" t="s">
+        <v>11</v>
       </c>
       <c r="S49" t="b">
         <v>1</v>
       </c>
       <c r="T49">
-        <v>1531.834488105435</v>
+        <v>7376.4347242254271</v>
       </c>
       <c r="U49" t="b">
         <v>1</v>
@@ -4647,16 +4647,16 @@
         <v>3</v>
       </c>
       <c r="W49">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="X49">
         <v>1</v>
       </c>
       <c r="Y49">
-        <v>87.377494812011719</v>
-      </c>
-      <c r="Z49">
-        <v>72.604736328125</v>
+        <v>84.094657897949219</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>11</v>
       </c>
       <c r="AA49" t="s">
         <v>11</v>
@@ -4671,18 +4671,18 @@
         <v>58</v>
       </c>
       <c r="AE49" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B50" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="C50" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D50" t="s">
         <v>25</v>
@@ -4693,32 +4693,32 @@
       <c r="F50" t="s">
         <v>27</v>
       </c>
-      <c r="G50" t="s">
-        <v>11</v>
-      </c>
-      <c r="H50" t="s">
-        <v>11</v>
-      </c>
-      <c r="I50" t="s">
-        <v>11</v>
+      <c r="G50">
+        <v>0.14045263826847076</v>
+      </c>
+      <c r="H50">
+        <v>9.8728612065315247E-2</v>
+      </c>
+      <c r="I50">
+        <v>0.19980980455875397</v>
       </c>
       <c r="J50">
-        <v>16.431179046630859</v>
+        <v>27.089807510375977</v>
       </c>
       <c r="K50">
-        <v>16.401302337646484</v>
+        <v>27.024147033691406</v>
       </c>
       <c r="L50">
-        <v>7.612261176109314E-2</v>
+        <v>9.2859283089637756E-2</v>
       </c>
       <c r="M50" t="s">
         <v>11</v>
       </c>
-      <c r="N50" t="s">
-        <v>11</v>
-      </c>
-      <c r="O50" t="s">
-        <v>11</v>
+      <c r="N50">
+        <v>12.428138732910156</v>
+      </c>
+      <c r="O50">
+        <v>0.50854367017745972</v>
       </c>
       <c r="P50" t="s">
         <v>11</v>
@@ -4726,14 +4726,14 @@
       <c r="Q50" t="s">
         <v>11</v>
       </c>
-      <c r="R50" t="s">
-        <v>11</v>
+      <c r="R50">
+        <v>2.8318443298339844</v>
       </c>
       <c r="S50" t="b">
         <v>1</v>
       </c>
       <c r="T50">
-        <v>7376.4347242254271</v>
+        <v>10704.437161075366</v>
       </c>
       <c r="U50" t="b">
         <v>1</v>
@@ -4742,13 +4742,13 @@
         <v>3</v>
       </c>
       <c r="W50">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="X50">
         <v>1</v>
       </c>
       <c r="Y50">
-        <v>83.790969848632812</v>
+        <v>88.273551940917969</v>
       </c>
       <c r="Z50" t="s">
         <v>11</v>
@@ -4771,13 +4771,13 @@
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="C51" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D51" t="s">
         <v>25</v>
@@ -4788,32 +4788,32 @@
       <c r="F51" t="s">
         <v>27</v>
       </c>
-      <c r="G51" t="s">
-        <v>11</v>
-      </c>
-      <c r="H51" t="s">
-        <v>11</v>
-      </c>
-      <c r="I51" t="s">
-        <v>11</v>
+      <c r="G51">
+        <v>0.14045263826847076</v>
+      </c>
+      <c r="H51">
+        <v>9.8728612065315247E-2</v>
+      </c>
+      <c r="I51">
+        <v>0.19980980455875397</v>
       </c>
       <c r="J51">
-        <v>16.457954406738281</v>
+        <v>26.958484649658203</v>
       </c>
       <c r="K51">
-        <v>16.401302337646484</v>
+        <v>27.024147033691406</v>
       </c>
       <c r="L51">
-        <v>7.612261176109314E-2</v>
+        <v>9.2859283089637756E-2</v>
       </c>
       <c r="M51" t="s">
         <v>11</v>
       </c>
-      <c r="N51" t="s">
-        <v>11</v>
-      </c>
-      <c r="O51" t="s">
-        <v>11</v>
+      <c r="N51">
+        <v>12.428138732910156</v>
+      </c>
+      <c r="O51">
+        <v>0.50854367017745972</v>
       </c>
       <c r="P51" t="s">
         <v>11</v>
@@ -4821,14 +4821,14 @@
       <c r="Q51" t="s">
         <v>11</v>
       </c>
-      <c r="R51" t="s">
-        <v>11</v>
+      <c r="R51">
+        <v>2.8318443298339844</v>
       </c>
       <c r="S51" t="b">
         <v>1</v>
       </c>
       <c r="T51">
-        <v>7376.4347242254271</v>
+        <v>10704.437161075366</v>
       </c>
       <c r="U51" t="b">
         <v>1</v>
@@ -4837,13 +4837,13 @@
         <v>3</v>
       </c>
       <c r="W51">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="X51">
         <v>1</v>
       </c>
       <c r="Y51">
-        <v>83.49261474609375</v>
+        <v>88.27276611328125</v>
       </c>
       <c r="Z51" t="s">
         <v>11</v>
@@ -4866,13 +4866,13 @@
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="C52" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D52" t="s">
         <v>25</v>
@@ -4883,32 +4883,32 @@
       <c r="F52" t="s">
         <v>27</v>
       </c>
-      <c r="G52" t="s">
-        <v>11</v>
-      </c>
-      <c r="H52" t="s">
-        <v>11</v>
-      </c>
-      <c r="I52" t="s">
-        <v>11</v>
+      <c r="G52">
+        <v>0.79039973020553589</v>
+      </c>
+      <c r="H52">
+        <v>0.51272964477539062</v>
+      </c>
+      <c r="I52">
+        <v>1.2184427976608276</v>
       </c>
       <c r="J52">
-        <v>16.314773559570312</v>
+        <v>23.793241500854492</v>
       </c>
       <c r="K52">
-        <v>16.401302337646484</v>
+        <v>24.212955474853516</v>
       </c>
       <c r="L52">
-        <v>7.612261176109314E-2</v>
+        <v>0.59356653690338135</v>
       </c>
       <c r="M52" t="s">
         <v>11</v>
       </c>
-      <c r="N52" t="s">
-        <v>11</v>
-      </c>
-      <c r="O52" t="s">
-        <v>11</v>
+      <c r="N52">
+        <v>9.9356403350830078</v>
+      </c>
+      <c r="O52">
+        <v>0.62438410520553589</v>
       </c>
       <c r="P52" t="s">
         <v>11</v>
@@ -4916,14 +4916,14 @@
       <c r="Q52" t="s">
         <v>11</v>
       </c>
-      <c r="R52" t="s">
-        <v>11</v>
+      <c r="R52">
+        <v>0.33934560418128967</v>
       </c>
       <c r="S52" t="b">
         <v>1</v>
       </c>
       <c r="T52">
-        <v>7376.4347242254271</v>
+        <v>10704.437161075366</v>
       </c>
       <c r="U52" t="b">
         <v>1</v>
@@ -4932,13 +4932,13 @@
         <v>3</v>
       </c>
       <c r="W52">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="X52">
         <v>1</v>
       </c>
       <c r="Y52">
-        <v>83.633895874023438</v>
+        <v>89.170257568359375</v>
       </c>
       <c r="Z52" t="s">
         <v>11</v>
@@ -4953,7 +4953,7 @@
         <v>58</v>
       </c>
       <c r="AD52" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="AE52" t="s">
         <v>58</v>
@@ -4961,13 +4961,13 @@
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B53" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="C53" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D53" t="s">
         <v>25</v>
@@ -4978,32 +4978,32 @@
       <c r="F53" t="s">
         <v>27</v>
       </c>
-      <c r="G53" t="s">
-        <v>11</v>
-      </c>
-      <c r="H53" t="s">
-        <v>11</v>
-      </c>
-      <c r="I53" t="s">
-        <v>11</v>
+      <c r="G53">
+        <v>0.79039973020553589</v>
+      </c>
+      <c r="H53">
+        <v>0.51272964477539062</v>
+      </c>
+      <c r="I53">
+        <v>1.2184427976608276</v>
       </c>
       <c r="J53">
-        <v>16.494693756103516</v>
+        <v>24.632671356201172</v>
       </c>
       <c r="K53">
-        <v>16.296524047851562</v>
+        <v>24.212955474853516</v>
       </c>
       <c r="L53">
-        <v>0.28025293350219727</v>
+        <v>0.59356653690338135</v>
       </c>
       <c r="M53" t="s">
         <v>11</v>
       </c>
-      <c r="N53" t="s">
-        <v>11</v>
-      </c>
-      <c r="O53" t="s">
-        <v>11</v>
+      <c r="N53">
+        <v>9.9356403350830078</v>
+      </c>
+      <c r="O53">
+        <v>0.62438410520553589</v>
       </c>
       <c r="P53" t="s">
         <v>11</v>
@@ -5011,14 +5011,14 @@
       <c r="Q53" t="s">
         <v>11</v>
       </c>
-      <c r="R53" t="s">
-        <v>11</v>
+      <c r="R53">
+        <v>0.33934560418128967</v>
       </c>
       <c r="S53" t="b">
         <v>1</v>
       </c>
       <c r="T53">
-        <v>7376.4347242254271</v>
+        <v>10704.437161075366</v>
       </c>
       <c r="U53" t="b">
         <v>1</v>
@@ -5027,13 +5027,13 @@
         <v>3</v>
       </c>
       <c r="W53">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="X53">
         <v>1</v>
       </c>
       <c r="Y53">
-        <v>83.932327270507812</v>
+        <v>89.61767578125</v>
       </c>
       <c r="Z53" t="s">
         <v>11</v>
@@ -5048,7 +5048,7 @@
         <v>58</v>
       </c>
       <c r="AD53" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="AE53" t="s">
         <v>58</v>
@@ -5056,13 +5056,13 @@
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B54" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="C54" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D54" t="s">
         <v>25</v>
@@ -5073,32 +5073,32 @@
       <c r="F54" t="s">
         <v>27</v>
       </c>
-      <c r="G54" t="s">
-        <v>11</v>
-      </c>
-      <c r="H54" t="s">
-        <v>11</v>
-      </c>
-      <c r="I54" t="s">
-        <v>11</v>
+      <c r="G54">
+        <v>1.170854926109314</v>
+      </c>
+      <c r="H54">
+        <v>1.0463771820068359</v>
+      </c>
+      <c r="I54">
+        <v>1.3101404905319214</v>
       </c>
       <c r="J54">
-        <v>16.098356246948242</v>
+        <v>24.891708374023438</v>
       </c>
       <c r="K54">
-        <v>16.296524047851562</v>
+        <v>24.990747451782227</v>
       </c>
       <c r="L54">
-        <v>0.28025293350219727</v>
+        <v>9.568651020526886E-2</v>
       </c>
       <c r="M54" t="s">
         <v>11</v>
       </c>
-      <c r="N54" t="s">
-        <v>11</v>
-      </c>
-      <c r="O54" t="s">
-        <v>11</v>
+      <c r="N54">
+        <v>9.3687324523925781</v>
+      </c>
+      <c r="O54">
+        <v>0.162159264087677</v>
       </c>
       <c r="P54" t="s">
         <v>11</v>
@@ -5106,14 +5106,14 @@
       <c r="Q54" t="s">
         <v>11</v>
       </c>
-      <c r="R54" t="s">
-        <v>11</v>
+      <c r="R54">
+        <v>-0.22756226360797882</v>
       </c>
       <c r="S54" t="b">
         <v>1</v>
       </c>
       <c r="T54">
-        <v>7376.4347242254271</v>
+        <v>10704.437161075366</v>
       </c>
       <c r="U54" t="b">
         <v>1</v>
@@ -5122,13 +5122,13 @@
         <v>3</v>
       </c>
       <c r="W54">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="X54">
         <v>1</v>
       </c>
       <c r="Y54">
-        <v>84.094657897949219</v>
+        <v>89.620269775390625</v>
       </c>
       <c r="Z54" t="s">
         <v>11</v>
@@ -5151,10 +5151,10 @@
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C55" t="s">
         <v>24</v>
@@ -5169,31 +5169,31 @@
         <v>27</v>
       </c>
       <c r="G55">
-        <v>0.14045263826847076</v>
+        <v>1.170854926109314</v>
       </c>
       <c r="H55">
-        <v>9.8728612065315247E-2</v>
+        <v>1.0463771820068359</v>
       </c>
       <c r="I55">
-        <v>0.19980980455875397</v>
+        <v>1.3101404905319214</v>
       </c>
       <c r="J55">
-        <v>27.089807510375977</v>
+        <v>24.997852325439453</v>
       </c>
       <c r="K55">
-        <v>27.024147033691406</v>
+        <v>24.990747451782227</v>
       </c>
       <c r="L55">
-        <v>9.2859283089637756E-2</v>
+        <v>9.568651020526886E-2</v>
       </c>
       <c r="M55" t="s">
         <v>11</v>
       </c>
       <c r="N55">
-        <v>12.428138732910156</v>
+        <v>9.3687324523925781</v>
       </c>
       <c r="O55">
-        <v>0.50854367017745972</v>
+        <v>0.162159264087677</v>
       </c>
       <c r="P55" t="s">
         <v>11</v>
@@ -5202,7 +5202,7 @@
         <v>11</v>
       </c>
       <c r="R55">
-        <v>2.8318443298339844</v>
+        <v>-0.22756226360797882</v>
       </c>
       <c r="S55" t="b">
         <v>1</v>
@@ -5217,13 +5217,13 @@
         <v>3</v>
       </c>
       <c r="W55">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X55">
         <v>1</v>
       </c>
       <c r="Y55">
-        <v>88.273551940917969</v>
+        <v>89.769439697265625</v>
       </c>
       <c r="Z55" t="s">
         <v>11</v>
@@ -5246,10 +5246,10 @@
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B56" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C56" t="s">
         <v>24</v>
@@ -5264,31 +5264,31 @@
         <v>27</v>
       </c>
       <c r="G56">
-        <v>0.14045263826847076</v>
+        <v>1.170854926109314</v>
       </c>
       <c r="H56">
-        <v>9.8728612065315247E-2</v>
+        <v>1.0463771820068359</v>
       </c>
       <c r="I56">
-        <v>0.19980980455875397</v>
+        <v>1.3101404905319214</v>
       </c>
       <c r="J56">
-        <v>26.958484649658203</v>
+        <v>25.082685470581055</v>
       </c>
       <c r="K56">
-        <v>27.024147033691406</v>
+        <v>24.990747451782227</v>
       </c>
       <c r="L56">
-        <v>9.2859283089637756E-2</v>
+        <v>9.568651020526886E-2</v>
       </c>
       <c r="M56" t="s">
         <v>11</v>
       </c>
       <c r="N56">
-        <v>12.428138732910156</v>
+        <v>9.3687324523925781</v>
       </c>
       <c r="O56">
-        <v>0.50854367017745972</v>
+        <v>0.162159264087677</v>
       </c>
       <c r="P56" t="s">
         <v>11</v>
@@ -5297,7 +5297,7 @@
         <v>11</v>
       </c>
       <c r="R56">
-        <v>2.8318443298339844</v>
+        <v>-0.22756226360797882</v>
       </c>
       <c r="S56" t="b">
         <v>1</v>
@@ -5312,13 +5312,13 @@
         <v>3</v>
       </c>
       <c r="W56">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="X56">
         <v>1</v>
       </c>
       <c r="Y56">
-        <v>88.27276611328125</v>
+        <v>89.615737915039062</v>
       </c>
       <c r="Z56" t="s">
         <v>11</v>
@@ -5341,10 +5341,10 @@
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C57" t="s">
         <v>24</v>
@@ -5359,31 +5359,31 @@
         <v>27</v>
       </c>
       <c r="G57">
-        <v>0.79039973020553589</v>
+        <v>0.52225416898727417</v>
       </c>
       <c r="H57">
-        <v>0.51272964477539062</v>
+        <v>0.38283470273017883</v>
       </c>
       <c r="I57">
-        <v>1.2184427976608276</v>
+        <v>0.71244686841964722</v>
       </c>
       <c r="J57">
-        <v>23.793241500854492</v>
+        <v>25.76441764831543</v>
       </c>
       <c r="K57">
-        <v>24.212955474853516</v>
+        <v>25.832275390625</v>
       </c>
       <c r="L57">
-        <v>0.59356653690338135</v>
+        <v>7.3927335441112518E-2</v>
       </c>
       <c r="M57" t="s">
         <v>11</v>
       </c>
       <c r="N57">
-        <v>9.9356403350830078</v>
+        <v>10.533470153808594</v>
       </c>
       <c r="O57">
-        <v>0.62438410520553589</v>
+        <v>0.44803041219711304</v>
       </c>
       <c r="P57" t="s">
         <v>11</v>
@@ -5392,7 +5392,7 @@
         <v>11</v>
       </c>
       <c r="R57">
-        <v>0.33934560418128967</v>
+        <v>0.93717604875564575</v>
       </c>
       <c r="S57" t="b">
         <v>1</v>
@@ -5407,13 +5407,13 @@
         <v>3</v>
       </c>
       <c r="W57">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X57">
         <v>1</v>
       </c>
       <c r="Y57">
-        <v>89.170257568359375</v>
+        <v>89.615737915039062</v>
       </c>
       <c r="Z57" t="s">
         <v>11</v>
@@ -5428,7 +5428,7 @@
         <v>58</v>
       </c>
       <c r="AD57" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="AE57" t="s">
         <v>58</v>
@@ -5436,10 +5436,10 @@
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C58" t="s">
         <v>24</v>
@@ -5454,31 +5454,31 @@
         <v>27</v>
       </c>
       <c r="G58">
-        <v>0.79039973020553589</v>
+        <v>0.52225416898727417</v>
       </c>
       <c r="H58">
-        <v>0.51272964477539062</v>
+        <v>0.38283470273017883</v>
       </c>
       <c r="I58">
-        <v>1.2184427976608276</v>
+        <v>0.71244686841964722</v>
       </c>
       <c r="J58">
-        <v>24.632671356201172</v>
+        <v>25.911056518554688</v>
       </c>
       <c r="K58">
-        <v>24.212955474853516</v>
+        <v>25.832275390625</v>
       </c>
       <c r="L58">
-        <v>0.59356653690338135</v>
+        <v>7.3927335441112518E-2</v>
       </c>
       <c r="M58" t="s">
         <v>11</v>
       </c>
       <c r="N58">
-        <v>9.9356403350830078</v>
+        <v>10.533470153808594</v>
       </c>
       <c r="O58">
-        <v>0.62438410520553589</v>
+        <v>0.44803041219711304</v>
       </c>
       <c r="P58" t="s">
         <v>11</v>
@@ -5487,7 +5487,7 @@
         <v>11</v>
       </c>
       <c r="R58">
-        <v>0.33934560418128967</v>
+        <v>0.93717604875564575</v>
       </c>
       <c r="S58" t="b">
         <v>1</v>
@@ -5502,13 +5502,13 @@
         <v>3</v>
       </c>
       <c r="W58">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="X58">
         <v>1</v>
       </c>
       <c r="Y58">
-        <v>89.61767578125</v>
+        <v>89.3206787109375</v>
       </c>
       <c r="Z58" t="s">
         <v>11</v>
@@ -5523,7 +5523,7 @@
         <v>58</v>
       </c>
       <c r="AD58" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="AE58" t="s">
         <v>58</v>
@@ -5531,10 +5531,10 @@
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B59" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C59" t="s">
         <v>24</v>
@@ -5549,31 +5549,31 @@
         <v>27</v>
       </c>
       <c r="G59">
-        <v>1.170854926109314</v>
+        <v>0.52225416898727417</v>
       </c>
       <c r="H59">
-        <v>1.0463771820068359</v>
+        <v>0.38283470273017883</v>
       </c>
       <c r="I59">
-        <v>1.3101404905319214</v>
+        <v>0.71244686841964722</v>
       </c>
       <c r="J59">
-        <v>24.891708374023438</v>
+        <v>25.82135009765625</v>
       </c>
       <c r="K59">
-        <v>24.990747451782227</v>
+        <v>25.832275390625</v>
       </c>
       <c r="L59">
-        <v>9.568651020526886E-2</v>
+        <v>7.3927335441112518E-2</v>
       </c>
       <c r="M59" t="s">
         <v>11</v>
       </c>
       <c r="N59">
-        <v>9.3687324523925781</v>
+        <v>10.533470153808594</v>
       </c>
       <c r="O59">
-        <v>0.162159264087677</v>
+        <v>0.44803041219711304</v>
       </c>
       <c r="P59" t="s">
         <v>11</v>
@@ -5582,7 +5582,7 @@
         <v>11</v>
       </c>
       <c r="R59">
-        <v>-0.22756226360797882</v>
+        <v>0.93717604875564575</v>
       </c>
       <c r="S59" t="b">
         <v>1</v>
@@ -5597,13 +5597,13 @@
         <v>3</v>
       </c>
       <c r="W59">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X59">
         <v>1</v>
       </c>
       <c r="Y59">
-        <v>89.620269775390625</v>
+        <v>89.3206787109375</v>
       </c>
       <c r="Z59" t="s">
         <v>11</v>
@@ -5626,13 +5626,13 @@
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B60" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C60" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D60" t="s">
         <v>25</v>
@@ -5643,32 +5643,32 @@
       <c r="F60" t="s">
         <v>27</v>
       </c>
-      <c r="G60">
-        <v>1.170854926109314</v>
-      </c>
-      <c r="H60">
-        <v>1.0463771820068359</v>
-      </c>
-      <c r="I60">
-        <v>1.3101404905319214</v>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" t="s">
+        <v>11</v>
       </c>
       <c r="J60">
-        <v>24.997852325439453</v>
+        <v>14.949556350708008</v>
       </c>
       <c r="K60">
-        <v>24.990747451782227</v>
+        <v>14.596007347106934</v>
       </c>
       <c r="L60">
-        <v>9.568651020526886E-2</v>
+        <v>0.49999380111694336</v>
       </c>
       <c r="M60" t="s">
         <v>11</v>
       </c>
-      <c r="N60">
-        <v>9.3687324523925781</v>
-      </c>
-      <c r="O60">
-        <v>0.162159264087677</v>
+      <c r="N60" t="s">
+        <v>11</v>
+      </c>
+      <c r="O60" t="s">
+        <v>11</v>
       </c>
       <c r="P60" t="s">
         <v>11</v>
@@ -5676,14 +5676,14 @@
       <c r="Q60" t="s">
         <v>11</v>
       </c>
-      <c r="R60">
-        <v>-0.22756226360797882</v>
+      <c r="R60" t="s">
+        <v>11</v>
       </c>
       <c r="S60" t="b">
         <v>1</v>
       </c>
       <c r="T60">
-        <v>10704.437161075366</v>
+        <v>7233.1722656250004</v>
       </c>
       <c r="U60" t="b">
         <v>1</v>
@@ -5692,13 +5692,13 @@
         <v>3</v>
       </c>
       <c r="W60">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="X60">
         <v>1</v>
       </c>
       <c r="Y60">
-        <v>89.769439697265625</v>
+        <v>80.516716003417969</v>
       </c>
       <c r="Z60" t="s">
         <v>11</v>
@@ -5721,13 +5721,13 @@
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B61" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C61" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D61" t="s">
         <v>25</v>
@@ -5738,32 +5738,32 @@
       <c r="F61" t="s">
         <v>27</v>
       </c>
-      <c r="G61">
-        <v>1.170854926109314</v>
-      </c>
-      <c r="H61">
-        <v>1.0463771820068359</v>
-      </c>
-      <c r="I61">
-        <v>1.3101404905319214</v>
+      <c r="G61" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" t="s">
+        <v>11</v>
+      </c>
+      <c r="I61" t="s">
+        <v>11</v>
       </c>
       <c r="J61">
-        <v>25.082685470581055</v>
+        <v>14.242458343505859</v>
       </c>
       <c r="K61">
-        <v>24.990747451782227</v>
+        <v>14.596007347106934</v>
       </c>
       <c r="L61">
-        <v>9.568651020526886E-2</v>
+        <v>0.49999380111694336</v>
       </c>
       <c r="M61" t="s">
         <v>11</v>
       </c>
-      <c r="N61">
-        <v>9.3687324523925781</v>
-      </c>
-      <c r="O61">
-        <v>0.162159264087677</v>
+      <c r="N61" t="s">
+        <v>11</v>
+      </c>
+      <c r="O61" t="s">
+        <v>11</v>
       </c>
       <c r="P61" t="s">
         <v>11</v>
@@ -5771,14 +5771,14 @@
       <c r="Q61" t="s">
         <v>11</v>
       </c>
-      <c r="R61">
-        <v>-0.22756226360797882</v>
+      <c r="R61" t="s">
+        <v>11</v>
       </c>
       <c r="S61" t="b">
         <v>1</v>
       </c>
       <c r="T61">
-        <v>10704.437161075366</v>
+        <v>7233.1722656250004</v>
       </c>
       <c r="U61" t="b">
         <v>1</v>
@@ -5787,13 +5787,13 @@
         <v>3</v>
       </c>
       <c r="W61">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="X61">
         <v>1</v>
       </c>
       <c r="Y61">
-        <v>89.615737915039062</v>
+        <v>82.306755065917969</v>
       </c>
       <c r="Z61" t="s">
         <v>11</v>
@@ -5816,13 +5816,13 @@
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B62" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C62" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D62" t="s">
         <v>25</v>
@@ -5833,32 +5833,32 @@
       <c r="F62" t="s">
         <v>27</v>
       </c>
-      <c r="G62">
-        <v>0.52225416898727417</v>
-      </c>
-      <c r="H62">
-        <v>0.38283470273017883</v>
-      </c>
-      <c r="I62">
-        <v>0.71244686841964722</v>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" t="s">
+        <v>11</v>
+      </c>
+      <c r="I62" t="s">
+        <v>11</v>
       </c>
       <c r="J62">
-        <v>25.76441764831543</v>
+        <v>14.06662654876709</v>
       </c>
       <c r="K62">
-        <v>25.832275390625</v>
+        <v>14.277317047119141</v>
       </c>
       <c r="L62">
-        <v>7.3927335441112518E-2</v>
+        <v>0.19373771548271179</v>
       </c>
       <c r="M62" t="s">
         <v>11</v>
       </c>
-      <c r="N62">
-        <v>10.533470153808594</v>
-      </c>
-      <c r="O62">
-        <v>0.44803041219711304</v>
+      <c r="N62" t="s">
+        <v>11</v>
+      </c>
+      <c r="O62" t="s">
+        <v>11</v>
       </c>
       <c r="P62" t="s">
         <v>11</v>
@@ -5866,14 +5866,14 @@
       <c r="Q62" t="s">
         <v>11</v>
       </c>
-      <c r="R62">
-        <v>0.93717604875564575</v>
+      <c r="R62" t="s">
+        <v>11</v>
       </c>
       <c r="S62" t="b">
         <v>1</v>
       </c>
       <c r="T62">
-        <v>10704.437161075366</v>
+        <v>7233.1722656250004</v>
       </c>
       <c r="U62" t="b">
         <v>1</v>
@@ -5882,13 +5882,13 @@
         <v>3</v>
       </c>
       <c r="W62">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="X62">
         <v>1</v>
       </c>
       <c r="Y62">
-        <v>89.615737915039062</v>
+        <v>84.990928649902344</v>
       </c>
       <c r="Z62" t="s">
         <v>11</v>
@@ -5911,13 +5911,13 @@
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B63" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C63" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D63" t="s">
         <v>25</v>
@@ -5928,32 +5928,32 @@
       <c r="F63" t="s">
         <v>27</v>
       </c>
-      <c r="G63">
-        <v>0.52225416898727417</v>
-      </c>
-      <c r="H63">
-        <v>0.38283470273017883</v>
-      </c>
-      <c r="I63">
-        <v>0.71244686841964722</v>
+      <c r="G63" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" t="s">
+        <v>11</v>
       </c>
       <c r="J63">
-        <v>25.911056518554688</v>
+        <v>14.447789192199707</v>
       </c>
       <c r="K63">
-        <v>25.832275390625</v>
+        <v>14.277317047119141</v>
       </c>
       <c r="L63">
-        <v>7.3927335441112518E-2</v>
+        <v>0.19373771548271179</v>
       </c>
       <c r="M63" t="s">
         <v>11</v>
       </c>
-      <c r="N63">
-        <v>10.533470153808594</v>
-      </c>
-      <c r="O63">
-        <v>0.44803041219711304</v>
+      <c r="N63" t="s">
+        <v>11</v>
+      </c>
+      <c r="O63" t="s">
+        <v>11</v>
       </c>
       <c r="P63" t="s">
         <v>11</v>
@@ -5961,14 +5961,14 @@
       <c r="Q63" t="s">
         <v>11</v>
       </c>
-      <c r="R63">
-        <v>0.93717604875564575</v>
+      <c r="R63" t="s">
+        <v>11</v>
       </c>
       <c r="S63" t="b">
         <v>1</v>
       </c>
       <c r="T63">
-        <v>10704.437161075366</v>
+        <v>7233.1722656250004</v>
       </c>
       <c r="U63" t="b">
         <v>1</v>
@@ -5977,13 +5977,13 @@
         <v>3</v>
       </c>
       <c r="W63">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="X63">
         <v>1</v>
       </c>
       <c r="Y63">
-        <v>89.3206787109375</v>
+        <v>84.994354248046875</v>
       </c>
       <c r="Z63" t="s">
         <v>11</v>
@@ -6006,13 +6006,13 @@
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B64" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C64" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D64" t="s">
         <v>25</v>
@@ -6023,32 +6023,32 @@
       <c r="F64" t="s">
         <v>27</v>
       </c>
-      <c r="G64">
-        <v>0.52225416898727417</v>
-      </c>
-      <c r="H64">
-        <v>0.38283470273017883</v>
-      </c>
-      <c r="I64">
-        <v>0.71244686841964722</v>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" t="s">
+        <v>11</v>
+      </c>
+      <c r="I64" t="s">
+        <v>11</v>
       </c>
       <c r="J64">
-        <v>25.82135009765625</v>
+        <v>14.317533493041992</v>
       </c>
       <c r="K64">
-        <v>25.832275390625</v>
+        <v>14.277317047119141</v>
       </c>
       <c r="L64">
-        <v>7.3927335441112518E-2</v>
+        <v>0.19373771548271179</v>
       </c>
       <c r="M64" t="s">
         <v>11</v>
       </c>
-      <c r="N64">
-        <v>10.533470153808594</v>
-      </c>
-      <c r="O64">
-        <v>0.44803041219711304</v>
+      <c r="N64" t="s">
+        <v>11</v>
+      </c>
+      <c r="O64" t="s">
+        <v>11</v>
       </c>
       <c r="P64" t="s">
         <v>11</v>
@@ -6056,14 +6056,14 @@
       <c r="Q64" t="s">
         <v>11</v>
       </c>
-      <c r="R64">
-        <v>0.93717604875564575</v>
+      <c r="R64" t="s">
+        <v>11</v>
       </c>
       <c r="S64" t="b">
         <v>1</v>
       </c>
       <c r="T64">
-        <v>10704.437161075366</v>
+        <v>7233.1722656250004</v>
       </c>
       <c r="U64" t="b">
         <v>1</v>
@@ -6072,13 +6072,13 @@
         <v>3</v>
       </c>
       <c r="W64">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="X64">
         <v>1</v>
       </c>
       <c r="Y64">
-        <v>89.3206787109375</v>
+        <v>85.4417724609375</v>
       </c>
       <c r="Z64" t="s">
         <v>11</v>
@@ -6101,10 +6101,10 @@
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C65" t="s">
         <v>45</v>
@@ -6128,13 +6128,13 @@
         <v>11</v>
       </c>
       <c r="J65">
-        <v>14.949556350708008</v>
+        <v>15.569726943969727</v>
       </c>
       <c r="K65">
-        <v>14.596007347106934</v>
+        <v>15.622016906738281</v>
       </c>
       <c r="L65">
-        <v>0.49999380111694336</v>
+        <v>0.13091874122619629</v>
       </c>
       <c r="M65" t="s">
         <v>11</v>
@@ -6167,13 +6167,13 @@
         <v>3</v>
       </c>
       <c r="W65">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X65">
         <v>1</v>
       </c>
       <c r="Y65">
-        <v>80.516716003417969</v>
+        <v>85.891227722167969</v>
       </c>
       <c r="Z65" t="s">
         <v>11</v>
@@ -6196,10 +6196,10 @@
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C66" t="s">
         <v>45</v>
@@ -6223,13 +6223,13 @@
         <v>11</v>
       </c>
       <c r="J66">
-        <v>14.242458343505859</v>
+        <v>15.525323867797852</v>
       </c>
       <c r="K66">
-        <v>14.596007347106934</v>
+        <v>15.622016906738281</v>
       </c>
       <c r="L66">
-        <v>0.49999380111694336</v>
+        <v>0.13091874122619629</v>
       </c>
       <c r="M66" t="s">
         <v>11</v>
@@ -6262,13 +6262,13 @@
         <v>3</v>
       </c>
       <c r="W66">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X66">
         <v>1</v>
       </c>
       <c r="Y66">
-        <v>82.306755065917969</v>
+        <v>86.040390014648438</v>
       </c>
       <c r="Z66" t="s">
         <v>11</v>
@@ -6291,10 +6291,10 @@
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C67" t="s">
         <v>45</v>
@@ -6318,13 +6318,13 @@
         <v>11</v>
       </c>
       <c r="J67">
-        <v>14.06662654876709</v>
+        <v>15.770998954772949</v>
       </c>
       <c r="K67">
-        <v>14.277317047119141</v>
+        <v>15.622016906738281</v>
       </c>
       <c r="L67">
-        <v>0.19373771548271179</v>
+        <v>0.13091874122619629</v>
       </c>
       <c r="M67" t="s">
         <v>11</v>
@@ -6357,13 +6357,13 @@
         <v>3</v>
       </c>
       <c r="W67">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X67">
         <v>1</v>
       </c>
       <c r="Y67">
-        <v>84.990928649902344</v>
+        <v>85.88665771484375</v>
       </c>
       <c r="Z67" t="s">
         <v>11</v>
@@ -6386,10 +6386,10 @@
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B68" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C68" t="s">
         <v>45</v>
@@ -6413,13 +6413,13 @@
         <v>11</v>
       </c>
       <c r="J68">
-        <v>14.447789192199707</v>
+        <v>14.98634147644043</v>
       </c>
       <c r="K68">
-        <v>14.277317047119141</v>
+        <v>15.29880428314209</v>
       </c>
       <c r="L68">
-        <v>0.19373771548271179</v>
+        <v>0.44188913702964783</v>
       </c>
       <c r="M68" t="s">
         <v>11</v>
@@ -6458,7 +6458,7 @@
         <v>1</v>
       </c>
       <c r="Y68">
-        <v>84.994354248046875</v>
+        <v>86.035820007324219</v>
       </c>
       <c r="Z68" t="s">
         <v>11</v>
@@ -6481,10 +6481,10 @@
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B69" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C69" t="s">
         <v>45</v>
@@ -6508,13 +6508,13 @@
         <v>11</v>
       </c>
       <c r="J69">
-        <v>14.317533493041992</v>
+        <v>15.61126708984375</v>
       </c>
       <c r="K69">
-        <v>14.277317047119141</v>
+        <v>15.29880428314209</v>
       </c>
       <c r="L69">
-        <v>0.19373771548271179</v>
+        <v>0.44188913702964783</v>
       </c>
       <c r="M69" t="s">
         <v>11</v>
@@ -6547,13 +6547,13 @@
         <v>3</v>
       </c>
       <c r="W69">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="X69">
         <v>1</v>
       </c>
       <c r="Y69">
-        <v>85.4417724609375</v>
+        <v>85.592247009277344</v>
       </c>
       <c r="Z69" t="s">
         <v>11</v>
@@ -6576,13 +6576,13 @@
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B70" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C70" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D70" t="s">
         <v>25</v>
@@ -6593,32 +6593,32 @@
       <c r="F70" t="s">
         <v>27</v>
       </c>
-      <c r="G70" t="s">
-        <v>11</v>
-      </c>
-      <c r="H70" t="s">
-        <v>11</v>
-      </c>
-      <c r="I70" t="s">
-        <v>11</v>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>0.81032931804656982</v>
+      </c>
+      <c r="I70">
+        <v>1.2340661287307739</v>
       </c>
       <c r="J70">
-        <v>15.569726943969727</v>
+        <v>25.790241241455078</v>
       </c>
       <c r="K70">
-        <v>15.622016906738281</v>
+        <v>25.464035034179688</v>
       </c>
       <c r="L70">
-        <v>0.13091874122619629</v>
+        <v>0.2946685254573822</v>
       </c>
       <c r="M70" t="s">
         <v>11</v>
       </c>
-      <c r="N70" t="s">
-        <v>11</v>
-      </c>
-      <c r="O70" t="s">
-        <v>11</v>
+      <c r="N70">
+        <v>9.5962944030761719</v>
+      </c>
+      <c r="O70">
+        <v>0.30341970920562744</v>
       </c>
       <c r="P70" t="s">
         <v>11</v>
@@ -6626,14 +6626,14 @@
       <c r="Q70" t="s">
         <v>11</v>
       </c>
-      <c r="R70" t="s">
-        <v>11</v>
+      <c r="R70">
+        <v>0</v>
       </c>
       <c r="S70" t="b">
         <v>1</v>
       </c>
       <c r="T70">
-        <v>7233.1722656250004</v>
+        <v>10704.437161075366</v>
       </c>
       <c r="U70" t="b">
         <v>1</v>
@@ -6642,16 +6642,16 @@
         <v>3</v>
       </c>
       <c r="W70">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="X70">
         <v>1</v>
       </c>
       <c r="Y70">
-        <v>85.891227722167969</v>
-      </c>
-      <c r="Z70" t="s">
-        <v>11</v>
+        <v>89.616081237792969</v>
+      </c>
+      <c r="Z70">
+        <v>63.809677124023438</v>
       </c>
       <c r="AA70" t="s">
         <v>11</v>
@@ -6666,18 +6666,18 @@
         <v>58</v>
       </c>
       <c r="AE70" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C71" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D71" t="s">
         <v>25</v>
@@ -6688,32 +6688,32 @@
       <c r="F71" t="s">
         <v>27</v>
       </c>
-      <c r="G71" t="s">
-        <v>11</v>
-      </c>
-      <c r="H71" t="s">
-        <v>11</v>
-      </c>
-      <c r="I71" t="s">
-        <v>11</v>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>0.81032931804656982</v>
+      </c>
+      <c r="I71">
+        <v>1.2340661287307739</v>
       </c>
       <c r="J71">
-        <v>15.525323867797852</v>
+        <v>25.217138290405273</v>
       </c>
       <c r="K71">
-        <v>15.622016906738281</v>
+        <v>25.464035034179688</v>
       </c>
       <c r="L71">
-        <v>0.13091874122619629</v>
+        <v>0.2946685254573822</v>
       </c>
       <c r="M71" t="s">
         <v>11</v>
       </c>
-      <c r="N71" t="s">
-        <v>11</v>
-      </c>
-      <c r="O71" t="s">
-        <v>11</v>
+      <c r="N71">
+        <v>9.5962944030761719</v>
+      </c>
+      <c r="O71">
+        <v>0.30341970920562744</v>
       </c>
       <c r="P71" t="s">
         <v>11</v>
@@ -6721,14 +6721,14 @@
       <c r="Q71" t="s">
         <v>11</v>
       </c>
-      <c r="R71" t="s">
-        <v>11</v>
+      <c r="R71">
+        <v>0</v>
       </c>
       <c r="S71" t="b">
         <v>1</v>
       </c>
       <c r="T71">
-        <v>7233.1722656250004</v>
+        <v>10704.437161075366</v>
       </c>
       <c r="U71" t="b">
         <v>1</v>
@@ -6737,13 +6737,13 @@
         <v>3</v>
       </c>
       <c r="W71">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="X71">
         <v>1</v>
       </c>
       <c r="Y71">
-        <v>86.040390014648438</v>
+        <v>89.466911315917969</v>
       </c>
       <c r="Z71" t="s">
         <v>11</v>
@@ -6766,13 +6766,13 @@
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C72" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D72" t="s">
         <v>25</v>
@@ -6783,32 +6783,32 @@
       <c r="F72" t="s">
         <v>27</v>
       </c>
-      <c r="G72" t="s">
-        <v>11</v>
-      </c>
-      <c r="H72" t="s">
-        <v>11</v>
-      </c>
-      <c r="I72" t="s">
-        <v>11</v>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>0.81032931804656982</v>
+      </c>
+      <c r="I72">
+        <v>1.2340661287307739</v>
       </c>
       <c r="J72">
-        <v>15.770998954772949</v>
+        <v>25.384721755981445</v>
       </c>
       <c r="K72">
-        <v>15.622016906738281</v>
+        <v>25.464035034179688</v>
       </c>
       <c r="L72">
-        <v>0.13091874122619629</v>
+        <v>0.2946685254573822</v>
       </c>
       <c r="M72" t="s">
         <v>11</v>
       </c>
-      <c r="N72" t="s">
-        <v>11</v>
-      </c>
-      <c r="O72" t="s">
-        <v>11</v>
+      <c r="N72">
+        <v>9.5962944030761719</v>
+      </c>
+      <c r="O72">
+        <v>0.30341970920562744</v>
       </c>
       <c r="P72" t="s">
         <v>11</v>
@@ -6816,14 +6816,14 @@
       <c r="Q72" t="s">
         <v>11</v>
       </c>
-      <c r="R72" t="s">
-        <v>11</v>
+      <c r="R72">
+        <v>0</v>
       </c>
       <c r="S72" t="b">
         <v>1</v>
       </c>
       <c r="T72">
-        <v>7233.1722656250004</v>
+        <v>10704.437161075366</v>
       </c>
       <c r="U72" t="b">
         <v>1</v>
@@ -6832,13 +6832,13 @@
         <v>3</v>
       </c>
       <c r="W72">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="X72">
         <v>1</v>
       </c>
       <c r="Y72">
-        <v>85.88665771484375</v>
+        <v>89.466156005859375</v>
       </c>
       <c r="Z72" t="s">
         <v>11</v>
@@ -6861,10 +6861,10 @@
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="B73" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C73" t="s">
         <v>45</v>
@@ -6888,13 +6888,13 @@
         <v>11</v>
       </c>
       <c r="J73">
-        <v>14.98634147644043</v>
+        <v>15.951275825500488</v>
       </c>
       <c r="K73">
-        <v>15.29880428314209</v>
+        <v>15.867739677429199</v>
       </c>
       <c r="L73">
-        <v>0.44188913702964783</v>
+        <v>7.2346225380897522E-2</v>
       </c>
       <c r="M73" t="s">
         <v>11</v>
@@ -6927,13 +6927,13 @@
         <v>3</v>
       </c>
       <c r="W73">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X73">
         <v>1</v>
       </c>
       <c r="Y73">
-        <v>86.035820007324219</v>
+        <v>85.886833190917969</v>
       </c>
       <c r="Z73" t="s">
         <v>11</v>
@@ -6956,10 +6956,10 @@
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>68</v>
+      </c>
+      <c r="B74" t="s">
         <v>94</v>
-      </c>
-      <c r="B74" t="s">
-        <v>82</v>
       </c>
       <c r="C74" t="s">
         <v>45</v>
@@ -6983,13 +6983,13 @@
         <v>11</v>
       </c>
       <c r="J74">
-        <v>15.61126708984375</v>
+        <v>15.825501441955566</v>
       </c>
       <c r="K74">
-        <v>15.29880428314209</v>
+        <v>15.867739677429199</v>
       </c>
       <c r="L74">
-        <v>0.44188913702964783</v>
+        <v>7.2346225380897522E-2</v>
       </c>
       <c r="M74" t="s">
         <v>11</v>
@@ -7022,13 +7022,13 @@
         <v>3</v>
       </c>
       <c r="W74">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="X74">
         <v>1</v>
       </c>
       <c r="Y74">
-        <v>85.592247009277344</v>
+        <v>85.886833190917969</v>
       </c>
       <c r="Z74" t="s">
         <v>11</v>
@@ -7051,13 +7051,13 @@
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="B75" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C75" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D75" t="s">
         <v>25</v>
@@ -7068,32 +7068,32 @@
       <c r="F75" t="s">
         <v>27</v>
       </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="H75">
-        <v>0.81032931804656982</v>
-      </c>
-      <c r="I75">
-        <v>1.2340661287307739</v>
+      <c r="G75" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75" t="s">
+        <v>11</v>
+      </c>
+      <c r="I75" t="s">
+        <v>11</v>
       </c>
       <c r="J75">
-        <v>25.790241241455078</v>
+        <v>15.826440811157227</v>
       </c>
       <c r="K75">
-        <v>25.464035034179688</v>
+        <v>15.867739677429199</v>
       </c>
       <c r="L75">
-        <v>0.2946685254573822</v>
+        <v>7.2346225380897522E-2</v>
       </c>
       <c r="M75" t="s">
         <v>11</v>
       </c>
-      <c r="N75">
-        <v>9.5962944030761719</v>
-      </c>
-      <c r="O75">
-        <v>0.30341970920562744</v>
+      <c r="N75" t="s">
+        <v>11</v>
+      </c>
+      <c r="O75" t="s">
+        <v>11</v>
       </c>
       <c r="P75" t="s">
         <v>11</v>
@@ -7101,14 +7101,14 @@
       <c r="Q75" t="s">
         <v>11</v>
       </c>
-      <c r="R75">
-        <v>0</v>
+      <c r="R75" t="s">
+        <v>11</v>
       </c>
       <c r="S75" t="b">
         <v>1</v>
       </c>
       <c r="T75">
-        <v>10704.437161075366</v>
+        <v>7233.1722656250004</v>
       </c>
       <c r="U75" t="b">
         <v>1</v>
@@ -7117,16 +7117,16 @@
         <v>3</v>
       </c>
       <c r="W75">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="X75">
         <v>1</v>
       </c>
       <c r="Y75">
-        <v>89.616081237792969</v>
-      </c>
-      <c r="Z75">
-        <v>63.809677124023438</v>
+        <v>85.885971069335938</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>11</v>
       </c>
       <c r="AA75" t="s">
         <v>11</v>
@@ -7141,514 +7141,39 @@
         <v>58</v>
       </c>
       <c r="AE75" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="B76" t="s">
         <v>96</v>
       </c>
-      <c r="C76" t="s">
-        <v>24</v>
-      </c>
-      <c r="D76" t="s">
-        <v>25</v>
-      </c>
-      <c r="E76" t="s">
-        <v>26</v>
-      </c>
-      <c r="F76" t="s">
-        <v>27</v>
-      </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
-      <c r="H76">
-        <v>0.81032931804656982</v>
-      </c>
-      <c r="I76">
-        <v>1.2340661287307739</v>
-      </c>
-      <c r="J76">
-        <v>25.217138290405273</v>
-      </c>
-      <c r="K76">
-        <v>25.464035034179688</v>
-      </c>
-      <c r="L76">
-        <v>0.2946685254573822</v>
-      </c>
-      <c r="M76" t="s">
-        <v>11</v>
-      </c>
-      <c r="N76">
-        <v>9.5962944030761719</v>
-      </c>
-      <c r="O76">
-        <v>0.30341970920562744</v>
-      </c>
-      <c r="P76" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>11</v>
-      </c>
-      <c r="R76">
-        <v>0</v>
-      </c>
-      <c r="S76" t="b">
-        <v>1</v>
-      </c>
-      <c r="T76">
-        <v>10704.437161075366</v>
-      </c>
-      <c r="U76" t="b">
-        <v>1</v>
-      </c>
-      <c r="V76">
-        <v>3</v>
-      </c>
-      <c r="W76">
-        <v>18</v>
-      </c>
-      <c r="X76">
-        <v>1</v>
-      </c>
-      <c r="Y76">
-        <v>89.466911315917969</v>
-      </c>
-      <c r="Z76" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA76" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB76" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC76" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD76" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE76" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="B77" t="s">
-        <v>96</v>
-      </c>
-      <c r="C77" t="s">
-        <v>24</v>
-      </c>
-      <c r="D77" t="s">
-        <v>25</v>
-      </c>
-      <c r="E77" t="s">
-        <v>26</v>
-      </c>
-      <c r="F77" t="s">
-        <v>27</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
-      <c r="H77">
-        <v>0.81032931804656982</v>
-      </c>
-      <c r="I77">
-        <v>1.2340661287307739</v>
-      </c>
-      <c r="J77">
-        <v>25.384721755981445</v>
-      </c>
-      <c r="K77">
-        <v>25.464035034179688</v>
-      </c>
-      <c r="L77">
-        <v>0.2946685254573822</v>
-      </c>
-      <c r="M77" t="s">
-        <v>11</v>
-      </c>
-      <c r="N77">
-        <v>9.5962944030761719</v>
-      </c>
-      <c r="O77">
-        <v>0.30341970920562744</v>
-      </c>
-      <c r="P77" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>11</v>
-      </c>
-      <c r="R77">
-        <v>0</v>
-      </c>
-      <c r="S77" t="b">
-        <v>1</v>
-      </c>
-      <c r="T77">
-        <v>10704.437161075366</v>
-      </c>
-      <c r="U77" t="b">
-        <v>1</v>
-      </c>
-      <c r="V77">
-        <v>3</v>
-      </c>
-      <c r="W77">
-        <v>18</v>
-      </c>
-      <c r="X77">
-        <v>1</v>
-      </c>
-      <c r="Y77">
-        <v>89.466156005859375</v>
-      </c>
-      <c r="Z77" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA77" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB77" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC77" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD77" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE77" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="B78" t="s">
-        <v>96</v>
-      </c>
-      <c r="C78" t="s">
-        <v>45</v>
-      </c>
-      <c r="D78" t="s">
-        <v>25</v>
-      </c>
-      <c r="E78" t="s">
-        <v>26</v>
-      </c>
-      <c r="F78" t="s">
-        <v>27</v>
-      </c>
-      <c r="G78" t="s">
-        <v>11</v>
-      </c>
-      <c r="H78" t="s">
-        <v>11</v>
-      </c>
-      <c r="I78" t="s">
-        <v>11</v>
-      </c>
-      <c r="J78">
-        <v>15.951275825500488</v>
-      </c>
-      <c r="K78">
-        <v>15.867739677429199</v>
-      </c>
-      <c r="L78">
-        <v>7.2346225380897522E-2</v>
-      </c>
-      <c r="M78" t="s">
-        <v>11</v>
-      </c>
-      <c r="N78" t="s">
-        <v>11</v>
-      </c>
-      <c r="O78" t="s">
-        <v>11</v>
-      </c>
-      <c r="P78" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>11</v>
-      </c>
-      <c r="R78" t="s">
-        <v>11</v>
-      </c>
-      <c r="S78" t="b">
-        <v>1</v>
-      </c>
-      <c r="T78">
-        <v>7233.1722656250004</v>
-      </c>
-      <c r="U78" t="b">
-        <v>1</v>
-      </c>
-      <c r="V78">
-        <v>3</v>
-      </c>
-      <c r="W78">
-        <v>9</v>
-      </c>
-      <c r="X78">
-        <v>1</v>
-      </c>
-      <c r="Y78">
-        <v>85.886833190917969</v>
-      </c>
-      <c r="Z78" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA78" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB78" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC78" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD78" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE78" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="B79" t="s">
-        <v>96</v>
-      </c>
-      <c r="C79" t="s">
-        <v>45</v>
-      </c>
-      <c r="D79" t="s">
-        <v>25</v>
-      </c>
-      <c r="E79" t="s">
-        <v>26</v>
-      </c>
-      <c r="F79" t="s">
-        <v>27</v>
-      </c>
-      <c r="G79" t="s">
-        <v>11</v>
-      </c>
-      <c r="H79" t="s">
-        <v>11</v>
-      </c>
-      <c r="I79" t="s">
-        <v>11</v>
-      </c>
-      <c r="J79">
-        <v>15.825501441955566</v>
-      </c>
-      <c r="K79">
-        <v>15.867739677429199</v>
-      </c>
-      <c r="L79">
-        <v>7.2346225380897522E-2</v>
-      </c>
-      <c r="M79" t="s">
-        <v>11</v>
-      </c>
-      <c r="N79" t="s">
-        <v>11</v>
-      </c>
-      <c r="O79" t="s">
-        <v>11</v>
-      </c>
-      <c r="P79" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>11</v>
-      </c>
-      <c r="R79" t="s">
-        <v>11</v>
-      </c>
-      <c r="S79" t="b">
-        <v>1</v>
-      </c>
-      <c r="T79">
-        <v>7233.1722656250004</v>
-      </c>
-      <c r="U79" t="b">
-        <v>1</v>
-      </c>
-      <c r="V79">
-        <v>3</v>
-      </c>
-      <c r="W79">
-        <v>8</v>
-      </c>
-      <c r="X79">
-        <v>1</v>
-      </c>
-      <c r="Y79">
-        <v>85.886833190917969</v>
-      </c>
-      <c r="Z79" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA79" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB79" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC79" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD79" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE79" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>65</v>
-      </c>
-      <c r="B80" t="s">
-        <v>96</v>
-      </c>
-      <c r="C80" t="s">
-        <v>45</v>
-      </c>
-      <c r="D80" t="s">
-        <v>25</v>
-      </c>
-      <c r="E80" t="s">
-        <v>26</v>
-      </c>
-      <c r="F80" t="s">
-        <v>27</v>
-      </c>
-      <c r="G80" t="s">
-        <v>11</v>
-      </c>
-      <c r="H80" t="s">
-        <v>11</v>
-      </c>
-      <c r="I80" t="s">
-        <v>11</v>
-      </c>
-      <c r="J80">
-        <v>15.826440811157227</v>
-      </c>
-      <c r="K80">
-        <v>15.867739677429199</v>
-      </c>
-      <c r="L80">
-        <v>7.2346225380897522E-2</v>
-      </c>
-      <c r="M80" t="s">
-        <v>11</v>
-      </c>
-      <c r="N80" t="s">
-        <v>11</v>
-      </c>
-      <c r="O80" t="s">
-        <v>11</v>
-      </c>
-      <c r="P80" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>11</v>
-      </c>
-      <c r="R80" t="s">
-        <v>11</v>
-      </c>
-      <c r="S80" t="b">
-        <v>1</v>
-      </c>
-      <c r="T80">
-        <v>7233.1722656250004</v>
-      </c>
-      <c r="U80" t="b">
-        <v>1</v>
-      </c>
-      <c r="V80">
-        <v>3</v>
-      </c>
-      <c r="W80">
-        <v>8</v>
-      </c>
-      <c r="X80">
-        <v>1</v>
-      </c>
-      <c r="Y80">
-        <v>85.885971069335938</v>
-      </c>
-      <c r="Z80" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA80" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB80" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC80" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD80" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE80" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>97</v>
-      </c>
-      <c r="B81" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>99</v>
-      </c>
-      <c r="B82" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>100</v>
-      </c>
-      <c r="B83" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>102</v>
-      </c>
-      <c r="B84" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/11_27_19_Zinc_Combo.xlsx
+++ b/11_27_19_Zinc_Combo.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paigehalas/ph-future-phd/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paigehalas/ph-future-phd/ph-future-phd/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FBE2D7-B5B9-0A4B-9C6C-238BEDABD62F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="2040" windowWidth="27760" windowHeight="16380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="103">
   <si>
     <t>Block Type</t>
   </si>
@@ -333,19 +335,43 @@
   </si>
   <si>
     <t>3T3 uncut mAp</t>
+  </si>
+  <si>
+    <t>Showing 3 to 14 of 14 entries</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF555555"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -368,8 +394,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,6 +408,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -646,11 +678,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4693,8 +4725,8 @@
       <c r="F50" t="s">
         <v>27</v>
       </c>
-      <c r="G50">
-        <v>0.14045263826847076</v>
+      <c r="G50" s="1">
+        <v>6.1126840000000002E-2</v>
       </c>
       <c r="H50">
         <v>9.8728612065315247E-2</v>
@@ -4788,8 +4820,8 @@
       <c r="F51" t="s">
         <v>27</v>
       </c>
-      <c r="G51">
-        <v>0.14045263826847076</v>
+      <c r="G51" s="1">
+        <v>6.1126840000000002E-2</v>
       </c>
       <c r="H51">
         <v>9.8728612065315247E-2</v>
@@ -4883,8 +4915,8 @@
       <c r="F52" t="s">
         <v>27</v>
       </c>
-      <c r="G52">
-        <v>0.79039973020553589</v>
+      <c r="G52" s="1">
+        <v>0.34399239999999998</v>
       </c>
       <c r="H52">
         <v>0.51272964477539062</v>
@@ -4978,8 +5010,8 @@
       <c r="F53" t="s">
         <v>27</v>
       </c>
-      <c r="G53">
-        <v>0.79039973020553589</v>
+      <c r="G53" s="1">
+        <v>0.34399239999999998</v>
       </c>
       <c r="H53">
         <v>0.51272964477539062</v>
@@ -5073,8 +5105,8 @@
       <c r="F54" t="s">
         <v>27</v>
       </c>
-      <c r="G54">
-        <v>1.170854926109314</v>
+      <c r="G54" s="1">
+        <v>0.50957149000000002</v>
       </c>
       <c r="H54">
         <v>1.0463771820068359</v>
@@ -5168,8 +5200,8 @@
       <c r="F55" t="s">
         <v>27</v>
       </c>
-      <c r="G55">
-        <v>1.170854926109314</v>
+      <c r="G55" s="1">
+        <v>0.50957149000000002</v>
       </c>
       <c r="H55">
         <v>1.0463771820068359</v>
@@ -5263,8 +5295,8 @@
       <c r="F56" t="s">
         <v>27</v>
       </c>
-      <c r="G56">
-        <v>1.170854926109314</v>
+      <c r="G56" s="1">
+        <v>0.50957149000000002</v>
       </c>
       <c r="H56">
         <v>1.0463771820068359</v>
@@ -5358,8 +5390,8 @@
       <c r="F57" t="s">
         <v>27</v>
       </c>
-      <c r="G57">
-        <v>0.52225416898727417</v>
+      <c r="G57" s="1">
+        <v>0.22729189</v>
       </c>
       <c r="H57">
         <v>0.38283470273017883</v>
@@ -5453,8 +5485,8 @@
       <c r="F58" t="s">
         <v>27</v>
       </c>
-      <c r="G58">
-        <v>0.52225416898727417</v>
+      <c r="G58" s="1">
+        <v>0.22729189</v>
       </c>
       <c r="H58">
         <v>0.38283470273017883</v>
@@ -5548,8 +5580,8 @@
       <c r="F59" t="s">
         <v>27</v>
       </c>
-      <c r="G59">
-        <v>0.52225416898727417</v>
+      <c r="G59" s="1">
+        <v>0.22729189</v>
       </c>
       <c r="H59">
         <v>0.38283470273017883</v>
@@ -6593,8 +6625,8 @@
       <c r="F70" t="s">
         <v>27</v>
       </c>
-      <c r="G70">
-        <v>1</v>
+      <c r="G70" s="1">
+        <v>0.43521319000000003</v>
       </c>
       <c r="H70">
         <v>0.81032931804656982</v>
@@ -6688,8 +6720,8 @@
       <c r="F71" t="s">
         <v>27</v>
       </c>
-      <c r="G71">
-        <v>1</v>
+      <c r="G71" s="1">
+        <v>0.43521319000000003</v>
       </c>
       <c r="H71">
         <v>0.81032931804656982</v>
@@ -6783,8 +6815,8 @@
       <c r="F72" t="s">
         <v>27</v>
       </c>
-      <c r="G72">
-        <v>1</v>
+      <c r="G72" s="1">
+        <v>0.43521319000000003</v>
       </c>
       <c r="H72">
         <v>0.81032931804656982</v>
@@ -7144,36 +7176,212 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>95</v>
-      </c>
-      <c r="B76" t="s">
-        <v>96</v>
-      </c>
-    </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B77" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B78" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>98</v>
+      </c>
+      <c r="B79" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>100</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B59D1B-79AA-BE40-ADAF-4A5746FA17CD}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.3935545300000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.6382075500000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.3210706699999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.5735657700000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.43521319000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6.1126840000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.22729189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.50957149000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.34399239999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.55771904000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.27713808000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.20673490999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/11_27_19_Zinc_Combo.xlsx
+++ b/11_27_19_Zinc_Combo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paigehalas/ph-future-phd/ph-future-phd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FBE2D7-B5B9-0A4B-9C6C-238BEDABD62F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE86408-897E-B743-ACE7-9E57D32E5574}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/11_27_19_Zinc_Combo.xlsx
+++ b/11_27_19_Zinc_Combo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paigehalas/ph-future-phd/ph-future-phd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE86408-897E-B743-ACE7-9E57D32E5574}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B52726F-E593-C349-91E3-755F9ABDC197}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="126">
   <si>
     <t>Block Type</t>
   </si>
@@ -118,9 +118,6 @@
     <t>C5</t>
   </si>
   <si>
-    <t>C6</t>
-  </si>
-  <si>
     <t>C7</t>
   </si>
   <si>
@@ -193,9 +190,6 @@
     <t>F3</t>
   </si>
   <si>
-    <t>F4</t>
-  </si>
-  <si>
     <t>F6</t>
   </si>
   <si>
@@ -229,12 +223,6 @@
     <t>D3</t>
   </si>
   <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>BCC SS  0 uM Zinc</t>
-  </si>
-  <si>
     <t>D2</t>
   </si>
   <si>
@@ -247,9 +235,6 @@
     <t>A3</t>
   </si>
   <si>
-    <t>A5</t>
-  </si>
-  <si>
     <t>3T3 SSH 6.9 uM Zinc</t>
   </si>
   <si>
@@ -262,9 +247,6 @@
     <t>3T3 SSH 4.8 uM Zinc</t>
   </si>
   <si>
-    <t>A8</t>
-  </si>
-  <si>
     <t>A9</t>
   </si>
   <si>
@@ -277,9 +259,6 @@
     <t>A11</t>
   </si>
   <si>
-    <t>A12</t>
-  </si>
-  <si>
     <t>B1</t>
   </si>
   <si>
@@ -301,18 +280,12 @@
     <t>B8</t>
   </si>
   <si>
-    <t>B9</t>
-  </si>
-  <si>
     <t>B10</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
     <t>3T3 SSH 0 uM Zinc</t>
   </si>
   <si>
@@ -334,10 +307,106 @@
     <t>Reference Sample</t>
   </si>
   <si>
-    <t>3T3 uncut mAp</t>
-  </si>
-  <si>
     <t>Showing 3 to 14 of 14 entries</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>BCC SS 4.8 uM Zinc</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>BCC SS 0 uM Zinc</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>Undetermined</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>H9</t>
   </si>
 </sst>
 </file>
@@ -679,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE80"/>
+  <dimension ref="A1:AE88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -690,7 +759,7 @@
     <col min="2" max="2" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -698,7 +767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -706,7 +775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -714,7 +783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -722,7 +791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -730,7 +799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -738,7 +807,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -770,12 +839,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
@@ -790,31 +859,31 @@
         <v>27</v>
       </c>
       <c r="G8">
-        <v>0.36827918887138367</v>
+        <v>0.64923524856567383</v>
       </c>
       <c r="H8">
-        <v>0.1902916431427002</v>
+        <v>0.46165373921394348</v>
       </c>
       <c r="I8">
-        <v>0.71274572610855103</v>
+        <v>0.91303586959838867</v>
       </c>
       <c r="J8">
-        <v>34.227500915527344</v>
+        <v>33.943946838378906</v>
       </c>
       <c r="K8">
-        <v>34.055454254150391</v>
+        <v>33.418220520019531</v>
       </c>
       <c r="L8">
-        <v>0.24331071972846985</v>
+        <v>0.48779526352882385</v>
       </c>
       <c r="M8" t="s">
         <v>11</v>
       </c>
       <c r="N8">
-        <v>14.125100135803223</v>
+        <v>17.481395721435547</v>
       </c>
       <c r="O8">
-        <v>0.95258760452270508</v>
+        <v>0.49193015694618225</v>
       </c>
       <c r="P8" t="s">
         <v>11</v>
@@ -823,13 +892,13 @@
         <v>11</v>
       </c>
       <c r="R8">
-        <v>1.4411282539367676</v>
+        <v>0.62318676710128784</v>
       </c>
       <c r="S8" t="b">
         <v>1</v>
       </c>
       <c r="T8">
-        <v>14820.58431332237</v>
+        <v>12599.466210165512</v>
       </c>
       <c r="U8" t="b">
         <v>1</v>
@@ -838,13 +907,13 @@
         <v>3</v>
       </c>
       <c r="W8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X8">
         <v>1</v>
       </c>
       <c r="Y8">
-        <v>88.573577880859375</v>
+        <v>88.574508666992188</v>
       </c>
       <c r="Z8" t="s">
         <v>11</v>
@@ -856,18 +925,21 @@
         <v>11</v>
       </c>
       <c r="AC8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -882,31 +954,31 @@
         <v>27</v>
       </c>
       <c r="G9">
-        <v>0.36827918887138367</v>
+        <v>0.64923524856567383</v>
       </c>
       <c r="H9">
-        <v>0.1902916431427002</v>
+        <v>0.46165373921394348</v>
       </c>
       <c r="I9">
-        <v>0.71274572610855103</v>
+        <v>0.91303586959838867</v>
       </c>
       <c r="J9">
-        <v>33.883407592773438</v>
+        <v>33.330432891845703</v>
       </c>
       <c r="K9">
-        <v>34.055454254150391</v>
+        <v>33.418220520019531</v>
       </c>
       <c r="L9">
-        <v>0.24331071972846985</v>
+        <v>0.48779526352882385</v>
       </c>
       <c r="M9" t="s">
         <v>11</v>
       </c>
       <c r="N9">
-        <v>14.125100135803223</v>
+        <v>17.481395721435547</v>
       </c>
       <c r="O9">
-        <v>0.95258760452270508</v>
+        <v>0.49193015694618225</v>
       </c>
       <c r="P9" t="s">
         <v>11</v>
@@ -915,13 +987,13 @@
         <v>11</v>
       </c>
       <c r="R9">
-        <v>1.4411282539367676</v>
+        <v>0.62318676710128784</v>
       </c>
       <c r="S9" t="b">
         <v>1</v>
       </c>
       <c r="T9">
-        <v>14820.58431332237</v>
+        <v>12599.466210165512</v>
       </c>
       <c r="U9" t="b">
         <v>1</v>
@@ -930,13 +1002,13 @@
         <v>3</v>
       </c>
       <c r="W9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X9">
         <v>1</v>
       </c>
       <c r="Y9">
-        <v>88.570953369140625</v>
+        <v>88.574508666992188</v>
       </c>
       <c r="Z9" t="s">
         <v>11</v>
@@ -948,18 +1020,21 @@
         <v>11</v>
       </c>
       <c r="AC9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
@@ -974,31 +1049,31 @@
         <v>27</v>
       </c>
       <c r="G10">
-        <v>7.6136164367198944E-2</v>
+        <v>0.64923524856567383</v>
       </c>
       <c r="H10">
-        <v>5.7622816413640976E-2</v>
+        <v>0.46165373921394348</v>
       </c>
       <c r="I10">
-        <v>0.1005975678563118</v>
+        <v>0.91303586959838867</v>
       </c>
       <c r="J10">
-        <v>32.541336059570312</v>
+        <v>32.980278015136719</v>
       </c>
       <c r="K10">
-        <v>32.817424774169922</v>
+        <v>33.418220520019531</v>
       </c>
       <c r="L10">
-        <v>0.39044839143753052</v>
+        <v>0.48779526352882385</v>
       </c>
       <c r="M10" t="s">
         <v>11</v>
       </c>
       <c r="N10">
-        <v>16.399246215820312</v>
+        <v>17.481395721435547</v>
       </c>
       <c r="O10">
-        <v>0.40194162726402283</v>
+        <v>0.49193015694618225</v>
       </c>
       <c r="P10" t="s">
         <v>11</v>
@@ -1007,13 +1082,13 @@
         <v>11</v>
       </c>
       <c r="R10">
-        <v>3.7152743339538574</v>
+        <v>0.62318676710128784</v>
       </c>
       <c r="S10" t="b">
         <v>1</v>
       </c>
       <c r="T10">
-        <v>14820.58431332237</v>
+        <v>12599.466210165512</v>
       </c>
       <c r="U10" t="b">
         <v>1</v>
@@ -1022,13 +1097,13 @@
         <v>3</v>
       </c>
       <c r="W10">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="X10">
         <v>1</v>
       </c>
       <c r="Y10">
-        <v>88.5791015625</v>
+        <v>88.571800231933594</v>
       </c>
       <c r="Z10" t="s">
         <v>11</v>
@@ -1040,18 +1115,21 @@
         <v>11</v>
       </c>
       <c r="AC10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
         <v>58</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>60</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
@@ -1066,31 +1144,31 @@
         <v>27</v>
       </c>
       <c r="G11">
-        <v>7.6136164367198944E-2</v>
+        <v>1.0877232551574707</v>
       </c>
       <c r="H11">
-        <v>5.7622816413640976E-2</v>
+        <v>0.97696453332901001</v>
       </c>
       <c r="I11">
-        <v>0.1005975678563118</v>
+        <v>1.2110387086868286</v>
       </c>
       <c r="J11">
-        <v>33.093513488769531</v>
+        <v>32.601066589355469</v>
       </c>
       <c r="K11">
-        <v>32.817424774169922</v>
+        <v>32.630714416503906</v>
       </c>
       <c r="L11">
-        <v>0.39044839143753052</v>
+        <v>4.193105548620224E-2</v>
       </c>
       <c r="M11" t="s">
         <v>11</v>
       </c>
       <c r="N11">
-        <v>16.399246215820312</v>
+        <v>16.736898422241211</v>
       </c>
       <c r="O11">
-        <v>0.40194162726402283</v>
+        <v>0.15493345260620117</v>
       </c>
       <c r="P11" t="s">
         <v>11</v>
@@ -1099,13 +1177,13 @@
         <v>11</v>
       </c>
       <c r="R11">
-        <v>3.7152743339538574</v>
+        <v>-0.12131150811910629</v>
       </c>
       <c r="S11" t="b">
         <v>1</v>
       </c>
       <c r="T11">
-        <v>14820.58431332237</v>
+        <v>12599.466210165512</v>
       </c>
       <c r="U11" t="b">
         <v>1</v>
@@ -1114,16 +1192,16 @@
         <v>3</v>
       </c>
       <c r="W11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X11">
         <v>1</v>
       </c>
       <c r="Y11">
-        <v>88.5791015625</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>11</v>
+        <v>88.571800231933594</v>
+      </c>
+      <c r="Z11">
+        <v>82.760162353515625</v>
       </c>
       <c r="AA11" t="s">
         <v>11</v>
@@ -1132,18 +1210,21 @@
         <v>11</v>
       </c>
       <c r="AC11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" t="s">
         <v>58</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>61</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
@@ -1158,31 +1239,31 @@
         <v>27</v>
       </c>
       <c r="G12">
-        <v>0.10206418484449387</v>
+        <v>1.0877232551574707</v>
       </c>
       <c r="H12">
-        <v>4.8028163611888885E-2</v>
+        <v>0.97696453332901001</v>
       </c>
       <c r="I12">
-        <v>0.21689561009407043</v>
+        <v>1.2110387086868286</v>
       </c>
       <c r="J12">
-        <v>33.726295471191406</v>
+        <v>32.660366058349609</v>
       </c>
       <c r="K12">
-        <v>33.926193237304688</v>
+        <v>32.630714416503906</v>
       </c>
       <c r="L12">
-        <v>0.28270083665847778</v>
+        <v>4.193105548620224E-2</v>
       </c>
       <c r="M12" t="s">
         <v>11</v>
       </c>
       <c r="N12">
-        <v>15.976423263549805</v>
+        <v>16.736898422241211</v>
       </c>
       <c r="O12">
-        <v>1.0875241756439209</v>
+        <v>0.15493345260620117</v>
       </c>
       <c r="P12" t="s">
         <v>11</v>
@@ -1191,13 +1272,13 @@
         <v>11</v>
       </c>
       <c r="R12">
-        <v>3.2924513816833496</v>
+        <v>-0.12131150811910629</v>
       </c>
       <c r="S12" t="b">
         <v>1</v>
       </c>
       <c r="T12">
-        <v>14820.58431332237</v>
+        <v>12599.466210165512</v>
       </c>
       <c r="U12" t="b">
         <v>1</v>
@@ -1206,36 +1287,39 @@
         <v>3</v>
       </c>
       <c r="W12">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="X12">
         <v>1</v>
       </c>
       <c r="Y12">
-        <v>88.576690673828125</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>11</v>
+        <v>88.288116455078125</v>
+      </c>
+      <c r="Z12">
+        <v>83.51934814453125</v>
+      </c>
+      <c r="AA12">
+        <v>65.338417053222656</v>
       </c>
       <c r="AB12" t="s">
         <v>11</v>
       </c>
       <c r="AC12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
@@ -1250,31 +1334,31 @@
         <v>27</v>
       </c>
       <c r="G13">
-        <v>0.10206418484449387</v>
+        <v>0.58134740591049194</v>
       </c>
       <c r="H13">
-        <v>4.8028163611888885E-2</v>
+        <v>0.52461665868759155</v>
       </c>
       <c r="I13">
-        <v>0.21689561009407043</v>
+        <v>0.64421278238296509</v>
       </c>
       <c r="J13">
-        <v>34.126094818115234</v>
+        <v>33.451927185058594</v>
       </c>
       <c r="K13">
-        <v>33.926193237304688</v>
+        <v>33.547958374023438</v>
       </c>
       <c r="L13">
-        <v>0.28270083665847778</v>
+        <v>0.13580591976642609</v>
       </c>
       <c r="M13" t="s">
         <v>11</v>
       </c>
       <c r="N13">
-        <v>15.976423263549805</v>
+        <v>17.640737533569336</v>
       </c>
       <c r="O13">
-        <v>1.0875241756439209</v>
+        <v>0.14813679456710815</v>
       </c>
       <c r="P13" t="s">
         <v>11</v>
@@ -1283,13 +1367,13 @@
         <v>11</v>
       </c>
       <c r="R13">
-        <v>3.2924513816833496</v>
+        <v>0.7825276255607605</v>
       </c>
       <c r="S13" t="b">
         <v>1</v>
       </c>
       <c r="T13">
-        <v>14820.58431332237</v>
+        <v>12599.466210165512</v>
       </c>
       <c r="U13" t="b">
         <v>1</v>
@@ -1298,13 +1382,13 @@
         <v>3</v>
       </c>
       <c r="W13">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="X13">
         <v>1</v>
       </c>
       <c r="Y13">
-        <v>88.576690673828125</v>
+        <v>88.579963684082031</v>
       </c>
       <c r="Z13" t="s">
         <v>11</v>
@@ -1316,18 +1400,21 @@
         <v>11</v>
       </c>
       <c r="AC13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
@@ -1342,31 +1429,31 @@
         <v>27</v>
       </c>
       <c r="G14">
-        <v>0.20539630949497223</v>
+        <v>0.58134740591049194</v>
       </c>
       <c r="H14">
-        <v>0.1983136385679245</v>
+        <v>0.52461665868759155</v>
       </c>
       <c r="I14">
-        <v>0.21273194253444672</v>
+        <v>0.64421278238296509</v>
       </c>
       <c r="J14">
-        <v>28.900951385498047</v>
+        <v>33.643985748291016</v>
       </c>
       <c r="K14">
-        <v>28.907148361206055</v>
+        <v>33.547958374023438</v>
       </c>
       <c r="L14">
-        <v>8.7638469412922859E-3</v>
+        <v>0.13580591976642609</v>
       </c>
       <c r="M14" t="s">
         <v>11</v>
       </c>
       <c r="N14">
-        <v>14.967489242553711</v>
+        <v>17.640737533569336</v>
       </c>
       <c r="O14">
-        <v>5.0626397132873535E-2</v>
+        <v>0.14813679456710815</v>
       </c>
       <c r="P14" t="s">
         <v>11</v>
@@ -1375,13 +1462,13 @@
         <v>11</v>
       </c>
       <c r="R14">
-        <v>2.2835178375244141</v>
+        <v>0.7825276255607605</v>
       </c>
       <c r="S14" t="b">
         <v>1</v>
       </c>
       <c r="T14">
-        <v>14820.58431332237</v>
+        <v>12599.466210165512</v>
       </c>
       <c r="U14" t="b">
         <v>1</v>
@@ -1390,16 +1477,16 @@
         <v>3</v>
       </c>
       <c r="W14">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="X14">
         <v>1</v>
       </c>
       <c r="Y14">
-        <v>88.123825073242188</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>11</v>
+        <v>88.429946899414062</v>
+      </c>
+      <c r="Z14">
+        <v>82.767555236816406</v>
       </c>
       <c r="AA14" t="s">
         <v>11</v>
@@ -1408,18 +1495,21 @@
         <v>11</v>
       </c>
       <c r="AC14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
@@ -1434,31 +1524,31 @@
         <v>27</v>
       </c>
       <c r="G15">
-        <v>0.20539630949497223</v>
+        <v>0.99371945858001709</v>
       </c>
       <c r="H15">
-        <v>0.1983136385679245</v>
+        <v>0.94306838512420654</v>
       </c>
       <c r="I15">
-        <v>0.21273194253444672</v>
+        <v>1.047091007232666</v>
       </c>
       <c r="J15">
-        <v>28.913345336914062</v>
+        <v>32.927898406982422</v>
       </c>
       <c r="K15">
-        <v>28.907148361206055</v>
+        <v>32.88592529296875</v>
       </c>
       <c r="L15">
-        <v>8.7638469412922859E-3</v>
+        <v>5.9356249868869781E-2</v>
       </c>
       <c r="M15" t="s">
         <v>11</v>
       </c>
       <c r="N15">
-        <v>14.967489242553711</v>
+        <v>16.867300033569336</v>
       </c>
       <c r="O15">
-        <v>5.0626397132873535E-2</v>
+        <v>7.5476266443729401E-2</v>
       </c>
       <c r="P15" t="s">
         <v>11</v>
@@ -1467,13 +1557,13 @@
         <v>11</v>
       </c>
       <c r="R15">
-        <v>2.2835178375244141</v>
+        <v>9.0894699096679688E-3</v>
       </c>
       <c r="S15" t="b">
         <v>1</v>
       </c>
       <c r="T15">
-        <v>14820.58431332237</v>
+        <v>12599.466210165512</v>
       </c>
       <c r="U15" t="b">
         <v>1</v>
@@ -1482,13 +1572,13 @@
         <v>3</v>
       </c>
       <c r="W15">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="X15">
         <v>1</v>
       </c>
       <c r="Y15">
-        <v>87.6826171875</v>
+        <v>88.578948974609375</v>
       </c>
       <c r="Z15" t="s">
         <v>11</v>
@@ -1500,21 +1590,24 @@
         <v>11</v>
       </c>
       <c r="AC15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
@@ -1525,32 +1618,32 @@
       <c r="F16" t="s">
         <v>27</v>
       </c>
-      <c r="G16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" t="s">
-        <v>11</v>
+      <c r="G16">
+        <v>0.99371945858001709</v>
+      </c>
+      <c r="H16">
+        <v>0.94306838512420654</v>
+      </c>
+      <c r="I16">
+        <v>1.047091007232666</v>
       </c>
       <c r="J16">
-        <v>20.581592559814453</v>
+        <v>32.843955993652344</v>
       </c>
       <c r="K16">
-        <v>19.930355072021484</v>
+        <v>32.88592529296875</v>
       </c>
       <c r="L16">
-        <v>0.9209902286529541</v>
+        <v>5.9356249868869781E-2</v>
       </c>
       <c r="M16" t="s">
         <v>11</v>
       </c>
-      <c r="N16" t="s">
-        <v>11</v>
-      </c>
-      <c r="O16" t="s">
-        <v>11</v>
+      <c r="N16">
+        <v>16.867300033569336</v>
+      </c>
+      <c r="O16">
+        <v>7.5476266443729401E-2</v>
       </c>
       <c r="P16" t="s">
         <v>11</v>
@@ -1558,14 +1651,14 @@
       <c r="Q16" t="s">
         <v>11</v>
       </c>
-      <c r="R16" t="s">
-        <v>11</v>
+      <c r="R16">
+        <v>9.0894699096679688E-3</v>
       </c>
       <c r="S16" t="b">
         <v>1</v>
       </c>
       <c r="T16">
-        <v>12383.672293526786</v>
+        <v>12599.466210165512</v>
       </c>
       <c r="U16" t="b">
         <v>1</v>
@@ -1574,13 +1667,13 @@
         <v>3</v>
       </c>
       <c r="W16">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="X16">
         <v>1</v>
       </c>
       <c r="Y16">
-        <v>83.20880126953125</v>
+        <v>88.281234741210938</v>
       </c>
       <c r="Z16" t="s">
         <v>11</v>
@@ -1592,21 +1685,24 @@
         <v>11</v>
       </c>
       <c r="AC16" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="AD16" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
         <v>25</v>
@@ -1627,13 +1723,13 @@
         <v>11</v>
       </c>
       <c r="J17">
-        <v>19.279115676879883</v>
+        <v>15.95333194732666</v>
       </c>
       <c r="K17">
-        <v>19.930355072021484</v>
+        <v>15.936821937561035</v>
       </c>
       <c r="L17">
-        <v>0.9209902286529541</v>
+        <v>6.3647903501987457E-2</v>
       </c>
       <c r="M17" t="s">
         <v>11</v>
@@ -1657,7 +1753,7 @@
         <v>1</v>
       </c>
       <c r="T17">
-        <v>12383.672293526786</v>
+        <v>12914.500000000002</v>
       </c>
       <c r="U17" t="b">
         <v>1</v>
@@ -1666,13 +1762,13 @@
         <v>3</v>
       </c>
       <c r="W17">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="X17">
         <v>1</v>
       </c>
       <c r="Y17">
-        <v>83.949554443359375</v>
+        <v>84.104240417480469</v>
       </c>
       <c r="Z17" t="s">
         <v>11</v>
@@ -1684,21 +1780,24 @@
         <v>11</v>
       </c>
       <c r="AC17" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="AD17" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
         <v>44</v>
-      </c>
-      <c r="B18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" t="s">
-        <v>45</v>
       </c>
       <c r="D18" t="s">
         <v>25</v>
@@ -1719,13 +1818,13 @@
         <v>11</v>
       </c>
       <c r="J18">
-        <v>16.350698471069336</v>
+        <v>15.866546630859375</v>
       </c>
       <c r="K18">
-        <v>16.418178558349609</v>
+        <v>15.936821937561035</v>
       </c>
       <c r="L18">
-        <v>9.543125331401825E-2</v>
+        <v>6.3647903501987457E-2</v>
       </c>
       <c r="M18" t="s">
         <v>11</v>
@@ -1749,7 +1848,7 @@
         <v>1</v>
       </c>
       <c r="T18">
-        <v>12383.672293526786</v>
+        <v>12914.500000000002</v>
       </c>
       <c r="U18" t="b">
         <v>1</v>
@@ -1764,7 +1863,7 @@
         <v>1</v>
       </c>
       <c r="Y18">
-        <v>84.0986328125</v>
+        <v>84.104240417480469</v>
       </c>
       <c r="Z18" t="s">
         <v>11</v>
@@ -1776,21 +1875,24 @@
         <v>11</v>
       </c>
       <c r="AC18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD18" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
@@ -1811,13 +1913,13 @@
         <v>11</v>
       </c>
       <c r="J19">
-        <v>16.485658645629883</v>
+        <v>15.990589141845703</v>
       </c>
       <c r="K19">
-        <v>16.418178558349609</v>
+        <v>15.936821937561035</v>
       </c>
       <c r="L19">
-        <v>9.543125331401825E-2</v>
+        <v>6.3647903501987457E-2</v>
       </c>
       <c r="M19" t="s">
         <v>11</v>
@@ -1841,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="T19">
-        <v>12383.672293526786</v>
+        <v>12914.500000000002</v>
       </c>
       <c r="U19" t="b">
         <v>1</v>
@@ -1850,13 +1952,13 @@
         <v>3</v>
       </c>
       <c r="W19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X19">
         <v>1</v>
       </c>
       <c r="Y19">
-        <v>84.108123779296875</v>
+        <v>84.101310729980469</v>
       </c>
       <c r="Z19" t="s">
         <v>11</v>
@@ -1868,21 +1970,24 @@
         <v>11</v>
       </c>
       <c r="AC19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD19" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
@@ -1903,13 +2008,13 @@
         <v>11</v>
       </c>
       <c r="J20">
-        <v>17.207212448120117</v>
+        <v>15.721805572509766</v>
       </c>
       <c r="K20">
-        <v>17.949771881103516</v>
+        <v>15.893817901611328</v>
       </c>
       <c r="L20">
-        <v>1.0501376390457153</v>
+        <v>0.14915147423744202</v>
       </c>
       <c r="M20" t="s">
         <v>11</v>
@@ -1933,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="T20">
-        <v>12383.672293526786</v>
+        <v>12914.500000000002</v>
       </c>
       <c r="U20" t="b">
         <v>1</v>
@@ -1948,7 +2053,7 @@
         <v>1</v>
       </c>
       <c r="Y20">
-        <v>84.254470825195312</v>
+        <v>84.101310729980469</v>
       </c>
       <c r="Z20" t="s">
         <v>11</v>
@@ -1960,21 +2065,24 @@
         <v>11</v>
       </c>
       <c r="AC20" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="AD20" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
         <v>25</v>
@@ -1995,13 +2103,13 @@
         <v>11</v>
       </c>
       <c r="J21">
-        <v>18.692331314086914</v>
+        <v>15.987238883972168</v>
       </c>
       <c r="K21">
-        <v>17.949771881103516</v>
+        <v>15.893817901611328</v>
       </c>
       <c r="L21">
-        <v>1.0501376390457153</v>
+        <v>0.14915147423744202</v>
       </c>
       <c r="M21" t="s">
         <v>11</v>
@@ -2025,7 +2133,7 @@
         <v>1</v>
       </c>
       <c r="T21">
-        <v>12383.672293526786</v>
+        <v>12914.500000000002</v>
       </c>
       <c r="U21" t="b">
         <v>1</v>
@@ -2034,16 +2142,16 @@
         <v>3</v>
       </c>
       <c r="W21">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="X21">
         <v>1</v>
       </c>
       <c r="Y21">
-        <v>84.105430603027344</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>11</v>
+        <v>84.26446533203125</v>
+      </c>
+      <c r="Z21">
+        <v>65.040367126464844</v>
       </c>
       <c r="AA21" t="s">
         <v>11</v>
@@ -2052,21 +2160,24 @@
         <v>11</v>
       </c>
       <c r="AC21" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="AD21" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
@@ -2087,13 +2198,13 @@
         <v>11</v>
       </c>
       <c r="J22">
-        <v>13.974916458129883</v>
+        <v>15.972409248352051</v>
       </c>
       <c r="K22">
-        <v>13.939659118652344</v>
+        <v>15.893817901611328</v>
       </c>
       <c r="L22">
-        <v>4.9862083047628403E-2</v>
+        <v>0.14915147423744202</v>
       </c>
       <c r="M22" t="s">
         <v>11</v>
@@ -2117,7 +2228,7 @@
         <v>1</v>
       </c>
       <c r="T22">
-        <v>12383.672293526786</v>
+        <v>12914.500000000002</v>
       </c>
       <c r="U22" t="b">
         <v>1</v>
@@ -2126,16 +2237,16 @@
         <v>3</v>
       </c>
       <c r="W22">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X22">
         <v>1</v>
       </c>
       <c r="Y22">
-        <v>83.950981140136719</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>11</v>
+        <v>84.115447998046875</v>
+      </c>
+      <c r="Z22">
+        <v>65.18939208984375</v>
       </c>
       <c r="AA22" t="s">
         <v>11</v>
@@ -2144,21 +2255,24 @@
         <v>11</v>
       </c>
       <c r="AC22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD22" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
         <v>25</v>
@@ -2179,13 +2293,13 @@
         <v>11</v>
       </c>
       <c r="J23">
-        <v>13.904400825500488</v>
+        <v>15.94905948638916</v>
       </c>
       <c r="K23">
-        <v>13.939659118652344</v>
+        <v>15.907218933105469</v>
       </c>
       <c r="L23">
-        <v>4.9862083047628403E-2</v>
+        <v>5.9171479195356369E-2</v>
       </c>
       <c r="M23" t="s">
         <v>11</v>
@@ -2209,7 +2323,7 @@
         <v>1</v>
       </c>
       <c r="T23">
-        <v>12383.672293526786</v>
+        <v>12914.500000000002</v>
       </c>
       <c r="U23" t="b">
         <v>1</v>
@@ -2218,13 +2332,13 @@
         <v>3</v>
       </c>
       <c r="W23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X23">
         <v>1</v>
       </c>
       <c r="Y23">
-        <v>83.360618591308594</v>
+        <v>84.258941650390625</v>
       </c>
       <c r="Z23" t="s">
         <v>11</v>
@@ -2236,21 +2350,24 @@
         <v>11</v>
       </c>
       <c r="AC23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD23" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
         <v>25</v>
@@ -2261,32 +2378,32 @@
       <c r="F24" t="s">
         <v>27</v>
       </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>0.43535465002059937</v>
-      </c>
-      <c r="I24">
-        <v>2.2969779968261719</v>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" t="s">
+        <v>11</v>
       </c>
       <c r="J24">
-        <v>29.251821517944336</v>
+        <v>15.865378379821777</v>
       </c>
       <c r="K24">
-        <v>28.868949890136719</v>
+        <v>15.907218933105469</v>
       </c>
       <c r="L24">
-        <v>0.54146087169647217</v>
+        <v>5.9171479195356369E-2</v>
       </c>
       <c r="M24" t="s">
         <v>11</v>
       </c>
-      <c r="N24">
-        <v>12.683971405029297</v>
-      </c>
-      <c r="O24">
-        <v>1.1997369527816772</v>
+      <c r="N24" t="s">
+        <v>11</v>
+      </c>
+      <c r="O24" t="s">
+        <v>11</v>
       </c>
       <c r="P24" t="s">
         <v>11</v>
@@ -2294,14 +2411,14 @@
       <c r="Q24" t="s">
         <v>11</v>
       </c>
-      <c r="R24">
-        <v>0</v>
+      <c r="R24" t="s">
+        <v>11</v>
       </c>
       <c r="S24" t="b">
         <v>1</v>
       </c>
       <c r="T24">
-        <v>14820.58431332237</v>
+        <v>12914.500000000002</v>
       </c>
       <c r="U24" t="b">
         <v>1</v>
@@ -2310,13 +2427,13 @@
         <v>3</v>
       </c>
       <c r="W24">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="X24">
         <v>1</v>
       </c>
       <c r="Y24">
-        <v>88.275535583496094</v>
+        <v>84.109939575195312</v>
       </c>
       <c r="Z24" t="s">
         <v>11</v>
@@ -2328,21 +2445,24 @@
         <v>11</v>
       </c>
       <c r="AC24" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="AD24" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
         <v>25</v>
@@ -2353,32 +2473,32 @@
       <c r="F25" t="s">
         <v>27</v>
       </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>0.43535465002059937</v>
-      </c>
-      <c r="I25">
-        <v>2.2969779968261719</v>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" t="s">
+        <v>11</v>
       </c>
       <c r="J25">
-        <v>28.486080169677734</v>
+        <v>15.964799880981445</v>
       </c>
       <c r="K25">
-        <v>28.868949890136719</v>
+        <v>16.01862907409668</v>
       </c>
       <c r="L25">
-        <v>0.54146087169647217</v>
+        <v>4.6620830893516541E-2</v>
       </c>
       <c r="M25" t="s">
         <v>11</v>
       </c>
-      <c r="N25">
-        <v>12.683971405029297</v>
-      </c>
-      <c r="O25">
-        <v>1.1997369527816772</v>
+      <c r="N25" t="s">
+        <v>11</v>
+      </c>
+      <c r="O25" t="s">
+        <v>11</v>
       </c>
       <c r="P25" t="s">
         <v>11</v>
@@ -2386,14 +2506,14 @@
       <c r="Q25" t="s">
         <v>11</v>
       </c>
-      <c r="R25">
-        <v>0</v>
+      <c r="R25" t="s">
+        <v>11</v>
       </c>
       <c r="S25" t="b">
         <v>1</v>
       </c>
       <c r="T25">
-        <v>14820.58431332237</v>
+        <v>12914.500000000002</v>
       </c>
       <c r="U25" t="b">
         <v>1</v>
@@ -2402,13 +2522,13 @@
         <v>3</v>
       </c>
       <c r="W25">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="X25">
         <v>1</v>
       </c>
       <c r="Y25">
-        <v>88.123725891113281</v>
+        <v>83.959632873535156</v>
       </c>
       <c r="Z25" t="s">
         <v>11</v>
@@ -2420,21 +2540,24 @@
         <v>11</v>
       </c>
       <c r="AC25" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="AD25" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
         <v>25</v>
@@ -2445,32 +2568,32 @@
       <c r="F26" t="s">
         <v>27</v>
       </c>
-      <c r="G26">
-        <v>0.86026400327682495</v>
-      </c>
-      <c r="H26">
-        <v>0.48525074124336243</v>
-      </c>
-      <c r="I26">
-        <v>1.5250964164733887</v>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" t="s">
+        <v>11</v>
       </c>
       <c r="J26">
-        <v>22.925813674926758</v>
+        <v>16.044895172119141</v>
       </c>
       <c r="K26">
-        <v>23.484457015991211</v>
+        <v>16.01862907409668</v>
       </c>
       <c r="L26">
-        <v>0.62287837266921997</v>
+        <v>4.6620830893516541E-2</v>
       </c>
       <c r="M26" t="s">
         <v>11</v>
       </c>
-      <c r="N26">
-        <v>7.9173192977905273</v>
-      </c>
-      <c r="O26">
-        <v>0.82604902982711792</v>
+      <c r="N26" t="s">
+        <v>11</v>
+      </c>
+      <c r="O26" t="s">
+        <v>11</v>
       </c>
       <c r="P26" t="s">
         <v>11</v>
@@ -2478,14 +2601,14 @@
       <c r="Q26" t="s">
         <v>11</v>
       </c>
-      <c r="R26">
-        <v>0.21714861690998077</v>
+      <c r="R26" t="s">
+        <v>11</v>
       </c>
       <c r="S26" t="b">
         <v>1</v>
       </c>
       <c r="T26">
-        <v>1531.834488105435</v>
+        <v>12914.500000000002</v>
       </c>
       <c r="U26" t="b">
         <v>1</v>
@@ -2494,13 +2617,13 @@
         <v>3</v>
       </c>
       <c r="W26">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="X26">
         <v>1</v>
       </c>
       <c r="Y26">
-        <v>87.364326477050781</v>
+        <v>83.811386108398438</v>
       </c>
       <c r="Z26" t="s">
         <v>11</v>
@@ -2512,24 +2635,24 @@
         <v>11</v>
       </c>
       <c r="AC26" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="AD26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
         <v>25</v>
@@ -2540,32 +2663,32 @@
       <c r="F27" t="s">
         <v>27</v>
       </c>
-      <c r="G27">
-        <v>0.86026400327682495</v>
-      </c>
-      <c r="H27">
-        <v>0.48525074124336243</v>
-      </c>
-      <c r="I27">
-        <v>1.5250964164733887</v>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" t="s">
+        <v>11</v>
       </c>
       <c r="J27">
-        <v>24.156099319458008</v>
+        <v>16.046188354492188</v>
       </c>
       <c r="K27">
-        <v>23.484457015991211</v>
+        <v>16.01862907409668</v>
       </c>
       <c r="L27">
-        <v>0.62287837266921997</v>
+        <v>4.6620830893516541E-2</v>
       </c>
       <c r="M27" t="s">
         <v>11</v>
       </c>
-      <c r="N27">
-        <v>7.9173192977905273</v>
-      </c>
-      <c r="O27">
-        <v>0.82604902982711792</v>
+      <c r="N27" t="s">
+        <v>11</v>
+      </c>
+      <c r="O27" t="s">
+        <v>11</v>
       </c>
       <c r="P27" t="s">
         <v>11</v>
@@ -2573,14 +2696,14 @@
       <c r="Q27" t="s">
         <v>11</v>
       </c>
-      <c r="R27">
-        <v>0.21714861690998077</v>
+      <c r="R27" t="s">
+        <v>11</v>
       </c>
       <c r="S27" t="b">
         <v>1</v>
       </c>
       <c r="T27">
-        <v>1531.834488105435</v>
+        <v>12914.500000000002</v>
       </c>
       <c r="U27" t="b">
         <v>1</v>
@@ -2589,16 +2712,16 @@
         <v>3</v>
       </c>
       <c r="W27">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="X27">
         <v>1</v>
       </c>
       <c r="Y27">
-        <v>87.377494812011719</v>
-      </c>
-      <c r="Z27">
-        <v>64.397651672363281</v>
+        <v>83.811386108398438</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>11</v>
       </c>
       <c r="AA27" t="s">
         <v>11</v>
@@ -2607,21 +2730,21 @@
         <v>11</v>
       </c>
       <c r="AC27" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="AD27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE27" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
         <v>24</v>
@@ -2636,31 +2759,31 @@
         <v>27</v>
       </c>
       <c r="G28">
-        <v>0.86026400327682495</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>0.48525074124336243</v>
+        <v>0.87006515264511108</v>
       </c>
       <c r="I28">
-        <v>1.5250964164733887</v>
+        <v>1.1493391990661621</v>
       </c>
       <c r="J28">
-        <v>23.371456146240234</v>
+        <v>32.913822174072266</v>
       </c>
       <c r="K28">
-        <v>23.484457015991211</v>
+        <v>32.802978515625</v>
       </c>
       <c r="L28">
-        <v>0.62287837266921997</v>
+        <v>0.15675391256809235</v>
       </c>
       <c r="M28" t="s">
         <v>11</v>
       </c>
       <c r="N28">
-        <v>7.9173192977905273</v>
+        <v>16.858209609985352</v>
       </c>
       <c r="O28">
-        <v>0.82604902982711792</v>
+        <v>0.20080466568470001</v>
       </c>
       <c r="P28" t="s">
         <v>11</v>
@@ -2669,13 +2792,13 @@
         <v>11</v>
       </c>
       <c r="R28">
-        <v>0.21714861690998077</v>
+        <v>0</v>
       </c>
       <c r="S28" t="b">
         <v>1</v>
       </c>
       <c r="T28">
-        <v>1531.834488105435</v>
+        <v>12599.466210165512</v>
       </c>
       <c r="U28" t="b">
         <v>1</v>
@@ -2684,13 +2807,13 @@
         <v>3</v>
       </c>
       <c r="W28">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="X28">
         <v>1</v>
       </c>
       <c r="Y28">
-        <v>87.526710510253906</v>
+        <v>88.574508666992188</v>
       </c>
       <c r="Z28" t="s">
         <v>11</v>
@@ -2702,21 +2825,21 @@
         <v>11</v>
       </c>
       <c r="AC28" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="AD28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
         <v>24</v>
@@ -2731,31 +2854,31 @@
         <v>27</v>
       </c>
       <c r="G29">
-        <v>0.97138786315917969</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>0.93725001811981201</v>
+        <v>0.87006515264511108</v>
       </c>
       <c r="I29">
-        <v>1.0067691802978516</v>
+        <v>1.1493391990661621</v>
       </c>
       <c r="J29">
-        <v>24.252803802490234</v>
+        <v>32.692138671875</v>
       </c>
       <c r="K29">
-        <v>24.260753631591797</v>
+        <v>32.802978515625</v>
       </c>
       <c r="L29">
-        <v>1.124410517513752E-2</v>
+        <v>0.15675391256809235</v>
       </c>
       <c r="M29" t="s">
         <v>11</v>
       </c>
       <c r="N29">
-        <v>7.7420511245727539</v>
+        <v>16.858209609985352</v>
       </c>
       <c r="O29">
-        <v>5.1613572984933853E-2</v>
+        <v>0.20080466568470001</v>
       </c>
       <c r="P29" t="s">
         <v>11</v>
@@ -2764,13 +2887,13 @@
         <v>11</v>
       </c>
       <c r="R29">
-        <v>4.1880607604980469E-2</v>
+        <v>0</v>
       </c>
       <c r="S29" t="b">
         <v>1</v>
       </c>
       <c r="T29">
-        <v>1531.834488105435</v>
+        <v>12599.466210165512</v>
       </c>
       <c r="U29" t="b">
         <v>1</v>
@@ -2779,16 +2902,16 @@
         <v>3</v>
       </c>
       <c r="W29">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="X29">
         <v>1</v>
       </c>
       <c r="Y29">
-        <v>87.519096374511719</v>
+        <v>88.571800231933594</v>
       </c>
       <c r="Z29">
-        <v>63.797256469726562</v>
+        <v>82.462127685546875</v>
       </c>
       <c r="AA29" t="s">
         <v>11</v>
@@ -2797,24 +2920,24 @@
         <v>11</v>
       </c>
       <c r="AC29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
         <v>25</v>
@@ -2825,32 +2948,32 @@
       <c r="F30" t="s">
         <v>27</v>
       </c>
-      <c r="G30">
-        <v>0.97138786315917969</v>
-      </c>
-      <c r="H30">
-        <v>0.93725001811981201</v>
-      </c>
-      <c r="I30">
-        <v>1.0067691802978516</v>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" t="s">
+        <v>11</v>
       </c>
       <c r="J30">
-        <v>24.268705368041992</v>
+        <v>16.079198837280273</v>
       </c>
       <c r="K30">
-        <v>24.260753631591797</v>
+        <v>15.944770812988281</v>
       </c>
       <c r="L30">
-        <v>1.124410517513752E-2</v>
+        <v>0.12550188601016998</v>
       </c>
       <c r="M30" t="s">
         <v>11</v>
       </c>
-      <c r="N30">
-        <v>7.7420511245727539</v>
-      </c>
-      <c r="O30">
-        <v>5.1613572984933853E-2</v>
+      <c r="N30" t="s">
+        <v>11</v>
+      </c>
+      <c r="O30" t="s">
+        <v>11</v>
       </c>
       <c r="P30" t="s">
         <v>11</v>
@@ -2858,14 +2981,14 @@
       <c r="Q30" t="s">
         <v>11</v>
       </c>
-      <c r="R30">
-        <v>4.1880607604980469E-2</v>
+      <c r="R30" t="s">
+        <v>11</v>
       </c>
       <c r="S30" t="b">
         <v>1</v>
       </c>
       <c r="T30">
-        <v>1531.834488105435</v>
+        <v>12914.500000000002</v>
       </c>
       <c r="U30" t="b">
         <v>1</v>
@@ -2874,42 +2997,42 @@
         <v>3</v>
       </c>
       <c r="W30">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="X30">
         <v>1</v>
       </c>
       <c r="Y30">
-        <v>87.369903564453125</v>
-      </c>
-      <c r="Z30">
-        <v>84.087638854980469</v>
-      </c>
-      <c r="AA30">
-        <v>72.898086547851562</v>
+        <v>84.104240417480469</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>11</v>
       </c>
       <c r="AB30" t="s">
         <v>11</v>
       </c>
       <c r="AC30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE30" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D31" t="s">
         <v>25</v>
@@ -2920,32 +3043,32 @@
       <c r="F31" t="s">
         <v>27</v>
       </c>
-      <c r="G31">
-        <v>0.81551855802536011</v>
-      </c>
-      <c r="H31">
-        <v>0.70195364952087402</v>
-      </c>
-      <c r="I31">
-        <v>0.94745635986328125</v>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" t="s">
+        <v>11</v>
       </c>
       <c r="J31">
-        <v>24.3365478515625</v>
+        <v>15.924433708190918</v>
       </c>
       <c r="K31">
-        <v>24.270534515380859</v>
+        <v>15.944770812988281</v>
       </c>
       <c r="L31">
-        <v>9.335695207118988E-2</v>
+        <v>0.12550188601016998</v>
       </c>
       <c r="M31" t="s">
         <v>11</v>
       </c>
-      <c r="N31">
-        <v>7.9943809509277344</v>
-      </c>
-      <c r="O31">
-        <v>0.21634183824062347</v>
+      <c r="N31" t="s">
+        <v>11</v>
+      </c>
+      <c r="O31" t="s">
+        <v>11</v>
       </c>
       <c r="P31" t="s">
         <v>11</v>
@@ -2953,14 +3076,14 @@
       <c r="Q31" t="s">
         <v>11</v>
       </c>
-      <c r="R31">
-        <v>0.29421043395996094</v>
+      <c r="R31" t="s">
+        <v>11</v>
       </c>
       <c r="S31" t="b">
         <v>1</v>
       </c>
       <c r="T31">
-        <v>1531.834488105435</v>
+        <v>12914.500000000002</v>
       </c>
       <c r="U31" t="b">
         <v>1</v>
@@ -2969,16 +3092,16 @@
         <v>3</v>
       </c>
       <c r="W31">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="X31">
         <v>1</v>
       </c>
       <c r="Y31">
-        <v>87.37188720703125</v>
-      </c>
-      <c r="Z31">
-        <v>74.539657592773438</v>
+        <v>84.104240417480469</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>11</v>
       </c>
       <c r="AA31" t="s">
         <v>11</v>
@@ -2987,24 +3110,24 @@
         <v>11</v>
       </c>
       <c r="AC31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE31" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D32" t="s">
         <v>25</v>
@@ -3015,32 +3138,32 @@
       <c r="F32" t="s">
         <v>27</v>
       </c>
-      <c r="G32">
-        <v>0.81551855802536011</v>
-      </c>
-      <c r="H32">
-        <v>0.70195364952087402</v>
-      </c>
-      <c r="I32">
-        <v>0.94745635986328125</v>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" t="s">
+        <v>11</v>
       </c>
       <c r="J32">
-        <v>24.204521179199219</v>
+        <v>15.830678939819336</v>
       </c>
       <c r="K32">
-        <v>24.270534515380859</v>
+        <v>15.944770812988281</v>
       </c>
       <c r="L32">
-        <v>9.335695207118988E-2</v>
+        <v>0.12550188601016998</v>
       </c>
       <c r="M32" t="s">
         <v>11</v>
       </c>
-      <c r="N32">
-        <v>7.9943809509277344</v>
-      </c>
-      <c r="O32">
-        <v>0.21634183824062347</v>
+      <c r="N32" t="s">
+        <v>11</v>
+      </c>
+      <c r="O32" t="s">
+        <v>11</v>
       </c>
       <c r="P32" t="s">
         <v>11</v>
@@ -3048,14 +3171,14 @@
       <c r="Q32" t="s">
         <v>11</v>
       </c>
-      <c r="R32">
-        <v>0.29421043395996094</v>
+      <c r="R32" t="s">
+        <v>11</v>
       </c>
       <c r="S32" t="b">
         <v>1</v>
       </c>
       <c r="T32">
-        <v>1531.834488105435</v>
+        <v>12914.500000000002</v>
       </c>
       <c r="U32" t="b">
         <v>1</v>
@@ -3064,16 +3187,16 @@
         <v>3</v>
       </c>
       <c r="W32">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="X32">
         <v>1</v>
       </c>
       <c r="Y32">
-        <v>87.073745727539062</v>
-      </c>
-      <c r="Z32">
-        <v>75.588020324707031</v>
+        <v>84.101310729980469</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>11</v>
       </c>
       <c r="AA32" t="s">
         <v>11</v>
@@ -3082,24 +3205,24 @@
         <v>11</v>
       </c>
       <c r="AC32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE32" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B33" t="s">
         <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D33" t="s">
         <v>25</v>
@@ -3110,32 +3233,32 @@
       <c r="F33" t="s">
         <v>27</v>
       </c>
-      <c r="G33" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" t="s">
-        <v>11</v>
-      </c>
-      <c r="I33" t="s">
-        <v>11</v>
+      <c r="G33">
+        <v>1.2737630605697632</v>
+      </c>
+      <c r="H33">
+        <v>1.1680855751037598</v>
+      </c>
+      <c r="I33">
+        <v>1.3890011310577393</v>
       </c>
       <c r="J33">
-        <v>15.950790405273438</v>
+        <v>31.195274353027344</v>
       </c>
       <c r="K33">
-        <v>15.567136764526367</v>
+        <v>31.116565704345703</v>
       </c>
       <c r="L33">
-        <v>0.54256749153137207</v>
+        <v>0.11130949109792709</v>
       </c>
       <c r="M33" t="s">
         <v>11</v>
       </c>
-      <c r="N33" t="s">
-        <v>11</v>
-      </c>
-      <c r="O33" t="s">
-        <v>11</v>
+      <c r="N33">
+        <v>15.035505294799805</v>
+      </c>
+      <c r="O33">
+        <v>0.12495089322328568</v>
       </c>
       <c r="P33" t="s">
         <v>11</v>
@@ -3143,14 +3266,14 @@
       <c r="Q33" t="s">
         <v>11</v>
       </c>
-      <c r="R33" t="s">
-        <v>11</v>
+      <c r="R33">
+        <v>-0.34909692406654358</v>
       </c>
       <c r="S33" t="b">
         <v>1</v>
       </c>
       <c r="T33">
-        <v>7376.4347242254271</v>
+        <v>12599.466210165512</v>
       </c>
       <c r="U33" t="b">
         <v>1</v>
@@ -3159,42 +3282,42 @@
         <v>3</v>
       </c>
       <c r="W33">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="X33">
         <v>1</v>
       </c>
       <c r="Y33">
-        <v>83.932327270507812</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>11</v>
+        <v>87.975738525390625</v>
+      </c>
+      <c r="Z33">
+        <v>66.070335388183594</v>
+      </c>
+      <c r="AA33">
+        <v>83.952293395996094</v>
       </c>
       <c r="AB33" t="s">
         <v>11</v>
       </c>
       <c r="AC33" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="AD33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE33" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
         <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D34" t="s">
         <v>25</v>
@@ -3205,32 +3328,32 @@
       <c r="F34" t="s">
         <v>27</v>
       </c>
-      <c r="G34" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" t="s">
-        <v>11</v>
-      </c>
-      <c r="I34" t="s">
-        <v>11</v>
+      <c r="G34">
+        <v>1.2737630605697632</v>
+      </c>
+      <c r="H34">
+        <v>1.1680855751037598</v>
+      </c>
+      <c r="I34">
+        <v>1.3890011310577393</v>
       </c>
       <c r="J34">
-        <v>15.183484077453613</v>
+        <v>31.037858963012695</v>
       </c>
       <c r="K34">
-        <v>15.567136764526367</v>
+        <v>31.116565704345703</v>
       </c>
       <c r="L34">
-        <v>0.54256749153137207</v>
+        <v>0.11130949109792709</v>
       </c>
       <c r="M34" t="s">
         <v>11</v>
       </c>
-      <c r="N34" t="s">
-        <v>11</v>
-      </c>
-      <c r="O34" t="s">
-        <v>11</v>
+      <c r="N34">
+        <v>15.035505294799805</v>
+      </c>
+      <c r="O34">
+        <v>0.12495089322328568</v>
       </c>
       <c r="P34" t="s">
         <v>11</v>
@@ -3238,14 +3361,14 @@
       <c r="Q34" t="s">
         <v>11</v>
       </c>
-      <c r="R34" t="s">
-        <v>11</v>
+      <c r="R34">
+        <v>-0.34909692406654358</v>
       </c>
       <c r="S34" t="b">
         <v>1</v>
       </c>
       <c r="T34">
-        <v>7376.4347242254271</v>
+        <v>12599.466210165512</v>
       </c>
       <c r="U34" t="b">
         <v>1</v>
@@ -3254,42 +3377,42 @@
         <v>3</v>
       </c>
       <c r="W34">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="X34">
         <v>1</v>
       </c>
       <c r="Y34">
-        <v>84.094657897949219</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>11</v>
+        <v>87.841049194335938</v>
+      </c>
+      <c r="Z34">
+        <v>83.966415405273438</v>
+      </c>
+      <c r="AA34">
+        <v>68.318893432617188</v>
       </c>
       <c r="AB34" t="s">
         <v>11</v>
       </c>
       <c r="AC34" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="AD34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D35" t="s">
         <v>25</v>
@@ -3300,32 +3423,32 @@
       <c r="F35" t="s">
         <v>27</v>
       </c>
-      <c r="G35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" t="s">
-        <v>11</v>
-      </c>
-      <c r="I35" t="s">
-        <v>11</v>
+      <c r="G35">
+        <v>1.0880647897720337</v>
+      </c>
+      <c r="H35">
+        <v>0.95171463489532471</v>
+      </c>
+      <c r="I35">
+        <v>1.2439495325088501</v>
       </c>
       <c r="J35">
-        <v>16.483083724975586</v>
+        <v>31.426584243774414</v>
       </c>
       <c r="K35">
-        <v>16.518703460693359</v>
+        <v>31.33489990234375</v>
       </c>
       <c r="L35">
-        <v>5.037391185760498E-2</v>
+        <v>0.18934561312198639</v>
       </c>
       <c r="M35" t="s">
         <v>11</v>
       </c>
-      <c r="N35" t="s">
-        <v>11</v>
-      </c>
-      <c r="O35" t="s">
-        <v>11</v>
+      <c r="N35">
+        <v>15.262837409973145</v>
+      </c>
+      <c r="O35">
+        <v>0.19316349923610687</v>
       </c>
       <c r="P35" t="s">
         <v>11</v>
@@ -3333,14 +3456,14 @@
       <c r="Q35" t="s">
         <v>11</v>
       </c>
-      <c r="R35" t="s">
-        <v>11</v>
+      <c r="R35">
+        <v>-0.12176450341939926</v>
       </c>
       <c r="S35" t="b">
         <v>1</v>
       </c>
       <c r="T35">
-        <v>7376.4347242254271</v>
+        <v>12599.466210165512</v>
       </c>
       <c r="U35" t="b">
         <v>1</v>
@@ -3349,42 +3472,42 @@
         <v>3</v>
       </c>
       <c r="W35">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="X35">
         <v>1</v>
       </c>
       <c r="Y35">
-        <v>83.938446044921875</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>11</v>
+        <v>87.387954711914062</v>
+      </c>
+      <c r="Z35">
+        <v>83.9609375</v>
+      </c>
+      <c r="AA35">
+        <v>67.570846557617188</v>
       </c>
       <c r="AB35" t="s">
         <v>11</v>
       </c>
       <c r="AC35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D36" t="s">
         <v>25</v>
@@ -3395,32 +3518,32 @@
       <c r="F36" t="s">
         <v>27</v>
       </c>
-      <c r="G36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" t="s">
-        <v>11</v>
-      </c>
-      <c r="I36" t="s">
-        <v>11</v>
+      <c r="G36">
+        <v>1.0880647897720337</v>
+      </c>
+      <c r="H36">
+        <v>0.95171463489532471</v>
+      </c>
+      <c r="I36">
+        <v>1.2439495325088501</v>
       </c>
       <c r="J36">
-        <v>16.554323196411133</v>
+        <v>31.117164611816406</v>
       </c>
       <c r="K36">
-        <v>16.518703460693359</v>
+        <v>31.33489990234375</v>
       </c>
       <c r="L36">
-        <v>5.037391185760498E-2</v>
+        <v>0.18934561312198639</v>
       </c>
       <c r="M36" t="s">
         <v>11</v>
       </c>
-      <c r="N36" t="s">
-        <v>11</v>
-      </c>
-      <c r="O36" t="s">
-        <v>11</v>
+      <c r="N36">
+        <v>15.262837409973145</v>
+      </c>
+      <c r="O36">
+        <v>0.19316349923610687</v>
       </c>
       <c r="P36" t="s">
         <v>11</v>
@@ -3428,14 +3551,14 @@
       <c r="Q36" t="s">
         <v>11</v>
       </c>
-      <c r="R36" t="s">
-        <v>11</v>
+      <c r="R36">
+        <v>-0.12176450341939926</v>
       </c>
       <c r="S36" t="b">
         <v>1</v>
       </c>
       <c r="T36">
-        <v>7376.4347242254271</v>
+        <v>12599.466210165512</v>
       </c>
       <c r="U36" t="b">
         <v>1</v>
@@ -3444,42 +3567,42 @@
         <v>3</v>
       </c>
       <c r="W36">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="X36">
         <v>1</v>
       </c>
       <c r="Y36">
-        <v>83.938446044921875</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>11</v>
+        <v>88.281967163085938</v>
+      </c>
+      <c r="Z36">
+        <v>66.229835510253906</v>
+      </c>
+      <c r="AA36">
+        <v>83.811935424804688</v>
       </c>
       <c r="AB36" t="s">
         <v>11</v>
       </c>
       <c r="AC36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D37" t="s">
         <v>25</v>
@@ -3490,32 +3613,32 @@
       <c r="F37" t="s">
         <v>27</v>
       </c>
-      <c r="G37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" t="s">
-        <v>11</v>
-      </c>
-      <c r="I37" t="s">
-        <v>11</v>
+      <c r="G37">
+        <v>1.0880647897720337</v>
+      </c>
+      <c r="H37">
+        <v>0.95171463489532471</v>
+      </c>
+      <c r="I37">
+        <v>1.2439495325088501</v>
       </c>
       <c r="J37">
-        <v>16.138153076171875</v>
+        <v>31.46095085144043</v>
       </c>
       <c r="K37">
-        <v>16.276153564453125</v>
+        <v>31.33489990234375</v>
       </c>
       <c r="L37">
-        <v>0.19516216218471527</v>
+        <v>0.18934561312198639</v>
       </c>
       <c r="M37" t="s">
         <v>11</v>
       </c>
-      <c r="N37" t="s">
-        <v>11</v>
-      </c>
-      <c r="O37" t="s">
-        <v>11</v>
+      <c r="N37">
+        <v>15.262837409973145</v>
+      </c>
+      <c r="O37">
+        <v>0.19316349923610687</v>
       </c>
       <c r="P37" t="s">
         <v>11</v>
@@ -3523,14 +3646,14 @@
       <c r="Q37" t="s">
         <v>11</v>
       </c>
-      <c r="R37" t="s">
-        <v>11</v>
+      <c r="R37">
+        <v>-0.12176450341939926</v>
       </c>
       <c r="S37" t="b">
         <v>1</v>
       </c>
       <c r="T37">
-        <v>7376.4347242254271</v>
+        <v>12599.466210165512</v>
       </c>
       <c r="U37" t="b">
         <v>1</v>
@@ -3539,42 +3662,42 @@
         <v>3</v>
       </c>
       <c r="W37">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="X37">
         <v>1</v>
       </c>
       <c r="Y37">
-        <v>84.089218139648438</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>11</v>
+        <v>87.535881042480469</v>
+      </c>
+      <c r="Z37">
+        <v>66.227409362792969</v>
+      </c>
+      <c r="AA37">
+        <v>83.810623168945312</v>
       </c>
       <c r="AB37" t="s">
         <v>11</v>
       </c>
       <c r="AC37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D38" t="s">
         <v>25</v>
@@ -3585,32 +3708,32 @@
       <c r="F38" t="s">
         <v>27</v>
       </c>
-      <c r="G38" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" t="s">
-        <v>11</v>
-      </c>
-      <c r="I38" t="s">
-        <v>11</v>
+      <c r="G38">
+        <v>1.4668625593185425</v>
+      </c>
+      <c r="H38">
+        <v>1.2651810646057129</v>
+      </c>
+      <c r="I38">
+        <v>1.7006940841674805</v>
       </c>
       <c r="J38">
-        <v>16.414154052734375</v>
+        <v>31.516973495483398</v>
       </c>
       <c r="K38">
-        <v>16.276153564453125</v>
+        <v>31.484130859375</v>
       </c>
       <c r="L38">
-        <v>0.19516216218471527</v>
+        <v>0.15964703261852264</v>
       </c>
       <c r="M38" t="s">
         <v>11</v>
       </c>
-      <c r="N38" t="s">
-        <v>11</v>
-      </c>
-      <c r="O38" t="s">
-        <v>11</v>
+      <c r="N38">
+        <v>14.831868171691895</v>
+      </c>
+      <c r="O38">
+        <v>0.21338990330696106</v>
       </c>
       <c r="P38" t="s">
         <v>11</v>
@@ -3618,14 +3741,14 @@
       <c r="Q38" t="s">
         <v>11</v>
       </c>
-      <c r="R38" t="s">
-        <v>11</v>
+      <c r="R38">
+        <v>-0.55273371934890747</v>
       </c>
       <c r="S38" t="b">
         <v>1</v>
       </c>
       <c r="T38">
-        <v>7376.4347242254271</v>
+        <v>12599.466210165512</v>
       </c>
       <c r="U38" t="b">
         <v>1</v>
@@ -3634,39 +3757,39 @@
         <v>3</v>
       </c>
       <c r="W38">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="X38">
         <v>1</v>
       </c>
       <c r="Y38">
-        <v>83.6429443359375</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>11</v>
+        <v>87.98291015625</v>
+      </c>
+      <c r="Z38">
+        <v>83.810623168945312</v>
+      </c>
+      <c r="AA38">
+        <v>67.270477294921875</v>
       </c>
       <c r="AB38" t="s">
         <v>11</v>
       </c>
       <c r="AC38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C39" t="s">
         <v>24</v>
@@ -3681,31 +3804,31 @@
         <v>27</v>
       </c>
       <c r="G39">
-        <v>1.6286087036132812</v>
+        <v>1.4668625593185425</v>
       </c>
       <c r="H39">
-        <v>1.3335607051849365</v>
+        <v>1.2651810646057129</v>
       </c>
       <c r="I39">
-        <v>1.9889354705810547</v>
+        <v>1.7006940841674805</v>
       </c>
       <c r="J39">
-        <v>23.402332305908203</v>
+        <v>31.62480354309082</v>
       </c>
       <c r="K39">
-        <v>23.397832870483398</v>
+        <v>31.484130859375</v>
       </c>
       <c r="L39">
-        <v>0.27812731266021729</v>
+        <v>0.15964703261852264</v>
       </c>
       <c r="M39" t="s">
         <v>11</v>
       </c>
       <c r="N39">
-        <v>6.9965305328369141</v>
+        <v>14.831868171691895</v>
       </c>
       <c r="O39">
-        <v>0.2883564829826355</v>
+        <v>0.21338990330696106</v>
       </c>
       <c r="P39" t="s">
         <v>11</v>
@@ -3714,13 +3837,13 @@
         <v>11</v>
       </c>
       <c r="R39">
-        <v>-0.70363998413085938</v>
+        <v>-0.55273371934890747</v>
       </c>
       <c r="S39" t="b">
         <v>1</v>
       </c>
       <c r="T39">
-        <v>1531.834488105435</v>
+        <v>12599.466210165512</v>
       </c>
       <c r="U39" t="b">
         <v>1</v>
@@ -3729,39 +3852,39 @@
         <v>3</v>
       </c>
       <c r="W39">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="X39">
         <v>1</v>
       </c>
       <c r="Y39">
-        <v>87.371170043945312</v>
+        <v>87.5362548828125</v>
       </c>
       <c r="Z39">
-        <v>64.696548461914062</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>11</v>
+        <v>83.811386108398438</v>
+      </c>
+      <c r="AA39">
+        <v>66.974967956542969</v>
       </c>
       <c r="AB39" t="s">
         <v>11</v>
       </c>
       <c r="AC39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C40" t="s">
         <v>24</v>
@@ -3776,31 +3899,31 @@
         <v>27</v>
       </c>
       <c r="G40">
-        <v>1.6286087036132812</v>
+        <v>1.4668625593185425</v>
       </c>
       <c r="H40">
-        <v>1.3335607051849365</v>
+        <v>1.2651810646057129</v>
       </c>
       <c r="I40">
-        <v>1.9889354705810547</v>
+        <v>1.7006940841674805</v>
       </c>
       <c r="J40">
-        <v>23.673683166503906</v>
+        <v>31.310617446899414</v>
       </c>
       <c r="K40">
-        <v>23.397832870483398</v>
+        <v>31.484130859375</v>
       </c>
       <c r="L40">
-        <v>0.27812731266021729</v>
+        <v>0.15964703261852264</v>
       </c>
       <c r="M40" t="s">
         <v>11</v>
       </c>
       <c r="N40">
-        <v>6.9965305328369141</v>
+        <v>14.831868171691895</v>
       </c>
       <c r="O40">
-        <v>0.2883564829826355</v>
+        <v>0.21338990330696106</v>
       </c>
       <c r="P40" t="s">
         <v>11</v>
@@ -3809,13 +3932,13 @@
         <v>11</v>
       </c>
       <c r="R40">
-        <v>-0.70363998413085938</v>
+        <v>-0.55273371934890747</v>
       </c>
       <c r="S40" t="b">
         <v>1</v>
       </c>
       <c r="T40">
-        <v>1531.834488105435</v>
+        <v>12599.466210165512</v>
       </c>
       <c r="U40" t="b">
         <v>1</v>
@@ -3824,42 +3947,42 @@
         <v>3</v>
       </c>
       <c r="W40">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="X40">
         <v>1</v>
       </c>
       <c r="Y40">
-        <v>87.221992492675781</v>
+        <v>87.238265991210938</v>
       </c>
       <c r="Z40">
-        <v>64.398200988769531</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>11</v>
+        <v>83.513397216796875</v>
+      </c>
+      <c r="AA40">
+        <v>68.31591796875</v>
       </c>
       <c r="AB40" t="s">
         <v>11</v>
       </c>
       <c r="AC40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE40" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="C41" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D41" t="s">
         <v>25</v>
@@ -3870,32 +3993,32 @@
       <c r="F41" t="s">
         <v>27</v>
       </c>
-      <c r="G41">
-        <v>1.6286087036132812</v>
-      </c>
-      <c r="H41">
-        <v>1.3335607051849365</v>
-      </c>
-      <c r="I41">
-        <v>1.9889354705810547</v>
+      <c r="G41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" t="s">
+        <v>11</v>
       </c>
       <c r="J41">
-        <v>23.117483139038086</v>
+        <v>16.079198837280273</v>
       </c>
       <c r="K41">
-        <v>23.397832870483398</v>
+        <v>15.944770812988281</v>
       </c>
       <c r="L41">
-        <v>0.27812731266021729</v>
+        <v>0.12550188601016998</v>
       </c>
       <c r="M41" t="s">
         <v>11</v>
       </c>
-      <c r="N41">
-        <v>6.9965305328369141</v>
-      </c>
-      <c r="O41">
-        <v>0.2883564829826355</v>
+      <c r="N41" t="s">
+        <v>11</v>
+      </c>
+      <c r="O41" t="s">
+        <v>11</v>
       </c>
       <c r="P41" t="s">
         <v>11</v>
@@ -3903,14 +4026,14 @@
       <c r="Q41" t="s">
         <v>11</v>
       </c>
-      <c r="R41">
-        <v>-0.70363998413085938</v>
+      <c r="R41" t="s">
+        <v>11</v>
       </c>
       <c r="S41" t="b">
         <v>1</v>
       </c>
       <c r="T41">
-        <v>1531.834488105435</v>
+        <v>12914.500000000002</v>
       </c>
       <c r="U41" t="b">
         <v>1</v>
@@ -3919,16 +4042,16 @@
         <v>3</v>
       </c>
       <c r="W41">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="X41">
         <v>1</v>
       </c>
       <c r="Y41">
-        <v>87.215110778808594</v>
-      </c>
-      <c r="Z41">
-        <v>74.23321533203125</v>
+        <v>84.104240417480469</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>11</v>
       </c>
       <c r="AA41" t="s">
         <v>11</v>
@@ -3937,24 +4060,24 @@
         <v>11</v>
       </c>
       <c r="AC41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE41" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="C42" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D42" t="s">
         <v>25</v>
@@ -3965,32 +4088,32 @@
       <c r="F42" t="s">
         <v>27</v>
       </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>0.49148088693618774</v>
-      </c>
-      <c r="I42">
-        <v>0.77536988258361816</v>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" t="s">
+        <v>11</v>
       </c>
       <c r="J42">
-        <v>24.747175216674805</v>
+        <v>15.924433708190918</v>
       </c>
       <c r="K42">
-        <v>24.69261360168457</v>
+        <v>15.944770812988281</v>
       </c>
       <c r="L42">
-        <v>0.17209555208683014</v>
+        <v>0.12550188601016998</v>
       </c>
       <c r="M42" t="s">
         <v>11</v>
       </c>
-      <c r="N42">
-        <v>8.3960886001586914</v>
-      </c>
-      <c r="O42">
-        <v>0.32887473702430725</v>
+      <c r="N42" t="s">
+        <v>11</v>
+      </c>
+      <c r="O42" t="s">
+        <v>11</v>
       </c>
       <c r="P42" t="s">
         <v>11</v>
@@ -3998,14 +4121,14 @@
       <c r="Q42" t="s">
         <v>11</v>
       </c>
-      <c r="R42">
-        <v>0.69591808319091797</v>
+      <c r="R42" t="s">
+        <v>11</v>
       </c>
       <c r="S42" t="b">
         <v>1</v>
       </c>
       <c r="T42">
-        <v>1531.834488105435</v>
+        <v>12914.500000000002</v>
       </c>
       <c r="U42" t="b">
         <v>1</v>
@@ -4014,13 +4137,13 @@
         <v>3</v>
       </c>
       <c r="W42">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="X42">
         <v>1</v>
       </c>
       <c r="Y42">
-        <v>87.364326477050781</v>
+        <v>84.104240417480469</v>
       </c>
       <c r="Z42" t="s">
         <v>11</v>
@@ -4032,24 +4155,24 @@
         <v>11</v>
       </c>
       <c r="AC42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="C43" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D43" t="s">
         <v>25</v>
@@ -4060,32 +4183,32 @@
       <c r="F43" t="s">
         <v>27</v>
       </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>0.49148088693618774</v>
-      </c>
-      <c r="I43">
-        <v>0.77536988258361816</v>
+      <c r="G43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" t="s">
+        <v>11</v>
       </c>
       <c r="J43">
-        <v>24.830814361572266</v>
+        <v>15.830678939819336</v>
       </c>
       <c r="K43">
-        <v>24.69261360168457</v>
+        <v>15.944770812988281</v>
       </c>
       <c r="L43">
-        <v>0.17209555208683014</v>
+        <v>0.12550188601016998</v>
       </c>
       <c r="M43" t="s">
         <v>11</v>
       </c>
-      <c r="N43">
-        <v>8.3960886001586914</v>
-      </c>
-      <c r="O43">
-        <v>0.32887473702430725</v>
+      <c r="N43" t="s">
+        <v>11</v>
+      </c>
+      <c r="O43" t="s">
+        <v>11</v>
       </c>
       <c r="P43" t="s">
         <v>11</v>
@@ -4093,14 +4216,14 @@
       <c r="Q43" t="s">
         <v>11</v>
       </c>
-      <c r="R43">
-        <v>0.69591808319091797</v>
+      <c r="R43" t="s">
+        <v>11</v>
       </c>
       <c r="S43" t="b">
         <v>1</v>
       </c>
       <c r="T43">
-        <v>1531.834488105435</v>
+        <v>12914.500000000002</v>
       </c>
       <c r="U43" t="b">
         <v>1</v>
@@ -4109,16 +4232,16 @@
         <v>3</v>
       </c>
       <c r="W43">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="X43">
         <v>1</v>
       </c>
       <c r="Y43">
-        <v>87.526710510253906</v>
-      </c>
-      <c r="Z43">
-        <v>84.243881225585938</v>
+        <v>84.101310729980469</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>11</v>
       </c>
       <c r="AA43" t="s">
         <v>11</v>
@@ -4127,13 +4250,13 @@
         <v>11</v>
       </c>
       <c r="AC43" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD43" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE43" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.2">
@@ -4141,10 +4264,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C44" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D44" t="s">
         <v>25</v>
@@ -4155,32 +4278,32 @@
       <c r="F44" t="s">
         <v>27</v>
       </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>0.49148088693618774</v>
-      </c>
-      <c r="I44">
-        <v>0.77536988258361816</v>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" t="s">
+        <v>11</v>
       </c>
       <c r="J44">
-        <v>24.499851226806641</v>
+        <v>16.121204376220703</v>
       </c>
       <c r="K44">
-        <v>24.69261360168457</v>
+        <v>16.081062316894531</v>
       </c>
       <c r="L44">
-        <v>0.17209555208683014</v>
+        <v>5.6770794093608856E-2</v>
       </c>
       <c r="M44" t="s">
         <v>11</v>
       </c>
-      <c r="N44">
-        <v>8.3960886001586914</v>
-      </c>
-      <c r="O44">
-        <v>0.32887473702430725</v>
+      <c r="N44" t="s">
+        <v>11</v>
+      </c>
+      <c r="O44" t="s">
+        <v>11</v>
       </c>
       <c r="P44" t="s">
         <v>11</v>
@@ -4188,14 +4311,14 @@
       <c r="Q44" t="s">
         <v>11</v>
       </c>
-      <c r="R44">
-        <v>0.69591808319091797</v>
+      <c r="R44" t="s">
+        <v>11</v>
       </c>
       <c r="S44" t="b">
         <v>1</v>
       </c>
       <c r="T44">
-        <v>1531.834488105435</v>
+        <v>12914.500000000002</v>
       </c>
       <c r="U44" t="b">
         <v>1</v>
@@ -4204,16 +4327,16 @@
         <v>3</v>
       </c>
       <c r="W44">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="X44">
         <v>1</v>
       </c>
       <c r="Y44">
-        <v>87.377494812011719</v>
-      </c>
-      <c r="Z44">
-        <v>72.604736328125</v>
+        <v>83.952293395996094</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>11</v>
       </c>
       <c r="AA44" t="s">
         <v>11</v>
@@ -4222,24 +4345,24 @@
         <v>11</v>
       </c>
       <c r="AC44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE44" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D45" t="s">
         <v>25</v>
@@ -4260,13 +4383,13 @@
         <v>11</v>
       </c>
       <c r="J45">
-        <v>16.431179046630859</v>
+        <v>16.040918350219727</v>
       </c>
       <c r="K45">
-        <v>16.401302337646484</v>
+        <v>16.081062316894531</v>
       </c>
       <c r="L45">
-        <v>7.612261176109314E-2</v>
+        <v>5.6770794093608856E-2</v>
       </c>
       <c r="M45" t="s">
         <v>11</v>
@@ -4290,7 +4413,7 @@
         <v>1</v>
       </c>
       <c r="T45">
-        <v>7376.4347242254271</v>
+        <v>12914.500000000002</v>
       </c>
       <c r="U45" t="b">
         <v>1</v>
@@ -4299,13 +4422,13 @@
         <v>3</v>
       </c>
       <c r="W45">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="X45">
         <v>1</v>
       </c>
       <c r="Y45">
-        <v>83.790969848632812</v>
+        <v>84.115447998046875</v>
       </c>
       <c r="Z45" t="s">
         <v>11</v>
@@ -4317,24 +4440,24 @@
         <v>11</v>
       </c>
       <c r="AC45" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD45" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE45" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D46" t="s">
         <v>25</v>
@@ -4355,13 +4478,13 @@
         <v>11</v>
       </c>
       <c r="J46">
-        <v>16.457954406738281</v>
+        <v>16.067441940307617</v>
       </c>
       <c r="K46">
-        <v>16.401302337646484</v>
+        <v>16.072061538696289</v>
       </c>
       <c r="L46">
-        <v>7.612261176109314E-2</v>
+        <v>3.8214925676584244E-2</v>
       </c>
       <c r="M46" t="s">
         <v>11</v>
@@ -4385,7 +4508,7 @@
         <v>1</v>
       </c>
       <c r="T46">
-        <v>7376.4347242254271</v>
+        <v>12914.500000000002</v>
       </c>
       <c r="U46" t="b">
         <v>1</v>
@@ -4394,13 +4517,13 @@
         <v>3</v>
       </c>
       <c r="W46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X46">
         <v>1</v>
       </c>
       <c r="Y46">
-        <v>83.49261474609375</v>
+        <v>83.9609375</v>
       </c>
       <c r="Z46" t="s">
         <v>11</v>
@@ -4412,24 +4535,24 @@
         <v>11</v>
       </c>
       <c r="AC46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D47" t="s">
         <v>25</v>
@@ -4450,13 +4573,13 @@
         <v>11</v>
       </c>
       <c r="J47">
-        <v>16.314773559570312</v>
+        <v>16.112377166748047</v>
       </c>
       <c r="K47">
-        <v>16.401302337646484</v>
+        <v>16.072061538696289</v>
       </c>
       <c r="L47">
-        <v>7.612261176109314E-2</v>
+        <v>3.8214925676584244E-2</v>
       </c>
       <c r="M47" t="s">
         <v>11</v>
@@ -4480,7 +4603,7 @@
         <v>1</v>
       </c>
       <c r="T47">
-        <v>7376.4347242254271</v>
+        <v>12914.500000000002</v>
       </c>
       <c r="U47" t="b">
         <v>1</v>
@@ -4489,13 +4612,13 @@
         <v>3</v>
       </c>
       <c r="W47">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X47">
         <v>1</v>
       </c>
       <c r="Y47">
-        <v>83.633895874023438</v>
+        <v>83.9609375</v>
       </c>
       <c r="Z47" t="s">
         <v>11</v>
@@ -4507,24 +4630,24 @@
         <v>11</v>
       </c>
       <c r="AC47" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD47" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE47" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="B48" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D48" t="s">
         <v>25</v>
@@ -4545,13 +4668,13 @@
         <v>11</v>
       </c>
       <c r="J48">
-        <v>16.494693756103516</v>
+        <v>16.036367416381836</v>
       </c>
       <c r="K48">
-        <v>16.296524047851562</v>
+        <v>16.072061538696289</v>
       </c>
       <c r="L48">
-        <v>0.28025293350219727</v>
+        <v>3.8214925676584244E-2</v>
       </c>
       <c r="M48" t="s">
         <v>11</v>
@@ -4575,7 +4698,7 @@
         <v>1</v>
       </c>
       <c r="T48">
-        <v>7376.4347242254271</v>
+        <v>12914.500000000002</v>
       </c>
       <c r="U48" t="b">
         <v>1</v>
@@ -4584,13 +4707,13 @@
         <v>3</v>
       </c>
       <c r="W48">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="X48">
         <v>1</v>
       </c>
       <c r="Y48">
-        <v>83.932327270507812</v>
+        <v>83.810623168945312</v>
       </c>
       <c r="Z48" t="s">
         <v>11</v>
@@ -4602,24 +4725,24 @@
         <v>11</v>
       </c>
       <c r="AC48" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD48" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE48" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D49" t="s">
         <v>25</v>
@@ -4640,13 +4763,13 @@
         <v>11</v>
       </c>
       <c r="J49">
-        <v>16.098356246948242</v>
+        <v>16.527191162109375</v>
       </c>
       <c r="K49">
-        <v>16.296524047851562</v>
+        <v>16.652261734008789</v>
       </c>
       <c r="L49">
-        <v>0.28025293350219727</v>
+        <v>0.14159123599529266</v>
       </c>
       <c r="M49" t="s">
         <v>11</v>
@@ -4670,7 +4793,7 @@
         <v>1</v>
       </c>
       <c r="T49">
-        <v>7376.4347242254271</v>
+        <v>12914.500000000002</v>
       </c>
       <c r="U49" t="b">
         <v>1</v>
@@ -4679,13 +4802,13 @@
         <v>3</v>
       </c>
       <c r="W49">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X49">
         <v>1</v>
       </c>
       <c r="Y49">
-        <v>84.094657897949219</v>
+        <v>83.959632873535156</v>
       </c>
       <c r="Z49" t="s">
         <v>11</v>
@@ -4697,24 +4820,24 @@
         <v>11</v>
       </c>
       <c r="AC49" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD49" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE49" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="C50" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D50" t="s">
         <v>25</v>
@@ -4725,32 +4848,32 @@
       <c r="F50" t="s">
         <v>27</v>
       </c>
-      <c r="G50" s="1">
-        <v>6.1126840000000002E-2</v>
-      </c>
-      <c r="H50">
-        <v>9.8728612065315247E-2</v>
-      </c>
-      <c r="I50">
-        <v>0.19980980455875397</v>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" t="s">
+        <v>11</v>
       </c>
       <c r="J50">
-        <v>27.089807510375977</v>
+        <v>16.805990219116211</v>
       </c>
       <c r="K50">
-        <v>27.024147033691406</v>
+        <v>16.652261734008789</v>
       </c>
       <c r="L50">
-        <v>9.2859283089637756E-2</v>
+        <v>0.14159123599529266</v>
       </c>
       <c r="M50" t="s">
         <v>11</v>
       </c>
-      <c r="N50">
-        <v>12.428138732910156</v>
-      </c>
-      <c r="O50">
-        <v>0.50854367017745972</v>
+      <c r="N50" t="s">
+        <v>11</v>
+      </c>
+      <c r="O50" t="s">
+        <v>11</v>
       </c>
       <c r="P50" t="s">
         <v>11</v>
@@ -4758,14 +4881,14 @@
       <c r="Q50" t="s">
         <v>11</v>
       </c>
-      <c r="R50">
-        <v>2.8318443298339844</v>
+      <c r="R50" t="s">
+        <v>11</v>
       </c>
       <c r="S50" t="b">
         <v>1</v>
       </c>
       <c r="T50">
-        <v>10704.437161075366</v>
+        <v>12914.500000000002</v>
       </c>
       <c r="U50" t="b">
         <v>1</v>
@@ -4774,13 +4897,13 @@
         <v>3</v>
       </c>
       <c r="W50">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="X50">
         <v>1</v>
       </c>
       <c r="Y50">
-        <v>88.273551940917969</v>
+        <v>83.513397216796875</v>
       </c>
       <c r="Z50" t="s">
         <v>11</v>
@@ -4792,24 +4915,24 @@
         <v>11</v>
       </c>
       <c r="AC50" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD50" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE50" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="C51" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D51" t="s">
         <v>25</v>
@@ -4820,32 +4943,32 @@
       <c r="F51" t="s">
         <v>27</v>
       </c>
-      <c r="G51" s="1">
-        <v>6.1126840000000002E-2</v>
-      </c>
-      <c r="H51">
-        <v>9.8728612065315247E-2</v>
-      </c>
-      <c r="I51">
-        <v>0.19980980455875397</v>
+      <c r="G51" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" t="s">
+        <v>11</v>
       </c>
       <c r="J51">
-        <v>26.958484649658203</v>
+        <v>16.623607635498047</v>
       </c>
       <c r="K51">
-        <v>27.024147033691406</v>
+        <v>16.652261734008789</v>
       </c>
       <c r="L51">
-        <v>9.2859283089637756E-2</v>
+        <v>0.14159123599529266</v>
       </c>
       <c r="M51" t="s">
         <v>11</v>
       </c>
-      <c r="N51">
-        <v>12.428138732910156</v>
-      </c>
-      <c r="O51">
-        <v>0.50854367017745972</v>
+      <c r="N51" t="s">
+        <v>11</v>
+      </c>
+      <c r="O51" t="s">
+        <v>11</v>
       </c>
       <c r="P51" t="s">
         <v>11</v>
@@ -4853,14 +4976,14 @@
       <c r="Q51" t="s">
         <v>11</v>
       </c>
-      <c r="R51">
-        <v>2.8318443298339844</v>
+      <c r="R51" t="s">
+        <v>11</v>
       </c>
       <c r="S51" t="b">
         <v>1</v>
       </c>
       <c r="T51">
-        <v>10704.437161075366</v>
+        <v>12914.500000000002</v>
       </c>
       <c r="U51" t="b">
         <v>1</v>
@@ -4869,13 +4992,13 @@
         <v>3</v>
       </c>
       <c r="W51">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="X51">
         <v>1</v>
       </c>
       <c r="Y51">
-        <v>88.27276611328125</v>
+        <v>83.662391662597656</v>
       </c>
       <c r="Z51" t="s">
         <v>11</v>
@@ -4887,21 +5010,21 @@
         <v>11</v>
       </c>
       <c r="AC51" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD51" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE51" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="C52" t="s">
         <v>24</v>
@@ -4915,32 +5038,32 @@
       <c r="F52" t="s">
         <v>27</v>
       </c>
-      <c r="G52" s="1">
-        <v>0.34399239999999998</v>
-      </c>
-      <c r="H52">
-        <v>0.51272964477539062</v>
-      </c>
-      <c r="I52">
-        <v>1.2184427976608276</v>
-      </c>
-      <c r="J52">
-        <v>23.793241500854492</v>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J52" t="s">
+        <v>103</v>
       </c>
       <c r="K52">
-        <v>24.212955474853516</v>
+        <v>31.081966400146484</v>
       </c>
       <c r="L52">
-        <v>0.59356653690338135</v>
+        <v>1.1307493783533573E-2</v>
       </c>
       <c r="M52" t="s">
         <v>11</v>
       </c>
-      <c r="N52">
-        <v>9.9356403350830078</v>
-      </c>
-      <c r="O52">
-        <v>0.62438410520553589</v>
+      <c r="N52" t="s">
+        <v>11</v>
+      </c>
+      <c r="O52" t="s">
+        <v>11</v>
       </c>
       <c r="P52" t="s">
         <v>11</v>
@@ -4948,14 +5071,14 @@
       <c r="Q52" t="s">
         <v>11</v>
       </c>
-      <c r="R52">
-        <v>0.33934560418128967</v>
+      <c r="R52" t="s">
+        <v>11</v>
       </c>
       <c r="S52" t="b">
         <v>1</v>
       </c>
       <c r="T52">
-        <v>10704.437161075366</v>
+        <v>12599.466210165512</v>
       </c>
       <c r="U52" t="b">
         <v>1</v>
@@ -4964,13 +5087,13 @@
         <v>3</v>
       </c>
       <c r="W52">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="X52">
         <v>1</v>
       </c>
       <c r="Y52">
-        <v>89.170257568359375</v>
+        <v>66.819198608398438</v>
       </c>
       <c r="Z52" t="s">
         <v>11</v>
@@ -4982,21 +5105,21 @@
         <v>11</v>
       </c>
       <c r="AC52" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AE52" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="B53" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="C53" t="s">
         <v>24</v>
@@ -5010,32 +5133,32 @@
       <c r="F53" t="s">
         <v>27</v>
       </c>
-      <c r="G53" s="1">
-        <v>0.34399239999999998</v>
+      <c r="G53">
+        <v>1.4242525100708008</v>
       </c>
       <c r="H53">
-        <v>0.51272964477539062</v>
+        <v>1.2167834043502808</v>
       </c>
       <c r="I53">
-        <v>1.2184427976608276</v>
+        <v>1.6670963764190674</v>
       </c>
       <c r="J53">
-        <v>24.632671356201172</v>
+        <v>31.089962005615234</v>
       </c>
       <c r="K53">
-        <v>24.212955474853516</v>
+        <v>31.081966400146484</v>
       </c>
       <c r="L53">
-        <v>0.59356653690338135</v>
+        <v>1.1307493783533573E-2</v>
       </c>
       <c r="M53" t="s">
         <v>11</v>
       </c>
       <c r="N53">
-        <v>9.9356403350830078</v>
+        <v>14.874397277832031</v>
       </c>
       <c r="O53">
-        <v>0.62438410520553589</v>
+        <v>0.22713254392147064</v>
       </c>
       <c r="P53" t="s">
         <v>11</v>
@@ -5044,13 +5167,13 @@
         <v>11</v>
       </c>
       <c r="R53">
-        <v>0.33934560418128967</v>
+        <v>-0.5102049708366394</v>
       </c>
       <c r="S53" t="b">
         <v>1</v>
       </c>
       <c r="T53">
-        <v>10704.437161075366</v>
+        <v>12599.466210165512</v>
       </c>
       <c r="U53" t="b">
         <v>1</v>
@@ -5059,16 +5182,16 @@
         <v>3</v>
       </c>
       <c r="W53">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="X53">
         <v>1</v>
       </c>
       <c r="Y53">
-        <v>89.61767578125</v>
-      </c>
-      <c r="Z53" t="s">
-        <v>11</v>
+        <v>87.531448364257812</v>
+      </c>
+      <c r="Z53">
+        <v>83.806228637695312</v>
       </c>
       <c r="AA53" t="s">
         <v>11</v>
@@ -5077,21 +5200,21 @@
         <v>11</v>
       </c>
       <c r="AC53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD53" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="AE53" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="C54" t="s">
         <v>24</v>
@@ -5105,32 +5228,32 @@
       <c r="F54" t="s">
         <v>27</v>
       </c>
-      <c r="G54" s="1">
-        <v>0.50957149000000002</v>
+      <c r="G54">
+        <v>1.4242525100708008</v>
       </c>
       <c r="H54">
-        <v>1.0463771820068359</v>
+        <v>1.2167834043502808</v>
       </c>
       <c r="I54">
-        <v>1.3101404905319214</v>
+        <v>1.6670963764190674</v>
       </c>
       <c r="J54">
-        <v>24.891708374023438</v>
+        <v>31.073970794677734</v>
       </c>
       <c r="K54">
-        <v>24.990747451782227</v>
+        <v>31.081966400146484</v>
       </c>
       <c r="L54">
-        <v>9.568651020526886E-2</v>
+        <v>1.1307493783533573E-2</v>
       </c>
       <c r="M54" t="s">
         <v>11</v>
       </c>
       <c r="N54">
-        <v>9.3687324523925781</v>
+        <v>14.874397277832031</v>
       </c>
       <c r="O54">
-        <v>0.162159264087677</v>
+        <v>0.22713254392147064</v>
       </c>
       <c r="P54" t="s">
         <v>11</v>
@@ -5139,13 +5262,13 @@
         <v>11</v>
       </c>
       <c r="R54">
-        <v>-0.22756226360797882</v>
+        <v>-0.5102049708366394</v>
       </c>
       <c r="S54" t="b">
         <v>1</v>
       </c>
       <c r="T54">
-        <v>10704.437161075366</v>
+        <v>12599.466210165512</v>
       </c>
       <c r="U54" t="b">
         <v>1</v>
@@ -5154,39 +5277,39 @@
         <v>3</v>
       </c>
       <c r="W54">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="X54">
         <v>1</v>
       </c>
       <c r="Y54">
-        <v>89.620269775390625</v>
-      </c>
-      <c r="Z54" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA54" t="s">
-        <v>11</v>
+        <v>87.23065185546875</v>
+      </c>
+      <c r="Z54">
+        <v>65.772308349609375</v>
+      </c>
+      <c r="AA54">
+        <v>83.952293395996094</v>
       </c>
       <c r="AB54" t="s">
         <v>11</v>
       </c>
       <c r="AC54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE54" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="B55" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="C55" t="s">
         <v>24</v>
@@ -5200,32 +5323,32 @@
       <c r="F55" t="s">
         <v>27</v>
       </c>
-      <c r="G55" s="1">
-        <v>0.50957149000000002</v>
+      <c r="G55">
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>1.0463771820068359</v>
+        <v>0.93811064958572388</v>
       </c>
       <c r="I55">
-        <v>1.3101404905319214</v>
+        <v>1.0659723281860352</v>
       </c>
       <c r="J55">
-        <v>24.997852325439453</v>
+        <v>31.443307876586914</v>
       </c>
       <c r="K55">
-        <v>24.990747451782227</v>
+        <v>31.360971450805664</v>
       </c>
       <c r="L55">
-        <v>9.568651020526886E-2</v>
+        <v>9.1982297599315643E-2</v>
       </c>
       <c r="M55" t="s">
         <v>11</v>
       </c>
       <c r="N55">
-        <v>9.3687324523925781</v>
+        <v>15.384602546691895</v>
       </c>
       <c r="O55">
-        <v>0.162159264087677</v>
+        <v>9.2169977724552155E-2</v>
       </c>
       <c r="P55" t="s">
         <v>11</v>
@@ -5234,13 +5357,13 @@
         <v>11</v>
       </c>
       <c r="R55">
-        <v>-0.22756226360797882</v>
+        <v>0</v>
       </c>
       <c r="S55" t="b">
         <v>1</v>
       </c>
       <c r="T55">
-        <v>10704.437161075366</v>
+        <v>12599.466210165512</v>
       </c>
       <c r="U55" t="b">
         <v>1</v>
@@ -5249,39 +5372,39 @@
         <v>3</v>
       </c>
       <c r="W55">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="X55">
         <v>1</v>
       </c>
       <c r="Y55">
-        <v>89.769439697265625</v>
-      </c>
-      <c r="Z55" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA55" t="s">
-        <v>11</v>
+        <v>87.379669189453125</v>
+      </c>
+      <c r="Z55">
+        <v>83.803276062011719</v>
+      </c>
+      <c r="AA55">
+        <v>66.219352722167969</v>
       </c>
       <c r="AB55" t="s">
         <v>11</v>
       </c>
       <c r="AC55" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD55" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE55" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="B56" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="C56" t="s">
         <v>24</v>
@@ -5295,32 +5418,32 @@
       <c r="F56" t="s">
         <v>27</v>
       </c>
-      <c r="G56" s="1">
-        <v>0.50957149000000002</v>
+      <c r="G56">
+        <v>1</v>
       </c>
       <c r="H56">
-        <v>1.0463771820068359</v>
+        <v>0.93811064958572388</v>
       </c>
       <c r="I56">
-        <v>1.3101404905319214</v>
+        <v>1.0659723281860352</v>
       </c>
       <c r="J56">
-        <v>25.082685470581055</v>
+        <v>31.377910614013672</v>
       </c>
       <c r="K56">
-        <v>24.990747451782227</v>
+        <v>31.360971450805664</v>
       </c>
       <c r="L56">
-        <v>9.568651020526886E-2</v>
+        <v>9.1982297599315643E-2</v>
       </c>
       <c r="M56" t="s">
         <v>11</v>
       </c>
       <c r="N56">
-        <v>9.3687324523925781</v>
+        <v>15.384602546691895</v>
       </c>
       <c r="O56">
-        <v>0.162159264087677</v>
+        <v>9.2169977724552155E-2</v>
       </c>
       <c r="P56" t="s">
         <v>11</v>
@@ -5329,13 +5452,13 @@
         <v>11</v>
       </c>
       <c r="R56">
-        <v>-0.22756226360797882</v>
+        <v>0</v>
       </c>
       <c r="S56" t="b">
         <v>1</v>
       </c>
       <c r="T56">
-        <v>10704.437161075366</v>
+        <v>12599.466210165512</v>
       </c>
       <c r="U56" t="b">
         <v>1</v>
@@ -5344,39 +5467,39 @@
         <v>3</v>
       </c>
       <c r="W56">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="X56">
         <v>1</v>
       </c>
       <c r="Y56">
-        <v>89.615737915039062</v>
-      </c>
-      <c r="Z56" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA56" t="s">
-        <v>11</v>
+        <v>87.393974304199219</v>
+      </c>
+      <c r="Z56">
+        <v>65.785484313964844</v>
+      </c>
+      <c r="AA56">
+        <v>84.115447998046875</v>
       </c>
       <c r="AB56" t="s">
         <v>11</v>
       </c>
       <c r="AC56" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD56" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE56" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C57" t="s">
         <v>24</v>
@@ -5390,32 +5513,32 @@
       <c r="F57" t="s">
         <v>27</v>
       </c>
-      <c r="G57" s="1">
-        <v>0.22729189</v>
+      <c r="G57">
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>0.38283470273017883</v>
+        <v>0.93811064958572388</v>
       </c>
       <c r="I57">
-        <v>0.71244686841964722</v>
+        <v>1.0659723281860352</v>
       </c>
       <c r="J57">
-        <v>25.76441764831543</v>
+        <v>31.261697769165039</v>
       </c>
       <c r="K57">
-        <v>25.832275390625</v>
+        <v>31.360971450805664</v>
       </c>
       <c r="L57">
-        <v>7.3927335441112518E-2</v>
+        <v>9.1982297599315643E-2</v>
       </c>
       <c r="M57" t="s">
         <v>11</v>
       </c>
       <c r="N57">
-        <v>10.533470153808594</v>
+        <v>15.384602546691895</v>
       </c>
       <c r="O57">
-        <v>0.44803041219711304</v>
+        <v>9.2169977724552155E-2</v>
       </c>
       <c r="P57" t="s">
         <v>11</v>
@@ -5424,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="R57">
-        <v>0.93717604875564575</v>
+        <v>0</v>
       </c>
       <c r="S57" t="b">
         <v>1</v>
       </c>
       <c r="T57">
-        <v>10704.437161075366</v>
+        <v>12599.466210165512</v>
       </c>
       <c r="U57" t="b">
         <v>1</v>
@@ -5439,39 +5562,39 @@
         <v>3</v>
       </c>
       <c r="W57">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="X57">
         <v>1</v>
       </c>
       <c r="Y57">
-        <v>89.615737915039062</v>
-      </c>
-      <c r="Z57" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA57" t="s">
-        <v>11</v>
+        <v>87.6920166015625</v>
+      </c>
+      <c r="Z57">
+        <v>65.785484313964844</v>
+      </c>
+      <c r="AA57">
+        <v>84.115447998046875</v>
       </c>
       <c r="AB57" t="s">
         <v>11</v>
       </c>
       <c r="AC57" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD57" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE57" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="B58" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C58" t="s">
         <v>24</v>
@@ -5485,32 +5608,32 @@
       <c r="F58" t="s">
         <v>27</v>
       </c>
-      <c r="G58" s="1">
-        <v>0.22729189</v>
+      <c r="G58">
+        <v>0.14045263826847076</v>
       </c>
       <c r="H58">
-        <v>0.38283470273017883</v>
+        <v>9.8728612065315247E-2</v>
       </c>
       <c r="I58">
-        <v>0.71244686841964722</v>
+        <v>0.19980980455875397</v>
       </c>
       <c r="J58">
-        <v>25.911056518554688</v>
+        <v>27.089807510375977</v>
       </c>
       <c r="K58">
-        <v>25.832275390625</v>
+        <v>27.024147033691406</v>
       </c>
       <c r="L58">
-        <v>7.3927335441112518E-2</v>
+        <v>9.2859283089637756E-2</v>
       </c>
       <c r="M58" t="s">
         <v>11</v>
       </c>
       <c r="N58">
-        <v>10.533470153808594</v>
+        <v>12.428138732910156</v>
       </c>
       <c r="O58">
-        <v>0.44803041219711304</v>
+        <v>0.50854367017745972</v>
       </c>
       <c r="P58" t="s">
         <v>11</v>
@@ -5519,7 +5642,7 @@
         <v>11</v>
       </c>
       <c r="R58">
-        <v>0.93717604875564575</v>
+        <v>2.8318443298339844</v>
       </c>
       <c r="S58" t="b">
         <v>1</v>
@@ -5534,13 +5657,13 @@
         <v>3</v>
       </c>
       <c r="W58">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="X58">
         <v>1</v>
       </c>
       <c r="Y58">
-        <v>89.3206787109375</v>
+        <v>88.273551940917969</v>
       </c>
       <c r="Z58" t="s">
         <v>11</v>
@@ -5552,21 +5675,21 @@
         <v>11</v>
       </c>
       <c r="AC58" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD58" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE58" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C59" t="s">
         <v>24</v>
@@ -5580,32 +5703,32 @@
       <c r="F59" t="s">
         <v>27</v>
       </c>
-      <c r="G59" s="1">
-        <v>0.22729189</v>
+      <c r="G59">
+        <v>0.14045263826847076</v>
       </c>
       <c r="H59">
-        <v>0.38283470273017883</v>
+        <v>9.8728612065315247E-2</v>
       </c>
       <c r="I59">
-        <v>0.71244686841964722</v>
+        <v>0.19980980455875397</v>
       </c>
       <c r="J59">
-        <v>25.82135009765625</v>
+        <v>26.958484649658203</v>
       </c>
       <c r="K59">
-        <v>25.832275390625</v>
+        <v>27.024147033691406</v>
       </c>
       <c r="L59">
-        <v>7.3927335441112518E-2</v>
+        <v>9.2859283089637756E-2</v>
       </c>
       <c r="M59" t="s">
         <v>11</v>
       </c>
       <c r="N59">
-        <v>10.533470153808594</v>
+        <v>12.428138732910156</v>
       </c>
       <c r="O59">
-        <v>0.44803041219711304</v>
+        <v>0.50854367017745972</v>
       </c>
       <c r="P59" t="s">
         <v>11</v>
@@ -5614,7 +5737,7 @@
         <v>11</v>
       </c>
       <c r="R59">
-        <v>0.93717604875564575</v>
+        <v>2.8318443298339844</v>
       </c>
       <c r="S59" t="b">
         <v>1</v>
@@ -5629,13 +5752,13 @@
         <v>3</v>
       </c>
       <c r="W59">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="X59">
         <v>1</v>
       </c>
       <c r="Y59">
-        <v>89.3206787109375</v>
+        <v>88.27276611328125</v>
       </c>
       <c r="Z59" t="s">
         <v>11</v>
@@ -5647,24 +5770,24 @@
         <v>11</v>
       </c>
       <c r="AC59" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD59" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE59" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C60" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D60" t="s">
         <v>25</v>
@@ -5675,32 +5798,32 @@
       <c r="F60" t="s">
         <v>27</v>
       </c>
-      <c r="G60" t="s">
-        <v>11</v>
-      </c>
-      <c r="H60" t="s">
-        <v>11</v>
-      </c>
-      <c r="I60" t="s">
-        <v>11</v>
+      <c r="G60">
+        <v>4.7694783210754395</v>
+      </c>
+      <c r="H60">
+        <v>3.5862267017364502</v>
+      </c>
+      <c r="I60">
+        <v>6.3431367874145508</v>
       </c>
       <c r="J60">
-        <v>14.949556350708008</v>
+        <v>30.041627883911133</v>
       </c>
       <c r="K60">
-        <v>14.596007347106934</v>
+        <v>29.838142395019531</v>
       </c>
       <c r="L60">
-        <v>0.49999380111694336</v>
+        <v>0.28777194023132324</v>
       </c>
       <c r="M60" t="s">
         <v>11</v>
       </c>
-      <c r="N60" t="s">
-        <v>11</v>
-      </c>
-      <c r="O60" t="s">
-        <v>11</v>
+      <c r="N60">
+        <v>13.130770683288574</v>
+      </c>
+      <c r="O60">
+        <v>0.41136488318443298</v>
       </c>
       <c r="P60" t="s">
         <v>11</v>
@@ -5708,14 +5831,14 @@
       <c r="Q60" t="s">
         <v>11</v>
       </c>
-      <c r="R60" t="s">
-        <v>11</v>
+      <c r="R60">
+        <v>-2.2538316249847412</v>
       </c>
       <c r="S60" t="b">
         <v>1</v>
       </c>
       <c r="T60">
-        <v>7233.1722656250004</v>
+        <v>12599.466210165512</v>
       </c>
       <c r="U60" t="b">
         <v>1</v>
@@ -5724,16 +5847,16 @@
         <v>3</v>
       </c>
       <c r="W60">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="X60">
         <v>1</v>
       </c>
       <c r="Y60">
-        <v>80.516716003417969</v>
-      </c>
-      <c r="Z60" t="s">
-        <v>11</v>
+        <v>87.386871337890625</v>
+      </c>
+      <c r="Z60">
+        <v>66.078399658203125</v>
       </c>
       <c r="AA60" t="s">
         <v>11</v>
@@ -5742,24 +5865,24 @@
         <v>11</v>
       </c>
       <c r="AC60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE60" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D61" t="s">
         <v>25</v>
@@ -5770,32 +5893,32 @@
       <c r="F61" t="s">
         <v>27</v>
       </c>
-      <c r="G61" t="s">
-        <v>11</v>
-      </c>
-      <c r="H61" t="s">
-        <v>11</v>
-      </c>
-      <c r="I61" t="s">
-        <v>11</v>
+      <c r="G61">
+        <v>4.7694783210754395</v>
+      </c>
+      <c r="H61">
+        <v>3.5862267017364502</v>
+      </c>
+      <c r="I61">
+        <v>6.3431367874145508</v>
       </c>
       <c r="J61">
-        <v>14.242458343505859</v>
+        <v>29.63465690612793</v>
       </c>
       <c r="K61">
-        <v>14.596007347106934</v>
+        <v>29.838142395019531</v>
       </c>
       <c r="L61">
-        <v>0.49999380111694336</v>
+        <v>0.28777194023132324</v>
       </c>
       <c r="M61" t="s">
         <v>11</v>
       </c>
-      <c r="N61" t="s">
-        <v>11</v>
-      </c>
-      <c r="O61" t="s">
-        <v>11</v>
+      <c r="N61">
+        <v>13.130770683288574</v>
+      </c>
+      <c r="O61">
+        <v>0.41136488318443298</v>
       </c>
       <c r="P61" t="s">
         <v>11</v>
@@ -5803,14 +5926,14 @@
       <c r="Q61" t="s">
         <v>11</v>
       </c>
-      <c r="R61" t="s">
-        <v>11</v>
+      <c r="R61">
+        <v>-2.2538316249847412</v>
       </c>
       <c r="S61" t="b">
         <v>1</v>
       </c>
       <c r="T61">
-        <v>7233.1722656250004</v>
+        <v>12599.466210165512</v>
       </c>
       <c r="U61" t="b">
         <v>1</v>
@@ -5819,13 +5942,13 @@
         <v>3</v>
       </c>
       <c r="W61">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="X61">
         <v>1</v>
       </c>
       <c r="Y61">
-        <v>82.306755065917969</v>
+        <v>87.5362548828125</v>
       </c>
       <c r="Z61" t="s">
         <v>11</v>
@@ -5837,24 +5960,24 @@
         <v>11</v>
       </c>
       <c r="AC61" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD61" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE61" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="B62" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="C62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D62" t="s">
         <v>25</v>
@@ -5875,13 +5998,13 @@
         <v>11</v>
       </c>
       <c r="J62">
-        <v>14.06662654876709</v>
+        <v>16.468423843383789</v>
       </c>
       <c r="K62">
-        <v>14.277317047119141</v>
+        <v>16.20756721496582</v>
       </c>
       <c r="L62">
-        <v>0.19373771548271179</v>
+        <v>0.22685089707374573</v>
       </c>
       <c r="M62" t="s">
         <v>11</v>
@@ -5905,7 +6028,7 @@
         <v>1</v>
       </c>
       <c r="T62">
-        <v>7233.1722656250004</v>
+        <v>12914.500000000002</v>
       </c>
       <c r="U62" t="b">
         <v>1</v>
@@ -5914,13 +6037,13 @@
         <v>3</v>
       </c>
       <c r="W62">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X62">
         <v>1</v>
       </c>
       <c r="Y62">
-        <v>84.990928649902344</v>
+        <v>83.955230712890625</v>
       </c>
       <c r="Z62" t="s">
         <v>11</v>
@@ -5932,24 +6055,24 @@
         <v>11</v>
       </c>
       <c r="AC62" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD62" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE62" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="C63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D63" t="s">
         <v>25</v>
@@ -5970,13 +6093,13 @@
         <v>11</v>
       </c>
       <c r="J63">
-        <v>14.447789192199707</v>
+        <v>16.097816467285156</v>
       </c>
       <c r="K63">
-        <v>14.277317047119141</v>
+        <v>16.20756721496582</v>
       </c>
       <c r="L63">
-        <v>0.19373771548271179</v>
+        <v>0.22685089707374573</v>
       </c>
       <c r="M63" t="s">
         <v>11</v>
@@ -6000,7 +6123,7 @@
         <v>1</v>
       </c>
       <c r="T63">
-        <v>7233.1722656250004</v>
+        <v>12914.500000000002</v>
       </c>
       <c r="U63" t="b">
         <v>1</v>
@@ -6009,13 +6132,13 @@
         <v>3</v>
       </c>
       <c r="W63">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X63">
         <v>1</v>
       </c>
       <c r="Y63">
-        <v>84.994354248046875</v>
+        <v>83.955230712890625</v>
       </c>
       <c r="Z63" t="s">
         <v>11</v>
@@ -6027,24 +6150,24 @@
         <v>11</v>
       </c>
       <c r="AC63" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD63" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE63" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="B64" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="C64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D64" t="s">
         <v>25</v>
@@ -6065,13 +6188,13 @@
         <v>11</v>
       </c>
       <c r="J64">
-        <v>14.317533493041992</v>
+        <v>16.056467056274414</v>
       </c>
       <c r="K64">
-        <v>14.277317047119141</v>
+        <v>16.20756721496582</v>
       </c>
       <c r="L64">
-        <v>0.19373771548271179</v>
+        <v>0.22685089707374573</v>
       </c>
       <c r="M64" t="s">
         <v>11</v>
@@ -6095,7 +6218,7 @@
         <v>1</v>
       </c>
       <c r="T64">
-        <v>7233.1722656250004</v>
+        <v>12914.500000000002</v>
       </c>
       <c r="U64" t="b">
         <v>1</v>
@@ -6104,13 +6227,13 @@
         <v>3</v>
       </c>
       <c r="W64">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X64">
         <v>1</v>
       </c>
       <c r="Y64">
-        <v>85.4417724609375</v>
+        <v>83.803276062011719</v>
       </c>
       <c r="Z64" t="s">
         <v>11</v>
@@ -6122,24 +6245,24 @@
         <v>11</v>
       </c>
       <c r="AC64" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD64" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE64" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="B65" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="C65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D65" t="s">
         <v>25</v>
@@ -6160,13 +6283,13 @@
         <v>11</v>
       </c>
       <c r="J65">
-        <v>15.569726943969727</v>
+        <v>15.972212791442871</v>
       </c>
       <c r="K65">
-        <v>15.622016906738281</v>
+        <v>15.976369857788086</v>
       </c>
       <c r="L65">
-        <v>0.13091874122619629</v>
+        <v>5.8789798058569431E-3</v>
       </c>
       <c r="M65" t="s">
         <v>11</v>
@@ -6190,7 +6313,7 @@
         <v>1</v>
       </c>
       <c r="T65">
-        <v>7233.1722656250004</v>
+        <v>12914.500000000002</v>
       </c>
       <c r="U65" t="b">
         <v>1</v>
@@ -6199,13 +6322,13 @@
         <v>3</v>
       </c>
       <c r="W65">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X65">
         <v>1</v>
       </c>
       <c r="Y65">
-        <v>85.891227722167969</v>
+        <v>84.115447998046875</v>
       </c>
       <c r="Z65" t="s">
         <v>11</v>
@@ -6217,24 +6340,24 @@
         <v>11</v>
       </c>
       <c r="AC65" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD65" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE65" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="C66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D66" t="s">
         <v>25</v>
@@ -6255,13 +6378,13 @@
         <v>11</v>
       </c>
       <c r="J66">
-        <v>15.525323867797852</v>
+        <v>15.980526924133301</v>
       </c>
       <c r="K66">
-        <v>15.622016906738281</v>
+        <v>15.976369857788086</v>
       </c>
       <c r="L66">
-        <v>0.13091874122619629</v>
+        <v>5.8789798058569431E-3</v>
       </c>
       <c r="M66" t="s">
         <v>11</v>
@@ -6285,7 +6408,7 @@
         <v>1</v>
       </c>
       <c r="T66">
-        <v>7233.1722656250004</v>
+        <v>12914.500000000002</v>
       </c>
       <c r="U66" t="b">
         <v>1</v>
@@ -6300,7 +6423,7 @@
         <v>1</v>
       </c>
       <c r="Y66">
-        <v>86.040390014648438</v>
+        <v>84.115447998046875</v>
       </c>
       <c r="Z66" t="s">
         <v>11</v>
@@ -6312,24 +6435,24 @@
         <v>11</v>
       </c>
       <c r="AC66" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD66" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE66" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D67" t="s">
         <v>25</v>
@@ -6350,13 +6473,13 @@
         <v>11</v>
       </c>
       <c r="J67">
-        <v>15.770998954772949</v>
+        <v>18.899652481079102</v>
       </c>
       <c r="K67">
-        <v>15.622016906738281</v>
+        <v>18.997848510742188</v>
       </c>
       <c r="L67">
-        <v>0.13091874122619629</v>
+        <v>9.0955756604671478E-2</v>
       </c>
       <c r="M67" t="s">
         <v>11</v>
@@ -6380,7 +6503,7 @@
         <v>1</v>
       </c>
       <c r="T67">
-        <v>7233.1722656250004</v>
+        <v>12914.500000000002</v>
       </c>
       <c r="U67" t="b">
         <v>1</v>
@@ -6389,13 +6512,13 @@
         <v>3</v>
       </c>
       <c r="W67">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="X67">
         <v>1</v>
       </c>
       <c r="Y67">
-        <v>85.88665771484375</v>
+        <v>82.768928527832031</v>
       </c>
       <c r="Z67" t="s">
         <v>11</v>
@@ -6407,24 +6530,24 @@
         <v>11</v>
       </c>
       <c r="AC67" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD67" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE67" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="B68" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D68" t="s">
         <v>25</v>
@@ -6445,13 +6568,13 @@
         <v>11</v>
       </c>
       <c r="J68">
-        <v>14.98634147644043</v>
+        <v>19.079212188720703</v>
       </c>
       <c r="K68">
-        <v>15.29880428314209</v>
+        <v>18.997848510742188</v>
       </c>
       <c r="L68">
-        <v>0.44188913702964783</v>
+        <v>9.0955756604671478E-2</v>
       </c>
       <c r="M68" t="s">
         <v>11</v>
@@ -6475,7 +6598,7 @@
         <v>1</v>
       </c>
       <c r="T68">
-        <v>7233.1722656250004</v>
+        <v>12914.500000000002</v>
       </c>
       <c r="U68" t="b">
         <v>1</v>
@@ -6484,13 +6607,13 @@
         <v>3</v>
       </c>
       <c r="W68">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="X68">
         <v>1</v>
       </c>
       <c r="Y68">
-        <v>86.035820007324219</v>
+        <v>82.470932006835938</v>
       </c>
       <c r="Z68" t="s">
         <v>11</v>
@@ -6502,24 +6625,24 @@
         <v>11</v>
       </c>
       <c r="AC68" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD68" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE68" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="B69" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D69" t="s">
         <v>25</v>
@@ -6540,13 +6663,13 @@
         <v>11</v>
       </c>
       <c r="J69">
-        <v>15.61126708984375</v>
+        <v>19.014682769775391</v>
       </c>
       <c r="K69">
-        <v>15.29880428314209</v>
+        <v>18.997848510742188</v>
       </c>
       <c r="L69">
-        <v>0.44188913702964783</v>
+        <v>9.0955756604671478E-2</v>
       </c>
       <c r="M69" t="s">
         <v>11</v>
@@ -6570,7 +6693,7 @@
         <v>1</v>
       </c>
       <c r="T69">
-        <v>7233.1722656250004</v>
+        <v>12914.500000000002</v>
       </c>
       <c r="U69" t="b">
         <v>1</v>
@@ -6579,13 +6702,13 @@
         <v>3</v>
       </c>
       <c r="W69">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="X69">
         <v>1</v>
       </c>
       <c r="Y69">
-        <v>85.592247009277344</v>
+        <v>82.618545532226562</v>
       </c>
       <c r="Z69" t="s">
         <v>11</v>
@@ -6597,24 +6720,24 @@
         <v>11</v>
       </c>
       <c r="AC69" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD69" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE69" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="B70" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D70" t="s">
         <v>25</v>
@@ -6625,32 +6748,32 @@
       <c r="F70" t="s">
         <v>27</v>
       </c>
-      <c r="G70" s="1">
-        <v>0.43521319000000003</v>
-      </c>
-      <c r="H70">
-        <v>0.81032931804656982</v>
-      </c>
-      <c r="I70">
-        <v>1.2340661287307739</v>
+      <c r="G70" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" t="s">
+        <v>11</v>
+      </c>
+      <c r="I70" t="s">
+        <v>11</v>
       </c>
       <c r="J70">
-        <v>25.790241241455078</v>
+        <v>16.499515533447266</v>
       </c>
       <c r="K70">
-        <v>25.464035034179688</v>
+        <v>16.707370758056641</v>
       </c>
       <c r="L70">
-        <v>0.2946685254573822</v>
+        <v>0.29395303130149841</v>
       </c>
       <c r="M70" t="s">
         <v>11</v>
       </c>
-      <c r="N70">
-        <v>9.5962944030761719</v>
-      </c>
-      <c r="O70">
-        <v>0.30341970920562744</v>
+      <c r="N70" t="s">
+        <v>11</v>
+      </c>
+      <c r="O70" t="s">
+        <v>11</v>
       </c>
       <c r="P70" t="s">
         <v>11</v>
@@ -6658,14 +6781,14 @@
       <c r="Q70" t="s">
         <v>11</v>
       </c>
-      <c r="R70">
-        <v>0</v>
+      <c r="R70" t="s">
+        <v>11</v>
       </c>
       <c r="S70" t="b">
         <v>1</v>
       </c>
       <c r="T70">
-        <v>10704.437161075366</v>
+        <v>12914.500000000002</v>
       </c>
       <c r="U70" t="b">
         <v>1</v>
@@ -6674,16 +6797,16 @@
         <v>3</v>
       </c>
       <c r="W70">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="X70">
         <v>1</v>
       </c>
       <c r="Y70">
-        <v>89.616081237792969</v>
-      </c>
-      <c r="Z70">
-        <v>63.809677124023438</v>
+        <v>83.363594055175781</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>11</v>
       </c>
       <c r="AA70" t="s">
         <v>11</v>
@@ -6692,24 +6815,24 @@
         <v>11</v>
       </c>
       <c r="AC70" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD70" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE70" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="B71" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="C71" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D71" t="s">
         <v>25</v>
@@ -6720,32 +6843,32 @@
       <c r="F71" t="s">
         <v>27</v>
       </c>
-      <c r="G71" s="1">
-        <v>0.43521319000000003</v>
-      </c>
-      <c r="H71">
-        <v>0.81032931804656982</v>
-      </c>
-      <c r="I71">
-        <v>1.2340661287307739</v>
+      <c r="G71" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" t="s">
+        <v>11</v>
+      </c>
+      <c r="I71" t="s">
+        <v>11</v>
       </c>
       <c r="J71">
-        <v>25.217138290405273</v>
+        <v>16.915227890014648</v>
       </c>
       <c r="K71">
-        <v>25.464035034179688</v>
+        <v>16.707370758056641</v>
       </c>
       <c r="L71">
-        <v>0.2946685254573822</v>
+        <v>0.29395303130149841</v>
       </c>
       <c r="M71" t="s">
         <v>11</v>
       </c>
-      <c r="N71">
-        <v>9.5962944030761719</v>
-      </c>
-      <c r="O71">
-        <v>0.30341970920562744</v>
+      <c r="N71" t="s">
+        <v>11</v>
+      </c>
+      <c r="O71" t="s">
+        <v>11</v>
       </c>
       <c r="P71" t="s">
         <v>11</v>
@@ -6753,14 +6876,14 @@
       <c r="Q71" t="s">
         <v>11</v>
       </c>
-      <c r="R71">
-        <v>0</v>
+      <c r="R71" t="s">
+        <v>11</v>
       </c>
       <c r="S71" t="b">
         <v>1</v>
       </c>
       <c r="T71">
-        <v>10704.437161075366</v>
+        <v>12914.500000000002</v>
       </c>
       <c r="U71" t="b">
         <v>1</v>
@@ -6769,13 +6892,13 @@
         <v>3</v>
       </c>
       <c r="W71">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="X71">
         <v>1</v>
       </c>
       <c r="Y71">
-        <v>89.466911315917969</v>
+        <v>82.91741943359375</v>
       </c>
       <c r="Z71" t="s">
         <v>11</v>
@@ -6787,21 +6910,21 @@
         <v>11</v>
       </c>
       <c r="AC71" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD71" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE71" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="B72" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C72" t="s">
         <v>24</v>
@@ -6815,32 +6938,32 @@
       <c r="F72" t="s">
         <v>27</v>
       </c>
-      <c r="G72" s="1">
-        <v>0.43521319000000003</v>
+      <c r="G72">
+        <v>0.68086510896682739</v>
       </c>
       <c r="H72">
-        <v>0.81032931804656982</v>
+        <v>0.32633310556411743</v>
       </c>
       <c r="I72">
-        <v>1.2340661287307739</v>
+        <v>1.4205647706985474</v>
       </c>
       <c r="J72">
-        <v>25.384721755981445</v>
+        <v>33.575263977050781</v>
       </c>
       <c r="K72">
-        <v>25.464035034179688</v>
+        <v>32.826454162597656</v>
       </c>
       <c r="L72">
-        <v>0.2946685254573822</v>
+        <v>1.0589797496795654</v>
       </c>
       <c r="M72" t="s">
         <v>11</v>
       </c>
       <c r="N72">
-        <v>9.5962944030761719</v>
+        <v>15.93916130065918</v>
       </c>
       <c r="O72">
-        <v>0.30341970920562744</v>
+        <v>1.0610237121582031</v>
       </c>
       <c r="P72" t="s">
         <v>11</v>
@@ -6849,13 +6972,13 @@
         <v>11</v>
       </c>
       <c r="R72">
-        <v>0</v>
+        <v>0.55455905199050903</v>
       </c>
       <c r="S72" t="b">
         <v>1</v>
       </c>
       <c r="T72">
-        <v>10704.437161075366</v>
+        <v>12599.466210165512</v>
       </c>
       <c r="U72" t="b">
         <v>1</v>
@@ -6864,13 +6987,13 @@
         <v>3</v>
       </c>
       <c r="W72">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="X72">
         <v>1</v>
       </c>
       <c r="Y72">
-        <v>89.466156005859375</v>
+        <v>87.978477478027344</v>
       </c>
       <c r="Z72" t="s">
         <v>11</v>
@@ -6882,24 +7005,24 @@
         <v>11</v>
       </c>
       <c r="AC72" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD72" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE72" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="B73" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D73" t="s">
         <v>25</v>
@@ -6910,32 +7033,32 @@
       <c r="F73" t="s">
         <v>27</v>
       </c>
-      <c r="G73" t="s">
-        <v>11</v>
-      </c>
-      <c r="H73" t="s">
-        <v>11</v>
-      </c>
-      <c r="I73" t="s">
-        <v>11</v>
+      <c r="G73">
+        <v>0.68086510896682739</v>
+      </c>
+      <c r="H73">
+        <v>0.32633310556411743</v>
+      </c>
+      <c r="I73">
+        <v>1.4205647706985474</v>
       </c>
       <c r="J73">
-        <v>15.951275825500488</v>
+        <v>32.077640533447266</v>
       </c>
       <c r="K73">
-        <v>15.867739677429199</v>
+        <v>32.826454162597656</v>
       </c>
       <c r="L73">
-        <v>7.2346225380897522E-2</v>
+        <v>1.0589797496795654</v>
       </c>
       <c r="M73" t="s">
         <v>11</v>
       </c>
-      <c r="N73" t="s">
-        <v>11</v>
-      </c>
-      <c r="O73" t="s">
-        <v>11</v>
+      <c r="N73">
+        <v>15.93916130065918</v>
+      </c>
+      <c r="O73">
+        <v>1.0610237121582031</v>
       </c>
       <c r="P73" t="s">
         <v>11</v>
@@ -6943,14 +7066,14 @@
       <c r="Q73" t="s">
         <v>11</v>
       </c>
-      <c r="R73" t="s">
-        <v>11</v>
+      <c r="R73">
+        <v>0.55455905199050903</v>
       </c>
       <c r="S73" t="b">
         <v>1</v>
       </c>
       <c r="T73">
-        <v>7233.1722656250004</v>
+        <v>12599.466210165512</v>
       </c>
       <c r="U73" t="b">
         <v>1</v>
@@ -6959,16 +7082,16 @@
         <v>3</v>
       </c>
       <c r="W73">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="X73">
         <v>1</v>
       </c>
       <c r="Y73">
-        <v>85.886833190917969</v>
-      </c>
-      <c r="Z73" t="s">
-        <v>11</v>
+        <v>87.382438659667969</v>
+      </c>
+      <c r="Z73">
+        <v>70.395408630371094</v>
       </c>
       <c r="AA73" t="s">
         <v>11</v>
@@ -6977,24 +7100,24 @@
         <v>11</v>
       </c>
       <c r="AC73" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD73" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE73" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="B74" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C74" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D74" t="s">
         <v>25</v>
@@ -7005,32 +7128,32 @@
       <c r="F74" t="s">
         <v>27</v>
       </c>
-      <c r="G74" t="s">
-        <v>11</v>
-      </c>
-      <c r="H74" t="s">
-        <v>11</v>
-      </c>
-      <c r="I74" t="s">
-        <v>11</v>
+      <c r="G74">
+        <v>4.0731840133666992</v>
+      </c>
+      <c r="H74">
+        <v>3.1515367031097412</v>
+      </c>
+      <c r="I74">
+        <v>5.2643618583679199</v>
       </c>
       <c r="J74">
-        <v>15.825501441955566</v>
+        <v>30.249111175537109</v>
       </c>
       <c r="K74">
-        <v>15.867739677429199</v>
+        <v>30.492300033569336</v>
       </c>
       <c r="L74">
-        <v>7.2346225380897522E-2</v>
+        <v>0.34392097592353821</v>
       </c>
       <c r="M74" t="s">
         <v>11</v>
       </c>
-      <c r="N74" t="s">
-        <v>11</v>
-      </c>
-      <c r="O74" t="s">
-        <v>11</v>
+      <c r="N74">
+        <v>13.358445167541504</v>
+      </c>
+      <c r="O74">
+        <v>0.37010160088539124</v>
       </c>
       <c r="P74" t="s">
         <v>11</v>
@@ -7038,14 +7161,14 @@
       <c r="Q74" t="s">
         <v>11</v>
       </c>
-      <c r="R74" t="s">
-        <v>11</v>
+      <c r="R74">
+        <v>-2.0261571407318115</v>
       </c>
       <c r="S74" t="b">
         <v>1</v>
       </c>
       <c r="T74">
-        <v>7233.1722656250004</v>
+        <v>12599.466210165512</v>
       </c>
       <c r="U74" t="b">
         <v>1</v>
@@ -7054,16 +7177,16 @@
         <v>3</v>
       </c>
       <c r="W74">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="X74">
         <v>1</v>
       </c>
       <c r="Y74">
-        <v>85.886833190917969</v>
-      </c>
-      <c r="Z74" t="s">
-        <v>11</v>
+        <v>88.437141418457031</v>
+      </c>
+      <c r="Z74">
+        <v>65.636459350585938</v>
       </c>
       <c r="AA74" t="s">
         <v>11</v>
@@ -7072,24 +7195,24 @@
         <v>11</v>
       </c>
       <c r="AC74" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD74" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE74" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="B75" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D75" t="s">
         <v>25</v>
@@ -7100,32 +7223,32 @@
       <c r="F75" t="s">
         <v>27</v>
       </c>
-      <c r="G75" t="s">
-        <v>11</v>
-      </c>
-      <c r="H75" t="s">
-        <v>11</v>
-      </c>
-      <c r="I75" t="s">
-        <v>11</v>
+      <c r="G75">
+        <v>4.0731840133666992</v>
+      </c>
+      <c r="H75">
+        <v>3.1515367031097412</v>
+      </c>
+      <c r="I75">
+        <v>5.2643618583679199</v>
       </c>
       <c r="J75">
-        <v>15.826440811157227</v>
+        <v>30.735488891601562</v>
       </c>
       <c r="K75">
-        <v>15.867739677429199</v>
+        <v>30.492300033569336</v>
       </c>
       <c r="L75">
-        <v>7.2346225380897522E-2</v>
+        <v>0.34392097592353821</v>
       </c>
       <c r="M75" t="s">
         <v>11</v>
       </c>
-      <c r="N75" t="s">
-        <v>11</v>
-      </c>
-      <c r="O75" t="s">
-        <v>11</v>
+      <c r="N75">
+        <v>13.358445167541504</v>
+      </c>
+      <c r="O75">
+        <v>0.37010160088539124</v>
       </c>
       <c r="P75" t="s">
         <v>11</v>
@@ -7133,14 +7256,14 @@
       <c r="Q75" t="s">
         <v>11</v>
       </c>
-      <c r="R75" t="s">
-        <v>11</v>
+      <c r="R75">
+        <v>-2.0261571407318115</v>
       </c>
       <c r="S75" t="b">
         <v>1</v>
       </c>
       <c r="T75">
-        <v>7233.1722656250004</v>
+        <v>12599.466210165512</v>
       </c>
       <c r="U75" t="b">
         <v>1</v>
@@ -7149,13 +7272,13 @@
         <v>3</v>
       </c>
       <c r="W75">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="X75">
         <v>1</v>
       </c>
       <c r="Y75">
-        <v>85.885971069335938</v>
+        <v>88.437141418457031</v>
       </c>
       <c r="Z75" t="s">
         <v>11</v>
@@ -7167,45 +7290,805 @@
         <v>11</v>
       </c>
       <c r="AC75" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD75" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE75" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>118</v>
+      </c>
+      <c r="B76" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" t="s">
+        <v>26</v>
+      </c>
+      <c r="F76" t="s">
+        <v>27</v>
+      </c>
+      <c r="G76">
+        <v>10.924952507019043</v>
+      </c>
+      <c r="H76">
+        <v>8.3702077865600586</v>
+      </c>
+      <c r="I76">
+        <v>14.259452819824219</v>
+      </c>
+      <c r="J76">
+        <v>30.435667037963867</v>
+      </c>
+      <c r="K76">
+        <v>30.520870208740234</v>
+      </c>
+      <c r="L76">
+        <v>0.12049548327922821</v>
+      </c>
+      <c r="M76" t="s">
+        <v>11</v>
+      </c>
+      <c r="N76">
+        <v>11.935047149658203</v>
+      </c>
+      <c r="O76">
+        <v>0.38429158926010132</v>
+      </c>
+      <c r="P76" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>11</v>
+      </c>
+      <c r="R76">
+        <v>-3.4495551586151123</v>
+      </c>
+      <c r="S76" t="b">
+        <v>1</v>
+      </c>
+      <c r="T76">
+        <v>12599.466210165512</v>
+      </c>
+      <c r="U76" t="b">
+        <v>1</v>
+      </c>
+      <c r="V76">
+        <v>3</v>
+      </c>
+      <c r="W76">
+        <v>21</v>
+      </c>
+      <c r="X76">
+        <v>1</v>
+      </c>
+      <c r="Y76">
+        <v>88.281967163085938</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B77" t="s">
-        <v>96</v>
+        <v>85</v>
+      </c>
+      <c r="C77" t="s">
+        <v>24</v>
+      </c>
+      <c r="D77" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" t="s">
+        <v>26</v>
+      </c>
+      <c r="F77" t="s">
+        <v>27</v>
+      </c>
+      <c r="G77">
+        <v>10.924952507019043</v>
+      </c>
+      <c r="H77">
+        <v>8.3702077865600586</v>
+      </c>
+      <c r="I77">
+        <v>14.259452819824219</v>
+      </c>
+      <c r="J77">
+        <v>30.606073379516602</v>
+      </c>
+      <c r="K77">
+        <v>30.520870208740234</v>
+      </c>
+      <c r="L77">
+        <v>0.12049548327922821</v>
+      </c>
+      <c r="M77" t="s">
+        <v>11</v>
+      </c>
+      <c r="N77">
+        <v>11.935047149658203</v>
+      </c>
+      <c r="O77">
+        <v>0.38429158926010132</v>
+      </c>
+      <c r="P77" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>11</v>
+      </c>
+      <c r="R77">
+        <v>-3.4495551586151123</v>
+      </c>
+      <c r="S77" t="b">
+        <v>1</v>
+      </c>
+      <c r="T77">
+        <v>12599.466210165512</v>
+      </c>
+      <c r="U77" t="b">
+        <v>1</v>
+      </c>
+      <c r="V77">
+        <v>3</v>
+      </c>
+      <c r="W77">
+        <v>23</v>
+      </c>
+      <c r="X77">
+        <v>1</v>
+      </c>
+      <c r="Y77">
+        <v>88.132965087890625</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="B78" t="s">
-        <v>45</v>
+        <v>71</v>
+      </c>
+      <c r="C78" t="s">
+        <v>44</v>
+      </c>
+      <c r="D78" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" t="s">
+        <v>26</v>
+      </c>
+      <c r="F78" t="s">
+        <v>27</v>
+      </c>
+      <c r="G78" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78" t="s">
+        <v>11</v>
+      </c>
+      <c r="I78" t="s">
+        <v>11</v>
+      </c>
+      <c r="J78">
+        <v>16.933837890625</v>
+      </c>
+      <c r="K78">
+        <v>16.887290954589844</v>
+      </c>
+      <c r="L78">
+        <v>6.5827310085296631E-2</v>
+      </c>
+      <c r="M78" t="s">
+        <v>11</v>
+      </c>
+      <c r="N78" t="s">
+        <v>11</v>
+      </c>
+      <c r="O78" t="s">
+        <v>11</v>
+      </c>
+      <c r="P78" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>11</v>
+      </c>
+      <c r="R78" t="s">
+        <v>11</v>
+      </c>
+      <c r="S78" t="b">
+        <v>1</v>
+      </c>
+      <c r="T78">
+        <v>12914.500000000002</v>
+      </c>
+      <c r="U78" t="b">
+        <v>1</v>
+      </c>
+      <c r="V78">
+        <v>3</v>
+      </c>
+      <c r="W78">
+        <v>10</v>
+      </c>
+      <c r="X78">
+        <v>1</v>
+      </c>
+      <c r="Y78">
+        <v>83.657211303710938</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE78" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="B79" t="s">
-        <v>99</v>
+        <v>71</v>
+      </c>
+      <c r="C79" t="s">
+        <v>44</v>
+      </c>
+      <c r="D79" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" t="s">
+        <v>26</v>
+      </c>
+      <c r="F79" t="s">
+        <v>27</v>
+      </c>
+      <c r="G79" t="s">
+        <v>11</v>
+      </c>
+      <c r="H79" t="s">
+        <v>11</v>
+      </c>
+      <c r="I79" t="s">
+        <v>11</v>
+      </c>
+      <c r="J79">
+        <v>16.840744018554688</v>
+      </c>
+      <c r="K79">
+        <v>16.887290954589844</v>
+      </c>
+      <c r="L79">
+        <v>6.5827310085296631E-2</v>
+      </c>
+      <c r="M79" t="s">
+        <v>11</v>
+      </c>
+      <c r="N79" t="s">
+        <v>11</v>
+      </c>
+      <c r="O79" t="s">
+        <v>11</v>
+      </c>
+      <c r="P79" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>11</v>
+      </c>
+      <c r="R79" t="s">
+        <v>11</v>
+      </c>
+      <c r="S79" t="b">
+        <v>1</v>
+      </c>
+      <c r="T79">
+        <v>12914.500000000002</v>
+      </c>
+      <c r="U79" t="b">
+        <v>1</v>
+      </c>
+      <c r="V79">
+        <v>3</v>
+      </c>
+      <c r="W79">
+        <v>9</v>
+      </c>
+      <c r="X79">
+        <v>1</v>
+      </c>
+      <c r="Y79">
+        <v>83.657211303710938</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD79" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE79" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="B80" t="s">
-        <v>101</v>
+        <v>74</v>
+      </c>
+      <c r="C80" t="s">
+        <v>44</v>
+      </c>
+      <c r="D80" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" t="s">
+        <v>26</v>
+      </c>
+      <c r="F80" t="s">
+        <v>27</v>
+      </c>
+      <c r="G80" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80" t="s">
+        <v>11</v>
+      </c>
+      <c r="I80" t="s">
+        <v>11</v>
+      </c>
+      <c r="J80">
+        <v>17.230533599853516</v>
+      </c>
+      <c r="K80">
+        <v>17.133853912353516</v>
+      </c>
+      <c r="L80">
+        <v>0.13672438263893127</v>
+      </c>
+      <c r="M80" t="s">
+        <v>11</v>
+      </c>
+      <c r="N80" t="s">
+        <v>11</v>
+      </c>
+      <c r="O80" t="s">
+        <v>11</v>
+      </c>
+      <c r="P80" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>11</v>
+      </c>
+      <c r="R80" t="s">
+        <v>11</v>
+      </c>
+      <c r="S80" t="b">
+        <v>1</v>
+      </c>
+      <c r="T80">
+        <v>12914.500000000002</v>
+      </c>
+      <c r="U80" t="b">
+        <v>1</v>
+      </c>
+      <c r="V80">
+        <v>3</v>
+      </c>
+      <c r="W80">
+        <v>9</v>
+      </c>
+      <c r="X80">
+        <v>1</v>
+      </c>
+      <c r="Y80">
+        <v>83.966415405273438</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD80" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE80" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>123</v>
+      </c>
+      <c r="B81" t="s">
+        <v>74</v>
+      </c>
+      <c r="C81" t="s">
+        <v>44</v>
+      </c>
+      <c r="D81" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" t="s">
+        <v>26</v>
+      </c>
+      <c r="F81" t="s">
+        <v>27</v>
+      </c>
+      <c r="G81" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81" t="s">
+        <v>11</v>
+      </c>
+      <c r="I81" t="s">
+        <v>11</v>
+      </c>
+      <c r="J81">
+        <v>17.037176132202148</v>
+      </c>
+      <c r="K81">
+        <v>17.133853912353516</v>
+      </c>
+      <c r="L81">
+        <v>0.13672438263893127</v>
+      </c>
+      <c r="M81" t="s">
+        <v>11</v>
+      </c>
+      <c r="N81" t="s">
+        <v>11</v>
+      </c>
+      <c r="O81" t="s">
+        <v>11</v>
+      </c>
+      <c r="P81" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>11</v>
+      </c>
+      <c r="R81" t="s">
+        <v>11</v>
+      </c>
+      <c r="S81" t="b">
+        <v>1</v>
+      </c>
+      <c r="T81">
+        <v>12914.500000000002</v>
+      </c>
+      <c r="U81" t="b">
+        <v>1</v>
+      </c>
+      <c r="V81">
+        <v>3</v>
+      </c>
+      <c r="W81">
+        <v>9</v>
+      </c>
+      <c r="X81">
+        <v>1</v>
+      </c>
+      <c r="Y81">
+        <v>83.966415405273438</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE81" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>124</v>
+      </c>
+      <c r="B82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82" t="s">
+        <v>44</v>
+      </c>
+      <c r="D82" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82" t="s">
+        <v>26</v>
+      </c>
+      <c r="F82" t="s">
+        <v>27</v>
+      </c>
+      <c r="G82" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82" t="s">
+        <v>11</v>
+      </c>
+      <c r="I82" t="s">
+        <v>11</v>
+      </c>
+      <c r="J82">
+        <v>18.327791213989258</v>
+      </c>
+      <c r="K82">
+        <v>18.585823059082031</v>
+      </c>
+      <c r="L82">
+        <v>0.36491212248802185</v>
+      </c>
+      <c r="M82" t="s">
+        <v>11</v>
+      </c>
+      <c r="N82" t="s">
+        <v>11</v>
+      </c>
+      <c r="O82" t="s">
+        <v>11</v>
+      </c>
+      <c r="P82" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>11</v>
+      </c>
+      <c r="R82" t="s">
+        <v>11</v>
+      </c>
+      <c r="S82" t="b">
+        <v>1</v>
+      </c>
+      <c r="T82">
+        <v>12914.500000000002</v>
+      </c>
+      <c r="U82" t="b">
+        <v>1</v>
+      </c>
+      <c r="V82">
+        <v>3</v>
+      </c>
+      <c r="W82">
+        <v>10</v>
+      </c>
+      <c r="X82">
+        <v>1</v>
+      </c>
+      <c r="Y82">
+        <v>83.513931274414062</v>
+      </c>
+      <c r="Z82">
+        <v>64.143821716308594</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD82" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE82" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>125</v>
+      </c>
+      <c r="B83" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" t="s">
+        <v>44</v>
+      </c>
+      <c r="D83" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83" t="s">
+        <v>26</v>
+      </c>
+      <c r="F83" t="s">
+        <v>27</v>
+      </c>
+      <c r="G83" t="s">
+        <v>11</v>
+      </c>
+      <c r="H83" t="s">
+        <v>11</v>
+      </c>
+      <c r="I83" t="s">
+        <v>11</v>
+      </c>
+      <c r="J83">
+        <v>18.843854904174805</v>
+      </c>
+      <c r="K83">
+        <v>18.585823059082031</v>
+      </c>
+      <c r="L83">
+        <v>0.36491212248802185</v>
+      </c>
+      <c r="M83" t="s">
+        <v>11</v>
+      </c>
+      <c r="N83" t="s">
+        <v>11</v>
+      </c>
+      <c r="O83" t="s">
+        <v>11</v>
+      </c>
+      <c r="P83" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>11</v>
+      </c>
+      <c r="R83" t="s">
+        <v>11</v>
+      </c>
+      <c r="S83" t="b">
+        <v>1</v>
+      </c>
+      <c r="T83">
+        <v>12914.500000000002</v>
+      </c>
+      <c r="U83" t="b">
+        <v>1</v>
+      </c>
+      <c r="V83">
+        <v>3</v>
+      </c>
+      <c r="W83">
+        <v>11</v>
+      </c>
+      <c r="X83">
+        <v>1</v>
+      </c>
+      <c r="Y83">
+        <v>83.512603759765625</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD83" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE83" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="87" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -7230,7 +8113,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -7252,7 +8135,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1">
         <v>2.6382075500000002</v>
@@ -7263,7 +8146,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1">
         <v>1.3210706699999999</v>
@@ -7274,7 +8157,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1">
         <v>1.5735657700000001</v>
@@ -7285,7 +8168,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C6" s="1">
         <v>0.43521319000000003</v>
@@ -7296,7 +8179,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C7" s="1">
         <v>6.1126840000000002E-2</v>
@@ -7307,7 +8190,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C8" s="1">
         <v>0.22729189</v>
@@ -7318,7 +8201,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C9" s="1">
         <v>0.50957149000000002</v>
@@ -7329,7 +8212,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C10" s="1">
         <v>0.34399239999999998</v>
@@ -7340,7 +8223,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -7351,7 +8234,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C12" s="1">
         <v>0.55771904000000005</v>
@@ -7362,7 +8245,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C13" s="1">
         <v>0.27713808000000001</v>
@@ -7373,7 +8256,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1">
         <v>0.20673490999999999</v>
@@ -7381,7 +8264,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/11_27_19_Zinc_Combo.xlsx
+++ b/11_27_19_Zinc_Combo.xlsx
@@ -8,18 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paigehalas/ph-future-phd/ph-future-phd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B52726F-E593-C349-91E3-755F9ABDC197}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966B809F-262B-6E49-8D53-23F5187D96D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="520" yWindow="660" windowWidth="20640" windowHeight="12920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="135">
   <si>
     <t>Block Type</t>
   </si>
@@ -407,6 +414,33 @@
   </si>
   <si>
     <t>H9</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg CT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delta CT </t>
+  </si>
+  <si>
+    <t>SSH Gap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS GAP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delta Delta CT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fold Change </t>
   </si>
 </sst>
 </file>
@@ -750,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="I68" sqref="I68"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5609,13 +5643,7 @@
         <v>27</v>
       </c>
       <c r="G58">
-        <v>0.14045263826847076</v>
-      </c>
-      <c r="H58">
-        <v>9.8728612065315247E-2</v>
-      </c>
-      <c r="I58">
-        <v>0.19980980455875397</v>
+        <v>6.0943780181335252E-3</v>
       </c>
       <c r="J58">
         <v>27.089807510375977</v>
@@ -5704,13 +5732,7 @@
         <v>27</v>
       </c>
       <c r="G59">
-        <v>0.14045263826847076</v>
-      </c>
-      <c r="H59">
-        <v>9.8728612065315247E-2</v>
-      </c>
-      <c r="I59">
-        <v>0.19980980455875397</v>
+        <v>6.0943780181335252E-3</v>
       </c>
       <c r="J59">
         <v>26.958484649658203</v>
@@ -8101,7 +8123,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8270,4 +8292,1028 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6CD119-2117-344B-9D6F-B9E2132AF7C7}">
+  <dimension ref="A1:AE18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2">
+        <v>27.089807510375977</v>
+      </c>
+      <c r="K2">
+        <v>27.024147033691406</v>
+      </c>
+      <c r="L2">
+        <v>9.2859283089637756E-2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2">
+        <v>12.428138732910156</v>
+      </c>
+      <c r="O2">
+        <v>0.50854367017745972</v>
+      </c>
+      <c r="P2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2">
+        <v>2.8318443298339844</v>
+      </c>
+      <c r="S2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>10704.437161075366</v>
+      </c>
+      <c r="U2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>3</v>
+      </c>
+      <c r="W2">
+        <v>17</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>88.273551940917969</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3">
+        <v>26.958484649658203</v>
+      </c>
+      <c r="K3">
+        <v>27.024147033691406</v>
+      </c>
+      <c r="L3">
+        <v>9.2859283089637756E-2</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3">
+        <v>12.428138732910156</v>
+      </c>
+      <c r="O3">
+        <v>0.50854367017745972</v>
+      </c>
+      <c r="P3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3">
+        <v>2.8318443298339844</v>
+      </c>
+      <c r="S3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>10704.437161075366</v>
+      </c>
+      <c r="U3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>3</v>
+      </c>
+      <c r="W3">
+        <v>18</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>88.27276611328125</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4">
+        <v>18.899652481079102</v>
+      </c>
+      <c r="K4">
+        <v>18.997848510742188</v>
+      </c>
+      <c r="L4">
+        <v>9.0955756604671478E-2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S4" t="b">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>12914.500000000002</v>
+      </c>
+      <c r="U4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>3</v>
+      </c>
+      <c r="W4">
+        <v>11</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>82.768928527832031</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5">
+        <v>19.079212188720703</v>
+      </c>
+      <c r="K5">
+        <v>18.997848510742188</v>
+      </c>
+      <c r="L5">
+        <v>9.0955756604671478E-2</v>
+      </c>
+      <c r="M5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" t="s">
+        <v>11</v>
+      </c>
+      <c r="S5" t="b">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>12914.500000000002</v>
+      </c>
+      <c r="U5" t="b">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>3</v>
+      </c>
+      <c r="W5">
+        <v>11</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>82.470932006835938</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6">
+        <v>19.014682769775391</v>
+      </c>
+      <c r="K6">
+        <v>18.997848510742188</v>
+      </c>
+      <c r="L6">
+        <v>9.0955756604671478E-2</v>
+      </c>
+      <c r="M6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R6" t="s">
+        <v>11</v>
+      </c>
+      <c r="S6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>12914.500000000002</v>
+      </c>
+      <c r="U6" t="b">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>3</v>
+      </c>
+      <c r="W6">
+        <v>13</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>82.618545532226562</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0.93811064958572388</v>
+      </c>
+      <c r="I7">
+        <v>1.0659723281860352</v>
+      </c>
+      <c r="J7">
+        <v>31.443307876586914</v>
+      </c>
+      <c r="K7">
+        <v>31.360971450805664</v>
+      </c>
+      <c r="L7">
+        <v>9.1982297599315643E-2</v>
+      </c>
+      <c r="M7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7">
+        <v>15.384602546691895</v>
+      </c>
+      <c r="O7">
+        <v>9.2169977724552155E-2</v>
+      </c>
+      <c r="P7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>11</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>12599.466210165512</v>
+      </c>
+      <c r="U7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>3</v>
+      </c>
+      <c r="W7">
+        <v>23</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>87.379669189453125</v>
+      </c>
+      <c r="Z7">
+        <v>83.803276062011719</v>
+      </c>
+      <c r="AA7">
+        <v>66.219352722167969</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0.93811064958572388</v>
+      </c>
+      <c r="I8">
+        <v>1.0659723281860352</v>
+      </c>
+      <c r="J8">
+        <v>31.377910614013672</v>
+      </c>
+      <c r="K8">
+        <v>31.360971450805664</v>
+      </c>
+      <c r="L8">
+        <v>9.1982297599315643E-2</v>
+      </c>
+      <c r="M8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8">
+        <v>15.384602546691895</v>
+      </c>
+      <c r="O8">
+        <v>9.2169977724552155E-2</v>
+      </c>
+      <c r="P8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>11</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8" t="b">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>12599.466210165512</v>
+      </c>
+      <c r="U8" t="b">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>3</v>
+      </c>
+      <c r="W8">
+        <v>23</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>87.393974304199219</v>
+      </c>
+      <c r="Z8">
+        <v>65.785484313964844</v>
+      </c>
+      <c r="AA8">
+        <v>84.115447998046875</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0.93811064958572388</v>
+      </c>
+      <c r="I9">
+        <v>1.0659723281860352</v>
+      </c>
+      <c r="J9">
+        <v>31.261697769165039</v>
+      </c>
+      <c r="K9">
+        <v>31.360971450805664</v>
+      </c>
+      <c r="L9">
+        <v>9.1982297599315643E-2</v>
+      </c>
+      <c r="M9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9">
+        <v>15.384602546691895</v>
+      </c>
+      <c r="O9">
+        <v>9.2169977724552155E-2</v>
+      </c>
+      <c r="P9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9" t="b">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>12599.466210165512</v>
+      </c>
+      <c r="U9" t="b">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>3</v>
+      </c>
+      <c r="W9">
+        <v>25</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>87.6920166015625</v>
+      </c>
+      <c r="Z9">
+        <v>65.785484313964844</v>
+      </c>
+      <c r="AA9">
+        <v>84.115447998046875</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10">
+        <v>15.972212791442871</v>
+      </c>
+      <c r="K10">
+        <v>15.976369857788086</v>
+      </c>
+      <c r="L10">
+        <v>5.8789798058569431E-3</v>
+      </c>
+      <c r="M10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>11</v>
+      </c>
+      <c r="R10" t="s">
+        <v>11</v>
+      </c>
+      <c r="S10" t="b">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>12914.500000000002</v>
+      </c>
+      <c r="U10" t="b">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>3</v>
+      </c>
+      <c r="W10">
+        <v>8</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>84.115447998046875</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11">
+        <v>15.980526924133301</v>
+      </c>
+      <c r="K11">
+        <v>15.976369857788086</v>
+      </c>
+      <c r="L11">
+        <v>5.8789798058569431E-3</v>
+      </c>
+      <c r="M11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>11</v>
+      </c>
+      <c r="R11" t="s">
+        <v>11</v>
+      </c>
+      <c r="S11" t="b">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>12914.500000000002</v>
+      </c>
+      <c r="U11" t="b">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>3</v>
+      </c>
+      <c r="W11">
+        <v>8</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>84.115447998046875</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15">
+        <f>AVERAGE(J2:J3)</f>
+        <v>27.02414608001709</v>
+      </c>
+      <c r="D15">
+        <f>C15-C17</f>
+        <v>8.0262969334920236</v>
+      </c>
+      <c r="E15">
+        <f>D16-D15</f>
+        <v>7.3583052953084334</v>
+      </c>
+      <c r="F15">
+        <f>2^(-E15)</f>
+        <v>6.0943780181335252E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16">
+        <f>AVERAGE(J7:J9)</f>
+        <v>31.360972086588543</v>
+      </c>
+      <c r="D16">
+        <f>C16-C18</f>
+        <v>15.384602228800457</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17">
+        <f>AVERAGE(J4:J6)</f>
+        <v>18.997849146525066</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18">
+        <f>AVERAGE(J10:J11)</f>
+        <v>15.976369857788086</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>